--- a/datasets/produccion.xlsx
+++ b/datasets/produccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0795EA1-2C34-4E57-A2E1-866298DFFBA3}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C7CF7FC-24CA-4160-B945-1DFD5A051ECD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4B7E62A-ACE4-488F-B31E-63058BE35439}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8201" uniqueCount="2606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8512" uniqueCount="2687">
   <si>
     <t>COD</t>
   </si>
@@ -7854,6 +7854,249 @@
   </si>
   <si>
     <t>8;45493;Entregables</t>
+  </si>
+  <si>
+    <t>1;45495;Entregables</t>
+  </si>
+  <si>
+    <t>VISTA VERDE 7B L-36</t>
+  </si>
+  <si>
+    <t>1;45495;Extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Repison </t>
+  </si>
+  <si>
+    <t>2;45495;Extras</t>
+  </si>
+  <si>
+    <t>3;45495;Extras</t>
+  </si>
+  <si>
+    <t>4;45495;Extras</t>
+  </si>
+  <si>
+    <t>5;45495;Extras</t>
+  </si>
+  <si>
+    <t>6;45495;Extras</t>
+  </si>
+  <si>
+    <t>Vest. Ppal.</t>
+  </si>
+  <si>
+    <t>1;45495;Retrabajos</t>
+  </si>
+  <si>
+    <t>4 Vistas</t>
+  </si>
+  <si>
+    <t>2;45495;Retrabajos</t>
+  </si>
+  <si>
+    <t>1;45496;Entregables</t>
+  </si>
+  <si>
+    <t>Forrado 2 Pisos</t>
+  </si>
+  <si>
+    <t>2;45496;Entregables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLAS DEL SUR </t>
+  </si>
+  <si>
+    <t>x6 Cubieretas</t>
+  </si>
+  <si>
+    <t>3;45496;Entregables</t>
+  </si>
+  <si>
+    <t>4;45496;Entregables</t>
+  </si>
+  <si>
+    <t>5;45496;Entregables</t>
+  </si>
+  <si>
+    <t>6;45496;Entregables</t>
+  </si>
+  <si>
+    <t>1;45496;Extras</t>
+  </si>
+  <si>
+    <t>Cocina Ajustes</t>
+  </si>
+  <si>
+    <t>2;45496;Extras</t>
+  </si>
+  <si>
+    <t>3;45496;Extras</t>
+  </si>
+  <si>
+    <t>4;45496;Extras</t>
+  </si>
+  <si>
+    <t>Puerta Corrediza</t>
+  </si>
+  <si>
+    <t>5;45496;Extras</t>
+  </si>
+  <si>
+    <t>Troneras</t>
+  </si>
+  <si>
+    <t>6;45496;Extras</t>
+  </si>
+  <si>
+    <t>1;45497;Entregables</t>
+  </si>
+  <si>
+    <t>3;45497;Entregables</t>
+  </si>
+  <si>
+    <t>4;45497;Entregables</t>
+  </si>
+  <si>
+    <t>Repisas asador</t>
+  </si>
+  <si>
+    <t>1;45497;Extras</t>
+  </si>
+  <si>
+    <t>PERSONAL DE INSTALACIÓN</t>
+  </si>
+  <si>
+    <t>2;45497;Extras</t>
+  </si>
+  <si>
+    <t>3 Per. 5 Días</t>
+  </si>
+  <si>
+    <t>3;45497;Extras</t>
+  </si>
+  <si>
+    <t>LOMALTA 52</t>
+  </si>
+  <si>
+    <t>2 Per. 1 Día</t>
+  </si>
+  <si>
+    <t>4;45497;Extras</t>
+  </si>
+  <si>
+    <t>LINDA VISTA.</t>
+  </si>
+  <si>
+    <t>5;45497;Extras</t>
+  </si>
+  <si>
+    <t>3 Per. 2 Dias</t>
+  </si>
+  <si>
+    <t>6;45497;Extras</t>
+  </si>
+  <si>
+    <t>1;45498;Entregables</t>
+  </si>
+  <si>
+    <t>2;45498;Entregables</t>
+  </si>
+  <si>
+    <t>3;45498;Entregables</t>
+  </si>
+  <si>
+    <t>AGUSTIN OCHOA</t>
+  </si>
+  <si>
+    <t>Puertas Grantía</t>
+  </si>
+  <si>
+    <t>1;45498;Extras</t>
+  </si>
+  <si>
+    <t>3 Per. 4 Dias</t>
+  </si>
+  <si>
+    <t>2;45498;Extras</t>
+  </si>
+  <si>
+    <t>65 Lockers</t>
+  </si>
+  <si>
+    <t>3;45498;Extras</t>
+  </si>
+  <si>
+    <t>Oficina Comercial</t>
+  </si>
+  <si>
+    <t>4;45498;Extras</t>
+  </si>
+  <si>
+    <t>Mesa Diseño</t>
+  </si>
+  <si>
+    <t>5;45498;Extras</t>
+  </si>
+  <si>
+    <t>Oficina Operaciones</t>
+  </si>
+  <si>
+    <t>1;45499;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA-BILBAO</t>
+  </si>
+  <si>
+    <t>2;45499;Entregables</t>
+  </si>
+  <si>
+    <t>3;45499;Entregables</t>
+  </si>
+  <si>
+    <t>4;45499;Entregables</t>
+  </si>
+  <si>
+    <t>5;45499;Entregables</t>
+  </si>
+  <si>
+    <t>7;45499;Entregables</t>
+  </si>
+  <si>
+    <t>8;45499;Entregables</t>
+  </si>
+  <si>
+    <t>Closet Bl.</t>
+  </si>
+  <si>
+    <t>1;45500;Entregables</t>
+  </si>
+  <si>
+    <t>3 Lambrines 6/6</t>
+  </si>
+  <si>
+    <t>2;45500;Entregables</t>
+  </si>
+  <si>
+    <t>3;45500;Entregables</t>
+  </si>
+  <si>
+    <t>3 Juegos marcos</t>
+  </si>
+  <si>
+    <t>4;45500;Entregables</t>
+  </si>
+  <si>
+    <t>Aditiva MTV</t>
+  </si>
+  <si>
+    <t>5;45500;Entregables</t>
+  </si>
+  <si>
+    <t>6;45500;Entregables</t>
+  </si>
+  <si>
+    <t>7;45500;Entregables</t>
   </si>
 </sst>
 </file>
@@ -7920,9 +8163,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1427" totalsRowShown="0">
-  <autoFilter ref="A1:K1427" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1479" totalsRowShown="0">
+  <autoFilter ref="A1:K1479" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B6ECC9CA-BE29-4C5B-9606-01CFB697A054}" name="COD"/>
     <tableColumn id="2" xr3:uid="{C7D7DD62-79C4-4423-B87E-1408D1237598}" name="CTVV" dataDxfId="2"/>
@@ -8257,10 +8504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEF2190-C283-43C9-B0E2-E2F3DD6D60C6}">
-  <dimension ref="A1:K1427"/>
+  <dimension ref="A1:K1479"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1396" workbookViewId="0">
-      <selection activeCell="H1415" sqref="H1415"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1405" workbookViewId="0">
+      <selection activeCell="D1426" sqref="D1426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52157,7 +52404,7 @@
       <c r="A1271" t="s">
         <v>2323</v>
       </c>
-      <c r="B1271" s="2" t="s">
+      <c r="B1271" t="s">
         <v>550</v>
       </c>
       <c r="C1271" t="s">
@@ -52172,7 +52419,7 @@
       <c r="F1271">
         <v>1</v>
       </c>
-      <c r="G1271" s="2">
+      <c r="G1271">
         <v>1.6</v>
       </c>
       <c r="H1271" s="1">
@@ -52192,7 +52439,7 @@
       <c r="A1272" t="s">
         <v>2325</v>
       </c>
-      <c r="B1272" s="2" t="s">
+      <c r="B1272" t="s">
         <v>550</v>
       </c>
       <c r="C1272" t="s">
@@ -52207,7 +52454,7 @@
       <c r="F1272">
         <v>1</v>
       </c>
-      <c r="G1272" s="2">
+      <c r="G1272">
         <v>1</v>
       </c>
       <c r="H1272" s="1">
@@ -52227,7 +52474,7 @@
       <c r="A1273" t="s">
         <v>2328</v>
       </c>
-      <c r="B1273" s="2" t="s">
+      <c r="B1273" t="s">
         <v>550</v>
       </c>
       <c r="C1273" t="s">
@@ -52242,7 +52489,7 @@
       <c r="F1273">
         <v>1</v>
       </c>
-      <c r="G1273" s="2">
+      <c r="G1273">
         <v>0.9</v>
       </c>
       <c r="H1273" s="1">
@@ -52262,7 +52509,7 @@
       <c r="A1274" t="s">
         <v>2331</v>
       </c>
-      <c r="B1274" s="2" t="s">
+      <c r="B1274" t="s">
         <v>550</v>
       </c>
       <c r="C1274" t="s">
@@ -52277,7 +52524,7 @@
       <c r="F1274">
         <v>1</v>
       </c>
-      <c r="G1274" s="2">
+      <c r="G1274">
         <v>4.5</v>
       </c>
       <c r="H1274" s="1">
@@ -52297,7 +52544,7 @@
       <c r="A1275" t="s">
         <v>2334</v>
       </c>
-      <c r="B1275" s="2" t="s">
+      <c r="B1275" t="s">
         <v>550</v>
       </c>
       <c r="C1275" t="s">
@@ -52312,7 +52559,7 @@
       <c r="F1275">
         <v>1</v>
       </c>
-      <c r="G1275" s="2">
+      <c r="G1275">
         <v>1</v>
       </c>
       <c r="H1275" s="1">
@@ -52332,7 +52579,7 @@
       <c r="A1276" t="s">
         <v>2337</v>
       </c>
-      <c r="B1276" s="2" t="s">
+      <c r="B1276" t="s">
         <v>550</v>
       </c>
       <c r="C1276" t="s">
@@ -52347,7 +52594,7 @@
       <c r="F1276">
         <v>1</v>
       </c>
-      <c r="G1276" s="2">
+      <c r="G1276">
         <v>1</v>
       </c>
       <c r="H1276" s="1">
@@ -52367,7 +52614,7 @@
       <c r="A1277" t="s">
         <v>2340</v>
       </c>
-      <c r="B1277" s="2" t="s">
+      <c r="B1277" t="s">
         <v>550</v>
       </c>
       <c r="C1277" t="s">
@@ -52382,7 +52629,7 @@
       <c r="F1277">
         <v>1</v>
       </c>
-      <c r="G1277" s="2">
+      <c r="G1277">
         <v>1.5</v>
       </c>
       <c r="H1277" s="1">
@@ -52402,7 +52649,7 @@
       <c r="A1278" t="s">
         <v>2342</v>
       </c>
-      <c r="B1278" s="2" t="s">
+      <c r="B1278" t="s">
         <v>550</v>
       </c>
       <c r="C1278" t="s">
@@ -52417,7 +52664,7 @@
       <c r="F1278">
         <v>1</v>
       </c>
-      <c r="G1278" s="2">
+      <c r="G1278">
         <v>4</v>
       </c>
       <c r="H1278" s="1">
@@ -52437,7 +52684,7 @@
       <c r="A1279" t="s">
         <v>2345</v>
       </c>
-      <c r="B1279" s="2" t="s">
+      <c r="B1279" t="s">
         <v>550</v>
       </c>
       <c r="C1279" t="s">
@@ -52452,7 +52699,7 @@
       <c r="F1279">
         <v>0</v>
       </c>
-      <c r="G1279" s="2">
+      <c r="G1279">
         <v>0</v>
       </c>
       <c r="H1279" s="1">
@@ -52472,7 +52719,7 @@
       <c r="A1280" t="s">
         <v>2347</v>
       </c>
-      <c r="B1280" s="2" t="s">
+      <c r="B1280" t="s">
         <v>550</v>
       </c>
       <c r="C1280" t="s">
@@ -52487,7 +52734,7 @@
       <c r="F1280">
         <v>0</v>
       </c>
-      <c r="G1280" s="2">
+      <c r="G1280">
         <v>0</v>
       </c>
       <c r="H1280" s="1">
@@ -52507,7 +52754,7 @@
       <c r="A1281" t="s">
         <v>2348</v>
       </c>
-      <c r="B1281" s="2" t="s">
+      <c r="B1281" t="s">
         <v>550</v>
       </c>
       <c r="C1281" t="s">
@@ -52522,7 +52769,7 @@
       <c r="F1281">
         <v>0</v>
       </c>
-      <c r="G1281" s="2">
+      <c r="G1281">
         <v>0</v>
       </c>
       <c r="H1281" s="1">
@@ -52542,7 +52789,7 @@
       <c r="A1282" t="s">
         <v>2350</v>
       </c>
-      <c r="B1282" s="2" t="s">
+      <c r="B1282" t="s">
         <v>550</v>
       </c>
       <c r="C1282" t="s">
@@ -52557,7 +52804,7 @@
       <c r="F1282">
         <v>1</v>
       </c>
-      <c r="G1282" s="2">
+      <c r="G1282">
         <v>9</v>
       </c>
       <c r="H1282" s="1">
@@ -52577,7 +52824,7 @@
       <c r="A1283" t="s">
         <v>2351</v>
       </c>
-      <c r="B1283" s="2" t="s">
+      <c r="B1283" t="s">
         <v>1441</v>
       </c>
       <c r="C1283" t="s">
@@ -52592,7 +52839,7 @@
       <c r="F1283">
         <v>1</v>
       </c>
-      <c r="G1283" s="2">
+      <c r="G1283">
         <v>2.5</v>
       </c>
       <c r="H1283" s="1">
@@ -52612,7 +52859,7 @@
       <c r="A1284" t="s">
         <v>2353</v>
       </c>
-      <c r="B1284" s="2" t="s">
+      <c r="B1284" t="s">
         <v>550</v>
       </c>
       <c r="C1284" t="s">
@@ -52627,7 +52874,7 @@
       <c r="F1284">
         <v>1</v>
       </c>
-      <c r="G1284" s="2">
+      <c r="G1284">
         <v>11.4</v>
       </c>
       <c r="H1284" s="1">
@@ -52647,7 +52894,7 @@
       <c r="A1285" t="s">
         <v>2356</v>
       </c>
-      <c r="B1285" s="2" t="s">
+      <c r="B1285" t="s">
         <v>550</v>
       </c>
       <c r="C1285" t="s">
@@ -52662,7 +52909,7 @@
       <c r="F1285">
         <v>1</v>
       </c>
-      <c r="G1285" s="2">
+      <c r="G1285">
         <v>1.5</v>
       </c>
       <c r="H1285" s="1">
@@ -52682,7 +52929,7 @@
       <c r="A1286" t="s">
         <v>2358</v>
       </c>
-      <c r="B1286" s="2" t="s">
+      <c r="B1286" t="s">
         <v>550</v>
       </c>
       <c r="C1286" t="s">
@@ -52697,7 +52944,7 @@
       <c r="F1286">
         <v>1</v>
       </c>
-      <c r="G1286" s="2">
+      <c r="G1286">
         <v>2</v>
       </c>
       <c r="H1286" s="1">
@@ -52717,7 +52964,7 @@
       <c r="A1287" t="s">
         <v>2359</v>
       </c>
-      <c r="B1287" s="2" t="s">
+      <c r="B1287" t="s">
         <v>550</v>
       </c>
       <c r="C1287" t="s">
@@ -52732,7 +52979,7 @@
       <c r="F1287">
         <v>1</v>
       </c>
-      <c r="G1287" s="2">
+      <c r="G1287">
         <v>4</v>
       </c>
       <c r="H1287" s="1">
@@ -52752,7 +52999,7 @@
       <c r="A1288" t="s">
         <v>2361</v>
       </c>
-      <c r="B1288" s="2" t="s">
+      <c r="B1288" t="s">
         <v>550</v>
       </c>
       <c r="C1288" t="s">
@@ -52767,7 +53014,7 @@
       <c r="F1288">
         <v>1</v>
       </c>
-      <c r="G1288" s="2">
+      <c r="G1288">
         <v>5.0999999999999996</v>
       </c>
       <c r="H1288" s="1">
@@ -52787,7 +53034,7 @@
       <c r="A1289" t="s">
         <v>2364</v>
       </c>
-      <c r="B1289" s="2" t="s">
+      <c r="B1289" t="s">
         <v>550</v>
       </c>
       <c r="C1289" t="s">
@@ -52802,7 +53049,7 @@
       <c r="F1289">
         <v>0</v>
       </c>
-      <c r="G1289" s="2">
+      <c r="G1289">
         <v>0</v>
       </c>
       <c r="H1289" s="1">
@@ -52822,7 +53069,7 @@
       <c r="A1290" t="s">
         <v>2365</v>
       </c>
-      <c r="B1290" s="2" t="s">
+      <c r="B1290" t="s">
         <v>550</v>
       </c>
       <c r="C1290" t="s">
@@ -52837,7 +53084,7 @@
       <c r="F1290">
         <v>0</v>
       </c>
-      <c r="G1290" s="2">
+      <c r="G1290">
         <v>0</v>
       </c>
       <c r="H1290" s="1">
@@ -52857,7 +53104,7 @@
       <c r="A1291" t="s">
         <v>2366</v>
       </c>
-      <c r="B1291" s="2" t="s">
+      <c r="B1291" t="s">
         <v>550</v>
       </c>
       <c r="C1291" t="s">
@@ -52872,7 +53119,7 @@
       <c r="F1291">
         <v>0</v>
       </c>
-      <c r="G1291" s="2">
+      <c r="G1291">
         <v>0</v>
       </c>
       <c r="H1291" s="1">
@@ -52892,7 +53139,7 @@
       <c r="A1292" t="s">
         <v>2368</v>
       </c>
-      <c r="B1292" s="2" t="s">
+      <c r="B1292" t="s">
         <v>550</v>
       </c>
       <c r="C1292" t="s">
@@ -52907,7 +53154,7 @@
       <c r="F1292">
         <v>1</v>
       </c>
-      <c r="G1292" s="2">
+      <c r="G1292">
         <v>3</v>
       </c>
       <c r="H1292" s="1">
@@ -52927,7 +53174,7 @@
       <c r="A1293" t="s">
         <v>2369</v>
       </c>
-      <c r="B1293" s="2" t="s">
+      <c r="B1293" t="s">
         <v>1117</v>
       </c>
       <c r="C1293" t="s">
@@ -52942,7 +53189,7 @@
       <c r="F1293">
         <v>0</v>
       </c>
-      <c r="G1293" s="2">
+      <c r="G1293">
         <v>0</v>
       </c>
       <c r="H1293" s="1">
@@ -52962,7 +53209,7 @@
       <c r="A1294" t="s">
         <v>2371</v>
       </c>
-      <c r="B1294" s="2" t="s">
+      <c r="B1294" t="s">
         <v>1117</v>
       </c>
       <c r="C1294" t="s">
@@ -52977,7 +53224,7 @@
       <c r="F1294">
         <v>0</v>
       </c>
-      <c r="G1294" s="2">
+      <c r="G1294">
         <v>0</v>
       </c>
       <c r="H1294" s="1">
@@ -52997,7 +53244,7 @@
       <c r="A1295" t="s">
         <v>2373</v>
       </c>
-      <c r="B1295" s="2" t="s">
+      <c r="B1295" t="s">
         <v>1117</v>
       </c>
       <c r="C1295" t="s">
@@ -53012,7 +53259,7 @@
       <c r="F1295">
         <v>0</v>
       </c>
-      <c r="G1295" s="2">
+      <c r="G1295">
         <v>0</v>
       </c>
       <c r="H1295" s="1">
@@ -53032,7 +53279,7 @@
       <c r="A1296" t="s">
         <v>2375</v>
       </c>
-      <c r="B1296" s="2" t="s">
+      <c r="B1296" t="s">
         <v>550</v>
       </c>
       <c r="C1296" t="s">
@@ -53047,7 +53294,7 @@
       <c r="F1296">
         <v>1</v>
       </c>
-      <c r="G1296" s="2">
+      <c r="G1296">
         <v>2</v>
       </c>
       <c r="H1296" s="1">
@@ -53067,7 +53314,7 @@
       <c r="A1297" t="s">
         <v>2378</v>
       </c>
-      <c r="B1297" s="2" t="s">
+      <c r="B1297" t="s">
         <v>550</v>
       </c>
       <c r="C1297" t="s">
@@ -53082,7 +53329,7 @@
       <c r="F1297">
         <v>1</v>
       </c>
-      <c r="G1297" s="2">
+      <c r="G1297">
         <v>2.5</v>
       </c>
       <c r="H1297" s="1">
@@ -53102,7 +53349,7 @@
       <c r="A1298" t="s">
         <v>2380</v>
       </c>
-      <c r="B1298" s="2" t="s">
+      <c r="B1298" t="s">
         <v>550</v>
       </c>
       <c r="C1298" t="s">
@@ -53117,7 +53364,7 @@
       <c r="F1298">
         <v>1</v>
       </c>
-      <c r="G1298" s="2">
+      <c r="G1298">
         <v>1.5</v>
       </c>
       <c r="H1298" s="1">
@@ -53137,7 +53384,7 @@
       <c r="A1299" t="s">
         <v>2382</v>
       </c>
-      <c r="B1299" s="2" t="s">
+      <c r="B1299" t="s">
         <v>550</v>
       </c>
       <c r="C1299" t="s">
@@ -53152,7 +53399,7 @@
       <c r="F1299">
         <v>1</v>
       </c>
-      <c r="G1299" s="2">
+      <c r="G1299">
         <v>2.5</v>
       </c>
       <c r="H1299" s="1">
@@ -53172,7 +53419,7 @@
       <c r="A1300" t="s">
         <v>2383</v>
       </c>
-      <c r="B1300" s="2" t="s">
+      <c r="B1300" t="s">
         <v>550</v>
       </c>
       <c r="C1300" t="s">
@@ -53187,7 +53434,7 @@
       <c r="F1300">
         <v>1</v>
       </c>
-      <c r="G1300" s="2">
+      <c r="G1300">
         <v>4</v>
       </c>
       <c r="H1300" s="1">
@@ -53207,7 +53454,7 @@
       <c r="A1301" t="s">
         <v>2385</v>
       </c>
-      <c r="B1301" s="2" t="s">
+      <c r="B1301" t="s">
         <v>550</v>
       </c>
       <c r="C1301" t="s">
@@ -53222,7 +53469,7 @@
       <c r="F1301">
         <v>1</v>
       </c>
-      <c r="G1301" s="2">
+      <c r="G1301">
         <v>1.5</v>
       </c>
       <c r="H1301" s="1">
@@ -53242,7 +53489,7 @@
       <c r="A1302" t="s">
         <v>2387</v>
       </c>
-      <c r="B1302" s="2" t="s">
+      <c r="B1302" t="s">
         <v>550</v>
       </c>
       <c r="C1302" t="s">
@@ -53257,7 +53504,7 @@
       <c r="F1302">
         <v>1</v>
       </c>
-      <c r="G1302" s="2">
+      <c r="G1302">
         <v>2</v>
       </c>
       <c r="H1302" s="1">
@@ -53277,7 +53524,7 @@
       <c r="A1303" t="s">
         <v>2388</v>
       </c>
-      <c r="B1303" s="2" t="s">
+      <c r="B1303" t="s">
         <v>550</v>
       </c>
       <c r="C1303" t="s">
@@ -53289,7 +53536,7 @@
       <c r="E1303">
         <v>12.5</v>
       </c>
-      <c r="G1303" s="2">
+      <c r="G1303">
         <v>0</v>
       </c>
       <c r="H1303" s="1">
@@ -53309,7 +53556,7 @@
       <c r="A1304" t="s">
         <v>2391</v>
       </c>
-      <c r="B1304" s="2" t="s">
+      <c r="B1304" t="s">
         <v>550</v>
       </c>
       <c r="C1304" t="s">
@@ -53324,7 +53571,7 @@
       <c r="F1304">
         <v>0</v>
       </c>
-      <c r="G1304" s="2">
+      <c r="G1304">
         <v>0</v>
       </c>
       <c r="H1304" s="1">
@@ -53344,7 +53591,7 @@
       <c r="A1305" t="s">
         <v>2393</v>
       </c>
-      <c r="B1305" s="2" t="s">
+      <c r="B1305" t="s">
         <v>550</v>
       </c>
       <c r="C1305" t="s">
@@ -53359,7 +53606,7 @@
       <c r="F1305">
         <v>0</v>
       </c>
-      <c r="G1305" s="2">
+      <c r="G1305">
         <v>0</v>
       </c>
       <c r="H1305" s="1">
@@ -53379,7 +53626,7 @@
       <c r="A1306" t="s">
         <v>2394</v>
       </c>
-      <c r="B1306" s="2" t="s">
+      <c r="B1306" t="s">
         <v>550</v>
       </c>
       <c r="C1306" t="s">
@@ -53394,7 +53641,7 @@
       <c r="F1306">
         <v>0</v>
       </c>
-      <c r="G1306" s="2">
+      <c r="G1306">
         <v>0</v>
       </c>
       <c r="H1306" s="1">
@@ -53414,7 +53661,7 @@
       <c r="A1307" t="s">
         <v>2396</v>
       </c>
-      <c r="B1307" s="2" t="s">
+      <c r="B1307" t="s">
         <v>550</v>
       </c>
       <c r="C1307" t="s">
@@ -53429,7 +53676,7 @@
       <c r="F1307">
         <v>1</v>
       </c>
-      <c r="G1307" s="2">
+      <c r="G1307">
         <v>2.4</v>
       </c>
       <c r="H1307" s="1">
@@ -53449,7 +53696,7 @@
       <c r="A1308" t="s">
         <v>2398</v>
       </c>
-      <c r="B1308" s="2" t="s">
+      <c r="B1308" t="s">
         <v>550</v>
       </c>
       <c r="C1308" t="s">
@@ -53464,7 +53711,7 @@
       <c r="F1308">
         <v>1</v>
       </c>
-      <c r="G1308" s="2">
+      <c r="G1308">
         <v>8.1</v>
       </c>
       <c r="H1308" s="1">
@@ -53484,13 +53731,13 @@
       <c r="A1309" t="s">
         <v>2401</v>
       </c>
-      <c r="B1309" s="2" t="s">
+      <c r="B1309" t="s">
         <v>550</v>
       </c>
       <c r="C1309" t="s">
         <v>2399</v>
       </c>
-      <c r="G1309" s="2">
+      <c r="G1309">
         <v>0</v>
       </c>
       <c r="H1309" s="1">
@@ -53510,7 +53757,7 @@
       <c r="A1310" t="s">
         <v>2402</v>
       </c>
-      <c r="B1310" s="2" t="s">
+      <c r="B1310" t="s">
         <v>550</v>
       </c>
       <c r="C1310" t="s">
@@ -53525,7 +53772,7 @@
       <c r="F1310">
         <v>1</v>
       </c>
-      <c r="G1310" s="2">
+      <c r="G1310">
         <v>1</v>
       </c>
       <c r="H1310" s="1">
@@ -53545,7 +53792,7 @@
       <c r="A1311" t="s">
         <v>2403</v>
       </c>
-      <c r="B1311" s="2" t="s">
+      <c r="B1311" t="s">
         <v>1507</v>
       </c>
       <c r="C1311" t="s">
@@ -53560,7 +53807,7 @@
       <c r="F1311">
         <v>1</v>
       </c>
-      <c r="G1311" s="2">
+      <c r="G1311">
         <v>1</v>
       </c>
       <c r="H1311" s="1">
@@ -53580,7 +53827,7 @@
       <c r="A1312" t="s">
         <v>2405</v>
       </c>
-      <c r="B1312" s="2" t="s">
+      <c r="B1312" t="s">
         <v>550</v>
       </c>
       <c r="C1312" t="s">
@@ -53595,7 +53842,7 @@
       <c r="F1312">
         <v>1</v>
       </c>
-      <c r="G1312" s="2">
+      <c r="G1312">
         <v>4</v>
       </c>
       <c r="H1312" s="1">
@@ -53615,7 +53862,7 @@
       <c r="A1313" t="s">
         <v>2407</v>
       </c>
-      <c r="B1313" s="2" t="s">
+      <c r="B1313" t="s">
         <v>550</v>
       </c>
       <c r="C1313" t="s">
@@ -53630,7 +53877,7 @@
       <c r="F1313">
         <v>1</v>
       </c>
-      <c r="G1313" s="2">
+      <c r="G1313">
         <v>2.9</v>
       </c>
       <c r="H1313" s="1">
@@ -53650,7 +53897,7 @@
       <c r="A1314" t="s">
         <v>2408</v>
       </c>
-      <c r="B1314" s="2" t="s">
+      <c r="B1314" t="s">
         <v>550</v>
       </c>
       <c r="C1314" t="s">
@@ -53665,7 +53912,7 @@
       <c r="F1314">
         <v>1</v>
       </c>
-      <c r="G1314" s="2">
+      <c r="G1314">
         <v>2.9</v>
       </c>
       <c r="H1314" s="1">
@@ -53685,7 +53932,7 @@
       <c r="A1315" t="s">
         <v>2409</v>
       </c>
-      <c r="B1315" s="2" t="s">
+      <c r="B1315" t="s">
         <v>550</v>
       </c>
       <c r="C1315" t="s">
@@ -53700,7 +53947,7 @@
       <c r="F1315">
         <v>1</v>
       </c>
-      <c r="G1315" s="2">
+      <c r="G1315">
         <v>3.6</v>
       </c>
       <c r="H1315" s="1">
@@ -53720,7 +53967,7 @@
       <c r="A1316" t="s">
         <v>2410</v>
       </c>
-      <c r="B1316" s="2" t="s">
+      <c r="B1316" t="s">
         <v>550</v>
       </c>
       <c r="C1316" t="s">
@@ -53735,7 +53982,7 @@
       <c r="F1316">
         <v>1</v>
       </c>
-      <c r="G1316" s="2">
+      <c r="G1316">
         <v>5.0999999999999996</v>
       </c>
       <c r="H1316" s="1">
@@ -53755,7 +54002,7 @@
       <c r="A1317" t="s">
         <v>2411</v>
       </c>
-      <c r="B1317" s="2" t="s">
+      <c r="B1317" t="s">
         <v>550</v>
       </c>
       <c r="C1317" t="s">
@@ -53770,7 +54017,7 @@
       <c r="F1317">
         <v>0</v>
       </c>
-      <c r="G1317" s="2">
+      <c r="G1317">
         <v>0</v>
       </c>
       <c r="H1317" s="1">
@@ -53790,7 +54037,7 @@
       <c r="A1318" t="s">
         <v>2412</v>
       </c>
-      <c r="B1318" s="2" t="s">
+      <c r="B1318" t="s">
         <v>550</v>
       </c>
       <c r="C1318" t="s">
@@ -53805,7 +54052,7 @@
       <c r="F1318">
         <v>0</v>
       </c>
-      <c r="G1318" s="2">
+      <c r="G1318">
         <v>0</v>
       </c>
       <c r="H1318" s="1">
@@ -53825,7 +54072,7 @@
       <c r="A1319" t="s">
         <v>2413</v>
       </c>
-      <c r="B1319" s="2" t="s">
+      <c r="B1319" t="s">
         <v>550</v>
       </c>
       <c r="C1319" t="s">
@@ -53840,7 +54087,7 @@
       <c r="F1319">
         <v>0</v>
       </c>
-      <c r="G1319" s="2">
+      <c r="G1319">
         <v>0</v>
       </c>
       <c r="H1319" s="1">
@@ -53860,7 +54107,7 @@
       <c r="A1320" t="s">
         <v>2414</v>
       </c>
-      <c r="B1320" s="2" t="s">
+      <c r="B1320" t="s">
         <v>550</v>
       </c>
       <c r="C1320" t="s">
@@ -53875,7 +54122,7 @@
       <c r="F1320">
         <v>1</v>
       </c>
-      <c r="G1320" s="2">
+      <c r="G1320">
         <v>5</v>
       </c>
       <c r="H1320" s="1">
@@ -53895,7 +54142,7 @@
       <c r="A1321" t="s">
         <v>2417</v>
       </c>
-      <c r="B1321" s="2" t="s">
+      <c r="B1321" t="s">
         <v>550</v>
       </c>
       <c r="C1321" t="s">
@@ -53910,7 +54157,7 @@
       <c r="F1321">
         <v>0</v>
       </c>
-      <c r="G1321" s="2">
+      <c r="G1321">
         <v>0</v>
       </c>
       <c r="H1321" s="1">
@@ -53930,7 +54177,7 @@
       <c r="A1322" t="s">
         <v>2420</v>
       </c>
-      <c r="B1322" s="2" t="s">
+      <c r="B1322" t="s">
         <v>550</v>
       </c>
       <c r="C1322" t="s">
@@ -53945,7 +54192,7 @@
       <c r="F1322">
         <v>1</v>
       </c>
-      <c r="G1322" s="2">
+      <c r="G1322">
         <v>7</v>
       </c>
       <c r="H1322" s="1">
@@ -53965,7 +54212,7 @@
       <c r="A1323" t="s">
         <v>2422</v>
       </c>
-      <c r="B1323" s="2" t="s">
+      <c r="B1323" t="s">
         <v>550</v>
       </c>
       <c r="C1323" t="s">
@@ -53980,7 +54227,7 @@
       <c r="F1323">
         <v>1</v>
       </c>
-      <c r="G1323" s="2">
+      <c r="G1323">
         <v>4.5</v>
       </c>
       <c r="H1323" s="1">
@@ -54000,7 +54247,7 @@
       <c r="A1324" t="s">
         <v>2424</v>
       </c>
-      <c r="B1324" s="2" t="s">
+      <c r="B1324" t="s">
         <v>550</v>
       </c>
       <c r="C1324" t="s">
@@ -54015,7 +54262,7 @@
       <c r="F1324">
         <v>1</v>
       </c>
-      <c r="G1324" s="2">
+      <c r="G1324">
         <v>9</v>
       </c>
       <c r="H1324" s="1">
@@ -54035,7 +54282,7 @@
       <c r="A1325" t="s">
         <v>2427</v>
       </c>
-      <c r="B1325" s="2" t="s">
+      <c r="B1325" t="s">
         <v>550</v>
       </c>
       <c r="C1325" t="s">
@@ -54050,7 +54297,7 @@
       <c r="F1325">
         <v>1</v>
       </c>
-      <c r="G1325" s="2">
+      <c r="G1325">
         <v>0.9</v>
       </c>
       <c r="H1325" s="1">
@@ -54070,7 +54317,7 @@
       <c r="A1326" t="s">
         <v>2429</v>
       </c>
-      <c r="B1326" s="2" t="s">
+      <c r="B1326" t="s">
         <v>550</v>
       </c>
       <c r="C1326" t="s">
@@ -54085,7 +54332,7 @@
       <c r="F1326">
         <v>1</v>
       </c>
-      <c r="G1326" s="2">
+      <c r="G1326">
         <v>0.9</v>
       </c>
       <c r="H1326" s="1">
@@ -54105,7 +54352,7 @@
       <c r="A1327" t="s">
         <v>2431</v>
       </c>
-      <c r="B1327" s="2" t="s">
+      <c r="B1327" t="s">
         <v>550</v>
       </c>
       <c r="C1327" t="s">
@@ -54120,7 +54367,7 @@
       <c r="F1327">
         <v>1</v>
       </c>
-      <c r="G1327" s="2">
+      <c r="G1327">
         <v>0.9</v>
       </c>
       <c r="H1327" s="1">
@@ -54140,7 +54387,7 @@
       <c r="A1328" t="s">
         <v>2433</v>
       </c>
-      <c r="B1328" s="2" t="s">
+      <c r="B1328" t="s">
         <v>550</v>
       </c>
       <c r="C1328" t="s">
@@ -54155,7 +54402,7 @@
       <c r="F1328">
         <v>1</v>
       </c>
-      <c r="G1328" s="2">
+      <c r="G1328">
         <v>0.9</v>
       </c>
       <c r="H1328" s="1">
@@ -54175,7 +54422,7 @@
       <c r="A1329" t="s">
         <v>2436</v>
       </c>
-      <c r="B1329" s="2" t="s">
+      <c r="B1329" t="s">
         <v>550</v>
       </c>
       <c r="C1329" t="s">
@@ -54190,7 +54437,7 @@
       <c r="F1329">
         <v>1</v>
       </c>
-      <c r="G1329" s="2">
+      <c r="G1329">
         <v>1.6</v>
       </c>
       <c r="H1329" s="1">
@@ -54210,7 +54457,7 @@
       <c r="A1330" t="s">
         <v>2439</v>
       </c>
-      <c r="B1330" s="2" t="s">
+      <c r="B1330" t="s">
         <v>1507</v>
       </c>
       <c r="C1330" t="s">
@@ -54222,7 +54469,7 @@
       <c r="F1330">
         <v>1</v>
       </c>
-      <c r="G1330" s="2">
+      <c r="G1330">
         <v>3</v>
       </c>
       <c r="H1330" s="1">
@@ -54242,7 +54489,7 @@
       <c r="A1331" t="s">
         <v>2440</v>
       </c>
-      <c r="B1331" s="2" t="s">
+      <c r="B1331" t="s">
         <v>550</v>
       </c>
       <c r="C1331" t="s">
@@ -54257,7 +54504,7 @@
       <c r="F1331">
         <v>1</v>
       </c>
-      <c r="G1331" s="2">
+      <c r="G1331">
         <v>2.5</v>
       </c>
       <c r="H1331" s="1">
@@ -54277,7 +54524,7 @@
       <c r="A1332" t="s">
         <v>2441</v>
       </c>
-      <c r="B1332" s="2" t="s">
+      <c r="B1332" t="s">
         <v>550</v>
       </c>
       <c r="C1332" t="s">
@@ -54292,7 +54539,7 @@
       <c r="F1332">
         <v>1</v>
       </c>
-      <c r="G1332" s="2">
+      <c r="G1332">
         <v>3.6</v>
       </c>
       <c r="H1332" s="1">
@@ -54312,7 +54559,7 @@
       <c r="A1333" t="s">
         <v>2443</v>
       </c>
-      <c r="B1333" s="2" t="s">
+      <c r="B1333" t="s">
         <v>550</v>
       </c>
       <c r="C1333" t="s">
@@ -54327,7 +54574,7 @@
       <c r="F1333">
         <v>1</v>
       </c>
-      <c r="G1333" s="2">
+      <c r="G1333">
         <v>2.9</v>
       </c>
       <c r="H1333" s="1">
@@ -54347,7 +54594,7 @@
       <c r="A1334" t="s">
         <v>2444</v>
       </c>
-      <c r="B1334" s="2" t="s">
+      <c r="B1334" t="s">
         <v>550</v>
       </c>
       <c r="C1334" t="s">
@@ -54362,7 +54609,7 @@
       <c r="F1334">
         <v>1</v>
       </c>
-      <c r="G1334" s="2">
+      <c r="G1334">
         <v>3.8</v>
       </c>
       <c r="H1334" s="1">
@@ -54382,7 +54629,7 @@
       <c r="A1335" t="s">
         <v>2445</v>
       </c>
-      <c r="B1335" s="2" t="s">
+      <c r="B1335" t="s">
         <v>550</v>
       </c>
       <c r="C1335" t="s">
@@ -54397,7 +54644,7 @@
       <c r="F1335">
         <v>0</v>
       </c>
-      <c r="G1335" s="2">
+      <c r="G1335">
         <v>0</v>
       </c>
       <c r="H1335" s="1">
@@ -54417,7 +54664,7 @@
       <c r="A1336" t="s">
         <v>2447</v>
       </c>
-      <c r="B1336" s="2" t="s">
+      <c r="B1336" t="s">
         <v>550</v>
       </c>
       <c r="C1336" t="s">
@@ -54432,7 +54679,7 @@
       <c r="F1336">
         <v>0</v>
       </c>
-      <c r="G1336" s="2">
+      <c r="G1336">
         <v>0</v>
       </c>
       <c r="H1336" s="1">
@@ -54452,7 +54699,7 @@
       <c r="A1337" t="s">
         <v>2448</v>
       </c>
-      <c r="B1337" s="2" t="s">
+      <c r="B1337" t="s">
         <v>550</v>
       </c>
       <c r="C1337" t="s">
@@ -54467,7 +54714,7 @@
       <c r="F1337">
         <v>0</v>
       </c>
-      <c r="G1337" s="2">
+      <c r="G1337">
         <v>0</v>
       </c>
       <c r="H1337" s="1">
@@ -54487,7 +54734,7 @@
       <c r="A1338" t="s">
         <v>2449</v>
       </c>
-      <c r="B1338" s="2" t="s">
+      <c r="B1338" t="s">
         <v>550</v>
       </c>
       <c r="C1338" t="s">
@@ -54502,7 +54749,7 @@
       <c r="F1338">
         <v>1</v>
       </c>
-      <c r="G1338" s="2">
+      <c r="G1338">
         <v>2</v>
       </c>
       <c r="H1338" s="1">
@@ -54522,7 +54769,7 @@
       <c r="A1339" t="s">
         <v>2451</v>
       </c>
-      <c r="B1339" s="2" t="s">
+      <c r="B1339" t="s">
         <v>550</v>
       </c>
       <c r="C1339" t="s">
@@ -54537,7 +54784,7 @@
       <c r="F1339">
         <v>1</v>
       </c>
-      <c r="G1339" s="2">
+      <c r="G1339">
         <v>1</v>
       </c>
       <c r="H1339" s="1">
@@ -54557,7 +54804,7 @@
       <c r="A1340" t="s">
         <v>2453</v>
       </c>
-      <c r="B1340" s="2" t="s">
+      <c r="B1340" t="s">
         <v>550</v>
       </c>
       <c r="C1340" t="s">
@@ -54572,7 +54819,7 @@
       <c r="F1340">
         <v>1</v>
       </c>
-      <c r="G1340" s="2">
+      <c r="G1340">
         <v>1</v>
       </c>
       <c r="H1340" s="1">
@@ -54592,7 +54839,7 @@
       <c r="A1341" t="s">
         <v>2455</v>
       </c>
-      <c r="B1341" s="2" t="s">
+      <c r="B1341" t="s">
         <v>550</v>
       </c>
       <c r="C1341" t="s">
@@ -54607,7 +54854,7 @@
       <c r="F1341">
         <v>1</v>
       </c>
-      <c r="G1341" s="2">
+      <c r="G1341">
         <v>1</v>
       </c>
       <c r="H1341" s="1">
@@ -54627,7 +54874,7 @@
       <c r="A1342" t="s">
         <v>2456</v>
       </c>
-      <c r="B1342" s="2" t="s">
+      <c r="B1342" t="s">
         <v>550</v>
       </c>
       <c r="C1342" t="s">
@@ -54642,7 +54889,7 @@
       <c r="F1342">
         <v>1</v>
       </c>
-      <c r="G1342" s="2">
+      <c r="G1342">
         <v>3</v>
       </c>
       <c r="H1342" s="1">
@@ -54662,7 +54909,7 @@
       <c r="A1343" t="s">
         <v>2459</v>
       </c>
-      <c r="B1343" s="2" t="s">
+      <c r="B1343" t="s">
         <v>550</v>
       </c>
       <c r="C1343" t="s">
@@ -54677,7 +54924,7 @@
       <c r="F1343">
         <v>1</v>
       </c>
-      <c r="G1343" s="2">
+      <c r="G1343">
         <v>3</v>
       </c>
       <c r="H1343" s="1">
@@ -54697,7 +54944,7 @@
       <c r="A1344" t="s">
         <v>2461</v>
       </c>
-      <c r="B1344" s="2" t="s">
+      <c r="B1344" t="s">
         <v>550</v>
       </c>
       <c r="C1344" t="s">
@@ -54712,7 +54959,7 @@
       <c r="F1344">
         <v>1</v>
       </c>
-      <c r="G1344" s="2">
+      <c r="G1344">
         <v>4.5</v>
       </c>
       <c r="H1344" s="1">
@@ -54732,7 +54979,7 @@
       <c r="A1345" t="s">
         <v>2464</v>
       </c>
-      <c r="B1345" s="2" t="s">
+      <c r="B1345" t="s">
         <v>550</v>
       </c>
       <c r="C1345" t="s">
@@ -54747,7 +54994,7 @@
       <c r="F1345">
         <v>1</v>
       </c>
-      <c r="G1345" s="2">
+      <c r="G1345">
         <v>3.6</v>
       </c>
       <c r="H1345" s="1">
@@ -54767,7 +55014,7 @@
       <c r="A1346" t="s">
         <v>2466</v>
       </c>
-      <c r="B1346" s="2" t="s">
+      <c r="B1346" t="s">
         <v>550</v>
       </c>
       <c r="C1346" t="s">
@@ -54782,7 +55029,7 @@
       <c r="F1346">
         <v>1</v>
       </c>
-      <c r="G1346" s="2">
+      <c r="G1346">
         <v>3.6</v>
       </c>
       <c r="H1346" s="1">
@@ -54802,7 +55049,7 @@
       <c r="A1347" t="s">
         <v>2468</v>
       </c>
-      <c r="B1347" s="2" t="s">
+      <c r="B1347" t="s">
         <v>550</v>
       </c>
       <c r="C1347" t="s">
@@ -54817,7 +55064,7 @@
       <c r="F1347">
         <v>1</v>
       </c>
-      <c r="G1347" s="2">
+      <c r="G1347">
         <v>2</v>
       </c>
       <c r="H1347" s="1">
@@ -54837,7 +55084,7 @@
       <c r="A1348" t="s">
         <v>2470</v>
       </c>
-      <c r="B1348" s="2" t="s">
+      <c r="B1348" t="s">
         <v>550</v>
       </c>
       <c r="C1348" t="s">
@@ -54852,7 +55099,7 @@
       <c r="F1348">
         <v>1</v>
       </c>
-      <c r="G1348" s="2">
+      <c r="G1348">
         <v>3.3</v>
       </c>
       <c r="H1348" s="1">
@@ -54872,7 +55119,7 @@
       <c r="A1349" t="s">
         <v>2471</v>
       </c>
-      <c r="B1349" s="2" t="s">
+      <c r="B1349" t="s">
         <v>550</v>
       </c>
       <c r="C1349" t="s">
@@ -54887,7 +55134,7 @@
       <c r="F1349">
         <v>1</v>
       </c>
-      <c r="G1349" s="2">
+      <c r="G1349">
         <v>2.9</v>
       </c>
       <c r="H1349" s="1">
@@ -54907,7 +55154,7 @@
       <c r="A1350" t="s">
         <v>2473</v>
       </c>
-      <c r="B1350" s="2" t="s">
+      <c r="B1350" t="s">
         <v>1700</v>
       </c>
       <c r="C1350" t="s">
@@ -54922,7 +55169,7 @@
       <c r="F1350">
         <v>1</v>
       </c>
-      <c r="G1350" s="2">
+      <c r="G1350">
         <v>1.8</v>
       </c>
       <c r="H1350" s="1">
@@ -54942,7 +55189,7 @@
       <c r="A1351" t="s">
         <v>2475</v>
       </c>
-      <c r="B1351" s="2" t="s">
+      <c r="B1351" t="s">
         <v>1700</v>
       </c>
       <c r="C1351" t="s">
@@ -54957,7 +55204,7 @@
       <c r="F1351">
         <v>1</v>
       </c>
-      <c r="G1351" s="2">
+      <c r="G1351">
         <v>1</v>
       </c>
       <c r="H1351" s="1">
@@ -54977,7 +55224,7 @@
       <c r="A1352" t="s">
         <v>2477</v>
       </c>
-      <c r="B1352" s="2" t="s">
+      <c r="B1352" t="s">
         <v>550</v>
       </c>
       <c r="C1352" t="s">
@@ -54992,7 +55239,7 @@
       <c r="F1352">
         <v>1</v>
       </c>
-      <c r="G1352" s="2">
+      <c r="G1352">
         <v>2</v>
       </c>
       <c r="H1352" s="1">
@@ -55012,7 +55259,7 @@
       <c r="A1353" t="s">
         <v>2480</v>
       </c>
-      <c r="B1353" s="2" t="s">
+      <c r="B1353" t="s">
         <v>550</v>
       </c>
       <c r="C1353" t="s">
@@ -55027,7 +55274,7 @@
       <c r="F1353">
         <v>1</v>
       </c>
-      <c r="G1353" s="2">
+      <c r="G1353">
         <v>0.9</v>
       </c>
       <c r="H1353" s="1">
@@ -55047,7 +55294,7 @@
       <c r="A1354" t="s">
         <v>2482</v>
       </c>
-      <c r="B1354" s="2" t="s">
+      <c r="B1354" t="s">
         <v>550</v>
       </c>
       <c r="C1354" t="s">
@@ -55062,7 +55309,7 @@
       <c r="F1354">
         <v>1</v>
       </c>
-      <c r="G1354" s="2">
+      <c r="G1354">
         <v>1</v>
       </c>
       <c r="H1354" s="1">
@@ -55082,7 +55329,7 @@
       <c r="A1355" t="s">
         <v>2483</v>
       </c>
-      <c r="B1355" s="2" t="s">
+      <c r="B1355" t="s">
         <v>965</v>
       </c>
       <c r="C1355" t="s">
@@ -55097,7 +55344,7 @@
       <c r="F1355">
         <v>1</v>
       </c>
-      <c r="G1355" s="2">
+      <c r="G1355">
         <v>1</v>
       </c>
       <c r="H1355" s="1">
@@ -55117,7 +55364,7 @@
       <c r="A1356" t="s">
         <v>2485</v>
       </c>
-      <c r="B1356" s="2" t="s">
+      <c r="B1356" t="s">
         <v>550</v>
       </c>
       <c r="C1356" t="s">
@@ -55132,7 +55379,7 @@
       <c r="F1356">
         <v>1</v>
       </c>
-      <c r="G1356" s="2">
+      <c r="G1356">
         <v>7.2</v>
       </c>
       <c r="H1356" s="1">
@@ -55152,7 +55399,7 @@
       <c r="A1357" t="s">
         <v>2487</v>
       </c>
-      <c r="B1357" s="2" t="s">
+      <c r="B1357" t="s">
         <v>550</v>
       </c>
       <c r="C1357" t="s">
@@ -55167,7 +55414,7 @@
       <c r="F1357">
         <v>1</v>
       </c>
-      <c r="G1357" s="2">
+      <c r="G1357">
         <v>1</v>
       </c>
       <c r="H1357" s="1">
@@ -55187,7 +55434,7 @@
       <c r="A1358" t="s">
         <v>2488</v>
       </c>
-      <c r="B1358" s="2" t="s">
+      <c r="B1358" t="s">
         <v>550</v>
       </c>
       <c r="C1358" t="s">
@@ -55202,7 +55449,7 @@
       <c r="F1358">
         <v>0</v>
       </c>
-      <c r="G1358" s="2">
+      <c r="G1358">
         <v>0</v>
       </c>
       <c r="H1358" s="1">
@@ -55222,7 +55469,7 @@
       <c r="A1359" t="s">
         <v>2489</v>
       </c>
-      <c r="B1359" s="2" t="s">
+      <c r="B1359" t="s">
         <v>550</v>
       </c>
       <c r="C1359" t="s">
@@ -55237,7 +55484,7 @@
       <c r="F1359">
         <v>0</v>
       </c>
-      <c r="G1359" s="2">
+      <c r="G1359">
         <v>0</v>
       </c>
       <c r="H1359" s="1">
@@ -55257,7 +55504,7 @@
       <c r="A1360" t="s">
         <v>2490</v>
       </c>
-      <c r="B1360" s="2" t="s">
+      <c r="B1360" t="s">
         <v>550</v>
       </c>
       <c r="C1360" t="s">
@@ -55272,7 +55519,7 @@
       <c r="F1360">
         <v>0</v>
       </c>
-      <c r="G1360" s="2">
+      <c r="G1360">
         <v>0</v>
       </c>
       <c r="H1360" s="1">
@@ -55292,7 +55539,7 @@
       <c r="A1361" t="s">
         <v>2492</v>
       </c>
-      <c r="B1361" s="2" t="s">
+      <c r="B1361" t="s">
         <v>550</v>
       </c>
       <c r="C1361" t="s">
@@ -55307,7 +55554,7 @@
       <c r="F1361">
         <v>0</v>
       </c>
-      <c r="G1361" s="2">
+      <c r="G1361">
         <v>0</v>
       </c>
       <c r="H1361" s="1">
@@ -55327,7 +55574,7 @@
       <c r="A1362" t="s">
         <v>2493</v>
       </c>
-      <c r="B1362" s="2" t="s">
+      <c r="B1362" t="s">
         <v>550</v>
       </c>
       <c r="C1362" t="s">
@@ -55342,7 +55589,7 @@
       <c r="F1362">
         <v>1</v>
       </c>
-      <c r="G1362" s="2">
+      <c r="G1362">
         <v>1.5</v>
       </c>
       <c r="H1362" s="1">
@@ -55362,7 +55609,7 @@
       <c r="A1363" t="s">
         <v>2496</v>
       </c>
-      <c r="B1363" s="2" t="s">
+      <c r="B1363" t="s">
         <v>550</v>
       </c>
       <c r="C1363" t="s">
@@ -55377,7 +55624,7 @@
       <c r="F1363">
         <v>1</v>
       </c>
-      <c r="G1363" s="2">
+      <c r="G1363">
         <v>1</v>
       </c>
       <c r="H1363" s="1">
@@ -55397,7 +55644,7 @@
       <c r="A1364" t="s">
         <v>2498</v>
       </c>
-      <c r="B1364" s="2" t="s">
+      <c r="B1364" t="s">
         <v>550</v>
       </c>
       <c r="C1364" t="s">
@@ -55412,7 +55659,7 @@
       <c r="F1364">
         <v>1</v>
       </c>
-      <c r="G1364" s="2">
+      <c r="G1364">
         <v>4</v>
       </c>
       <c r="H1364" s="1">
@@ -55432,7 +55679,7 @@
       <c r="A1365" t="s">
         <v>2501</v>
       </c>
-      <c r="B1365" s="2" t="s">
+      <c r="B1365" t="s">
         <v>550</v>
       </c>
       <c r="C1365" t="s">
@@ -55447,7 +55694,7 @@
       <c r="F1365">
         <v>1</v>
       </c>
-      <c r="G1365" s="2">
+      <c r="G1365">
         <v>10</v>
       </c>
       <c r="H1365" s="1">
@@ -55467,7 +55714,7 @@
       <c r="A1366" t="s">
         <v>2503</v>
       </c>
-      <c r="B1366" s="2" t="s">
+      <c r="B1366" t="s">
         <v>550</v>
       </c>
       <c r="C1366" t="s">
@@ -55482,7 +55729,7 @@
       <c r="F1366">
         <v>0</v>
       </c>
-      <c r="G1366" s="2">
+      <c r="G1366">
         <v>0</v>
       </c>
       <c r="H1366" s="1">
@@ -55502,7 +55749,7 @@
       <c r="A1367" t="s">
         <v>2506</v>
       </c>
-      <c r="B1367" s="2" t="s">
+      <c r="B1367" t="s">
         <v>550</v>
       </c>
       <c r="C1367" t="s">
@@ -55517,7 +55764,7 @@
       <c r="F1367">
         <v>0</v>
       </c>
-      <c r="G1367" s="2">
+      <c r="G1367">
         <v>0</v>
       </c>
       <c r="H1367" s="1">
@@ -55537,7 +55784,7 @@
       <c r="A1368" t="s">
         <v>2508</v>
       </c>
-      <c r="B1368" s="2" t="s">
+      <c r="B1368" t="s">
         <v>550</v>
       </c>
       <c r="C1368" t="s">
@@ -55552,7 +55799,7 @@
       <c r="F1368">
         <v>1</v>
       </c>
-      <c r="G1368" s="2">
+      <c r="G1368">
         <v>1</v>
       </c>
       <c r="H1368" s="1">
@@ -55572,7 +55819,7 @@
       <c r="A1369" t="s">
         <v>2510</v>
       </c>
-      <c r="B1369" s="2" t="s">
+      <c r="B1369" t="s">
         <v>550</v>
       </c>
       <c r="C1369" t="s">
@@ -55587,7 +55834,7 @@
       <c r="F1369">
         <v>0</v>
       </c>
-      <c r="G1369" s="2">
+      <c r="G1369">
         <v>0</v>
       </c>
       <c r="H1369" s="1">
@@ -55607,7 +55854,7 @@
       <c r="A1370" t="s">
         <v>2512</v>
       </c>
-      <c r="B1370" s="2" t="s">
+      <c r="B1370" t="s">
         <v>550</v>
       </c>
       <c r="C1370" t="s">
@@ -55622,7 +55869,7 @@
       <c r="F1370">
         <v>0</v>
       </c>
-      <c r="G1370" s="2">
+      <c r="G1370">
         <v>0</v>
       </c>
       <c r="H1370" s="1">
@@ -55642,7 +55889,7 @@
       <c r="A1371" t="s">
         <v>2513</v>
       </c>
-      <c r="B1371" s="2" t="s">
+      <c r="B1371" t="s">
         <v>550</v>
       </c>
       <c r="C1371" t="s">
@@ -55657,7 +55904,7 @@
       <c r="F1371">
         <v>1</v>
       </c>
-      <c r="G1371" s="2">
+      <c r="G1371">
         <v>2.5</v>
       </c>
       <c r="H1371" s="1">
@@ -55677,7 +55924,7 @@
       <c r="A1372" t="s">
         <v>2514</v>
       </c>
-      <c r="B1372" s="2" t="s">
+      <c r="B1372" t="s">
         <v>550</v>
       </c>
       <c r="C1372" t="s">
@@ -55692,7 +55939,7 @@
       <c r="F1372">
         <v>1</v>
       </c>
-      <c r="G1372" s="2">
+      <c r="G1372">
         <v>2.5</v>
       </c>
       <c r="H1372" s="1">
@@ -55712,7 +55959,7 @@
       <c r="A1373" t="s">
         <v>2516</v>
       </c>
-      <c r="B1373" s="2" t="s">
+      <c r="B1373" t="s">
         <v>550</v>
       </c>
       <c r="C1373" t="s">
@@ -55727,7 +55974,7 @@
       <c r="F1373">
         <v>0</v>
       </c>
-      <c r="G1373" s="2">
+      <c r="G1373">
         <v>0</v>
       </c>
       <c r="H1373" s="1">
@@ -55747,7 +55994,7 @@
       <c r="A1374" t="s">
         <v>2519</v>
       </c>
-      <c r="B1374" s="2" t="s">
+      <c r="B1374" t="s">
         <v>550</v>
       </c>
       <c r="C1374" t="s">
@@ -55762,7 +56009,7 @@
       <c r="F1374">
         <v>0</v>
       </c>
-      <c r="G1374" s="2">
+      <c r="G1374">
         <v>0</v>
       </c>
       <c r="H1374" s="1">
@@ -55782,7 +56029,7 @@
       <c r="A1375" t="s">
         <v>2521</v>
       </c>
-      <c r="B1375" s="2" t="s">
+      <c r="B1375" t="s">
         <v>550</v>
       </c>
       <c r="C1375" t="s">
@@ -55797,7 +56044,7 @@
       <c r="F1375">
         <v>1</v>
       </c>
-      <c r="G1375" s="2">
+      <c r="G1375">
         <v>3.6</v>
       </c>
       <c r="H1375" s="1">
@@ -55817,7 +56064,7 @@
       <c r="A1376" t="s">
         <v>2523</v>
       </c>
-      <c r="B1376" s="2" t="s">
+      <c r="B1376" t="s">
         <v>550</v>
       </c>
       <c r="C1376" t="s">
@@ -55832,7 +56079,7 @@
       <c r="F1376">
         <v>1</v>
       </c>
-      <c r="G1376" s="2">
+      <c r="G1376">
         <v>1.8</v>
       </c>
       <c r="H1376" s="1">
@@ -55852,7 +56099,7 @@
       <c r="A1377" t="s">
         <v>2524</v>
       </c>
-      <c r="B1377" s="2" t="s">
+      <c r="B1377" t="s">
         <v>550</v>
       </c>
       <c r="C1377" t="s">
@@ -55867,7 +56114,7 @@
       <c r="F1377">
         <v>1</v>
       </c>
-      <c r="G1377" s="2">
+      <c r="G1377">
         <v>2.4</v>
       </c>
       <c r="H1377" s="1">
@@ -55887,7 +56134,7 @@
       <c r="A1378" t="s">
         <v>2525</v>
       </c>
-      <c r="B1378" s="2" t="s">
+      <c r="B1378" t="s">
         <v>550</v>
       </c>
       <c r="C1378" t="s">
@@ -55902,7 +56149,7 @@
       <c r="F1378">
         <v>1</v>
       </c>
-      <c r="G1378" s="2">
+      <c r="G1378">
         <v>0.9</v>
       </c>
       <c r="H1378" s="1">
@@ -55922,7 +56169,7 @@
       <c r="A1379" t="s">
         <v>2527</v>
       </c>
-      <c r="B1379" s="2" t="s">
+      <c r="B1379" t="s">
         <v>550</v>
       </c>
       <c r="C1379" t="s">
@@ -55937,7 +56184,7 @@
       <c r="F1379">
         <v>1</v>
       </c>
-      <c r="G1379" s="2">
+      <c r="G1379">
         <v>4.2</v>
       </c>
       <c r="H1379" s="1">
@@ -55957,7 +56204,7 @@
       <c r="A1380" t="s">
         <v>2528</v>
       </c>
-      <c r="B1380" s="2" t="s">
+      <c r="B1380" t="s">
         <v>550</v>
       </c>
       <c r="C1380" t="s">
@@ -55972,7 +56219,7 @@
       <c r="F1380">
         <v>1</v>
       </c>
-      <c r="G1380" s="2">
+      <c r="G1380">
         <v>2.6</v>
       </c>
       <c r="H1380" s="1">
@@ -55992,7 +56239,7 @@
       <c r="A1381" t="s">
         <v>2529</v>
       </c>
-      <c r="B1381" s="2" t="s">
+      <c r="B1381" t="s">
         <v>550</v>
       </c>
       <c r="C1381" t="s">
@@ -56007,7 +56254,7 @@
       <c r="F1381">
         <v>0</v>
       </c>
-      <c r="G1381" s="2">
+      <c r="G1381">
         <v>0</v>
       </c>
       <c r="H1381" s="1">
@@ -56027,7 +56274,7 @@
       <c r="A1382" t="s">
         <v>2531</v>
       </c>
-      <c r="B1382" s="2" t="s">
+      <c r="B1382" t="s">
         <v>550</v>
       </c>
       <c r="C1382" t="s">
@@ -56042,7 +56289,7 @@
       <c r="F1382">
         <v>1</v>
       </c>
-      <c r="G1382" s="2">
+      <c r="G1382">
         <v>0.9</v>
       </c>
       <c r="H1382" s="1">
@@ -56062,7 +56309,7 @@
       <c r="A1383" t="s">
         <v>2534</v>
       </c>
-      <c r="B1383" s="2" t="s">
+      <c r="B1383" t="s">
         <v>550</v>
       </c>
       <c r="C1383" t="s">
@@ -56077,7 +56324,7 @@
       <c r="F1383">
         <v>1</v>
       </c>
-      <c r="G1383" s="2">
+      <c r="G1383">
         <v>0.4</v>
       </c>
       <c r="H1383" s="1">
@@ -56097,7 +56344,7 @@
       <c r="A1384" t="s">
         <v>2536</v>
       </c>
-      <c r="B1384" s="2" t="s">
+      <c r="B1384" t="s">
         <v>550</v>
       </c>
       <c r="C1384" t="s">
@@ -56109,7 +56356,7 @@
       <c r="F1384">
         <v>1</v>
       </c>
-      <c r="G1384" s="2">
+      <c r="G1384">
         <v>0</v>
       </c>
       <c r="H1384" s="1">
@@ -56129,7 +56376,7 @@
       <c r="A1385" t="s">
         <v>2538</v>
       </c>
-      <c r="B1385" s="2" t="s">
+      <c r="B1385" t="s">
         <v>550</v>
       </c>
       <c r="C1385" t="s">
@@ -56144,7 +56391,7 @@
       <c r="F1385">
         <v>1</v>
       </c>
-      <c r="G1385" s="2">
+      <c r="G1385">
         <v>1.7</v>
       </c>
       <c r="H1385" s="1">
@@ -56164,7 +56411,7 @@
       <c r="A1386" t="s">
         <v>2540</v>
       </c>
-      <c r="B1386" s="2" t="s">
+      <c r="B1386" t="s">
         <v>550</v>
       </c>
       <c r="C1386" t="s">
@@ -56179,7 +56426,7 @@
       <c r="F1386">
         <v>1</v>
       </c>
-      <c r="G1386" s="2">
+      <c r="G1386">
         <v>1</v>
       </c>
       <c r="H1386" s="1">
@@ -56199,7 +56446,7 @@
       <c r="A1387" t="s">
         <v>2541</v>
       </c>
-      <c r="B1387" s="2" t="s">
+      <c r="B1387" t="s">
         <v>550</v>
       </c>
       <c r="C1387" t="s">
@@ -56214,7 +56461,7 @@
       <c r="F1387">
         <v>1</v>
       </c>
-      <c r="G1387" s="2">
+      <c r="G1387">
         <v>1</v>
       </c>
       <c r="H1387" s="1">
@@ -56234,7 +56481,7 @@
       <c r="A1388" t="s">
         <v>2542</v>
       </c>
-      <c r="B1388" s="2" t="s">
+      <c r="B1388" t="s">
         <v>1441</v>
       </c>
       <c r="C1388" t="s">
@@ -56249,7 +56496,7 @@
       <c r="F1388">
         <v>1</v>
       </c>
-      <c r="G1388" s="2">
+      <c r="G1388">
         <v>1</v>
       </c>
       <c r="H1388" s="1">
@@ -56269,7 +56516,7 @@
       <c r="A1389" t="s">
         <v>2544</v>
       </c>
-      <c r="B1389" s="2" t="s">
+      <c r="B1389" t="s">
         <v>1507</v>
       </c>
       <c r="C1389" t="s">
@@ -56284,7 +56531,7 @@
       <c r="F1389">
         <v>1</v>
       </c>
-      <c r="G1389" s="2">
+      <c r="G1389">
         <v>14</v>
       </c>
       <c r="H1389" s="1">
@@ -56304,7 +56551,7 @@
       <c r="A1390" t="s">
         <v>2546</v>
       </c>
-      <c r="B1390" s="2" t="s">
+      <c r="B1390" t="s">
         <v>550</v>
       </c>
       <c r="C1390" t="s">
@@ -56319,7 +56566,7 @@
       <c r="F1390">
         <v>1</v>
       </c>
-      <c r="G1390" s="2">
+      <c r="G1390">
         <v>2.5</v>
       </c>
       <c r="H1390" s="1">
@@ -56339,7 +56586,7 @@
       <c r="A1391" t="s">
         <v>2548</v>
       </c>
-      <c r="B1391" s="2" t="s">
+      <c r="B1391" t="s">
         <v>550</v>
       </c>
       <c r="C1391" t="s">
@@ -56354,7 +56601,7 @@
       <c r="F1391">
         <v>1</v>
       </c>
-      <c r="G1391" s="2">
+      <c r="G1391">
         <v>1</v>
       </c>
       <c r="H1391" s="1">
@@ -56374,7 +56621,7 @@
       <c r="A1392" t="s">
         <v>2551</v>
       </c>
-      <c r="B1392" s="2" t="s">
+      <c r="B1392" t="s">
         <v>550</v>
       </c>
       <c r="C1392" t="s">
@@ -56389,7 +56636,7 @@
       <c r="F1392">
         <v>1</v>
       </c>
-      <c r="G1392" s="2">
+      <c r="G1392">
         <v>1</v>
       </c>
       <c r="H1392" s="1">
@@ -56409,7 +56656,7 @@
       <c r="A1393" t="s">
         <v>2553</v>
       </c>
-      <c r="B1393" s="2" t="s">
+      <c r="B1393" t="s">
         <v>550</v>
       </c>
       <c r="C1393" t="s">
@@ -56424,7 +56671,7 @@
       <c r="F1393">
         <v>0</v>
       </c>
-      <c r="G1393" s="2">
+      <c r="G1393">
         <v>0</v>
       </c>
       <c r="H1393" s="1">
@@ -56444,7 +56691,7 @@
       <c r="A1394" t="s">
         <v>2554</v>
       </c>
-      <c r="B1394" s="2" t="s">
+      <c r="B1394" t="s">
         <v>550</v>
       </c>
       <c r="C1394" t="s">
@@ -56459,7 +56706,7 @@
       <c r="F1394">
         <v>1</v>
       </c>
-      <c r="G1394" s="2">
+      <c r="G1394">
         <v>0.9</v>
       </c>
       <c r="H1394" s="1">
@@ -56479,7 +56726,7 @@
       <c r="A1395" t="s">
         <v>2555</v>
       </c>
-      <c r="B1395" s="2" t="s">
+      <c r="B1395" t="s">
         <v>550</v>
       </c>
       <c r="C1395" t="s">
@@ -56494,7 +56741,7 @@
       <c r="F1395">
         <v>0</v>
       </c>
-      <c r="G1395" s="2">
+      <c r="G1395">
         <v>0</v>
       </c>
       <c r="H1395" s="1">
@@ -56514,7 +56761,7 @@
       <c r="A1396" t="s">
         <v>2556</v>
       </c>
-      <c r="B1396" s="2" t="s">
+      <c r="B1396" t="s">
         <v>550</v>
       </c>
       <c r="C1396" t="s">
@@ -56529,7 +56776,7 @@
       <c r="F1396">
         <v>0</v>
       </c>
-      <c r="G1396" s="2">
+      <c r="G1396">
         <v>0</v>
       </c>
       <c r="H1396" s="1">
@@ -56549,7 +56796,7 @@
       <c r="A1397" t="s">
         <v>2557</v>
       </c>
-      <c r="B1397" s="2" t="s">
+      <c r="B1397" t="s">
         <v>550</v>
       </c>
       <c r="C1397" t="s">
@@ -56564,7 +56811,7 @@
       <c r="F1397">
         <v>1</v>
       </c>
-      <c r="G1397" s="2">
+      <c r="G1397">
         <v>1</v>
       </c>
       <c r="H1397" s="1">
@@ -56584,7 +56831,7 @@
       <c r="A1398" t="s">
         <v>2559</v>
       </c>
-      <c r="B1398" s="2" t="s">
+      <c r="B1398" t="s">
         <v>550</v>
       </c>
       <c r="C1398" t="s">
@@ -56599,7 +56846,7 @@
       <c r="F1398">
         <v>1</v>
       </c>
-      <c r="G1398" s="2">
+      <c r="G1398">
         <v>17.5</v>
       </c>
       <c r="H1398" s="1">
@@ -56619,7 +56866,7 @@
       <c r="A1399" t="s">
         <v>2562</v>
       </c>
-      <c r="B1399" s="2" t="s">
+      <c r="B1399" t="s">
         <v>550</v>
       </c>
       <c r="C1399" t="s">
@@ -56634,7 +56881,7 @@
       <c r="F1399">
         <v>1</v>
       </c>
-      <c r="G1399" s="2">
+      <c r="G1399">
         <v>2</v>
       </c>
       <c r="H1399" s="1">
@@ -56654,7 +56901,7 @@
       <c r="A1400" t="s">
         <v>2564</v>
       </c>
-      <c r="B1400" s="2" t="s">
+      <c r="B1400" t="s">
         <v>965</v>
       </c>
       <c r="C1400" t="s">
@@ -56669,7 +56916,7 @@
       <c r="F1400">
         <v>1</v>
       </c>
-      <c r="G1400" s="2">
+      <c r="G1400">
         <v>5.4</v>
       </c>
       <c r="H1400" s="1">
@@ -56689,7 +56936,7 @@
       <c r="A1401" t="s">
         <v>2566</v>
       </c>
-      <c r="B1401" s="2" t="s">
+      <c r="B1401" t="s">
         <v>965</v>
       </c>
       <c r="C1401" t="s">
@@ -56704,7 +56951,7 @@
       <c r="F1401">
         <v>1</v>
       </c>
-      <c r="G1401" s="2">
+      <c r="G1401">
         <v>3</v>
       </c>
       <c r="H1401" s="1">
@@ -56724,7 +56971,7 @@
       <c r="A1402" t="s">
         <v>2568</v>
       </c>
-      <c r="B1402" s="2" t="s">
+      <c r="B1402" t="s">
         <v>965</v>
       </c>
       <c r="C1402" t="s">
@@ -56739,7 +56986,7 @@
       <c r="F1402">
         <v>1</v>
       </c>
-      <c r="G1402" s="2">
+      <c r="G1402">
         <v>3.5</v>
       </c>
       <c r="H1402" s="1">
@@ -56759,7 +57006,7 @@
       <c r="A1403" t="s">
         <v>2570</v>
       </c>
-      <c r="B1403" s="2" t="s">
+      <c r="B1403" t="s">
         <v>550</v>
       </c>
       <c r="C1403" t="s">
@@ -56774,7 +57021,7 @@
       <c r="F1403">
         <v>0</v>
       </c>
-      <c r="G1403" s="2">
+      <c r="G1403">
         <v>0</v>
       </c>
       <c r="H1403" s="1">
@@ -56794,7 +57041,7 @@
       <c r="A1404" t="s">
         <v>2571</v>
       </c>
-      <c r="B1404" s="2" t="s">
+      <c r="B1404" t="s">
         <v>550</v>
       </c>
       <c r="C1404" t="s">
@@ -56809,7 +57056,7 @@
       <c r="F1404">
         <v>0</v>
       </c>
-      <c r="G1404" s="2">
+      <c r="G1404">
         <v>0</v>
       </c>
       <c r="H1404" s="1">
@@ -56829,7 +57076,7 @@
       <c r="A1405" t="s">
         <v>2572</v>
       </c>
-      <c r="B1405" s="2" t="s">
+      <c r="B1405" t="s">
         <v>550</v>
       </c>
       <c r="C1405" t="s">
@@ -56844,7 +57091,7 @@
       <c r="F1405">
         <v>0</v>
       </c>
-      <c r="G1405" s="2">
+      <c r="G1405">
         <v>0</v>
       </c>
       <c r="H1405" s="1">
@@ -56864,7 +57111,7 @@
       <c r="A1406" t="s">
         <v>2574</v>
       </c>
-      <c r="B1406" s="2" t="s">
+      <c r="B1406" t="s">
         <v>550</v>
       </c>
       <c r="C1406" t="s">
@@ -56879,7 +57126,7 @@
       <c r="F1406">
         <v>1</v>
       </c>
-      <c r="G1406" s="2">
+      <c r="G1406">
         <v>7.2</v>
       </c>
       <c r="H1406" s="1">
@@ -56899,7 +57146,7 @@
       <c r="A1407" t="s">
         <v>2575</v>
       </c>
-      <c r="B1407" s="2" t="s">
+      <c r="B1407" t="s">
         <v>550</v>
       </c>
       <c r="C1407" t="s">
@@ -56914,7 +57161,7 @@
       <c r="F1407">
         <v>0</v>
       </c>
-      <c r="G1407" s="2">
+      <c r="G1407">
         <v>0</v>
       </c>
       <c r="H1407" s="1">
@@ -56934,7 +57181,7 @@
       <c r="A1408" t="s">
         <v>2576</v>
       </c>
-      <c r="B1408" s="2" t="s">
+      <c r="B1408" t="s">
         <v>550</v>
       </c>
       <c r="C1408" t="s">
@@ -56949,7 +57196,7 @@
       <c r="F1408">
         <v>1</v>
       </c>
-      <c r="G1408" s="2">
+      <c r="G1408">
         <v>6</v>
       </c>
       <c r="H1408" s="1">
@@ -56969,7 +57216,7 @@
       <c r="A1409" t="s">
         <v>2579</v>
       </c>
-      <c r="B1409" s="2" t="s">
+      <c r="B1409" t="s">
         <v>550</v>
       </c>
       <c r="C1409" t="s">
@@ -56984,7 +57231,7 @@
       <c r="F1409">
         <v>1</v>
       </c>
-      <c r="G1409" s="2">
+      <c r="G1409">
         <v>7.2</v>
       </c>
       <c r="H1409" s="1">
@@ -57004,7 +57251,7 @@
       <c r="A1410" t="s">
         <v>2580</v>
       </c>
-      <c r="B1410" s="2" t="s">
+      <c r="B1410" t="s">
         <v>550</v>
       </c>
       <c r="C1410" t="s">
@@ -57019,7 +57266,7 @@
       <c r="F1410">
         <v>1</v>
       </c>
-      <c r="G1410" s="2">
+      <c r="G1410">
         <v>0.9</v>
       </c>
       <c r="H1410" s="1">
@@ -57039,7 +57286,7 @@
       <c r="A1411" t="s">
         <v>2581</v>
       </c>
-      <c r="B1411" s="2" t="s">
+      <c r="B1411" t="s">
         <v>550</v>
       </c>
       <c r="C1411" t="s">
@@ -57054,7 +57301,7 @@
       <c r="F1411">
         <v>1</v>
       </c>
-      <c r="G1411" s="2">
+      <c r="G1411">
         <v>12</v>
       </c>
       <c r="H1411" s="1">
@@ -57074,7 +57321,7 @@
       <c r="A1412" t="s">
         <v>2583</v>
       </c>
-      <c r="B1412" s="2" t="s">
+      <c r="B1412" t="s">
         <v>550</v>
       </c>
       <c r="C1412" t="s">
@@ -57089,7 +57336,7 @@
       <c r="F1412">
         <v>0</v>
       </c>
-      <c r="G1412" s="2">
+      <c r="G1412">
         <v>0</v>
       </c>
       <c r="H1412" s="1">
@@ -57109,7 +57356,7 @@
       <c r="A1413" t="s">
         <v>2585</v>
       </c>
-      <c r="B1413" s="2" t="s">
+      <c r="B1413" t="s">
         <v>550</v>
       </c>
       <c r="C1413" t="s">
@@ -57124,7 +57371,7 @@
       <c r="F1413">
         <v>0</v>
       </c>
-      <c r="G1413" s="2">
+      <c r="G1413">
         <v>0</v>
       </c>
       <c r="H1413" s="1">
@@ -57144,7 +57391,7 @@
       <c r="A1414" t="s">
         <v>2587</v>
       </c>
-      <c r="B1414" s="2" t="s">
+      <c r="B1414" t="s">
         <v>550</v>
       </c>
       <c r="C1414" t="s">
@@ -57159,7 +57406,7 @@
       <c r="F1414">
         <v>1</v>
       </c>
-      <c r="G1414" s="2">
+      <c r="G1414">
         <v>2.5</v>
       </c>
       <c r="H1414" s="1">
@@ -57179,7 +57426,7 @@
       <c r="A1415" t="s">
         <v>2588</v>
       </c>
-      <c r="B1415" s="2" t="s">
+      <c r="B1415" t="s">
         <v>550</v>
       </c>
       <c r="C1415" t="s">
@@ -57194,7 +57441,7 @@
       <c r="F1415">
         <v>1</v>
       </c>
-      <c r="G1415" s="2">
+      <c r="G1415">
         <v>11.4</v>
       </c>
       <c r="H1415" s="1">
@@ -57214,7 +57461,7 @@
       <c r="A1416" t="s">
         <v>2590</v>
       </c>
-      <c r="B1416" s="2" t="s">
+      <c r="B1416" t="s">
         <v>550</v>
       </c>
       <c r="C1416" t="s">
@@ -57229,7 +57476,7 @@
       <c r="F1416">
         <v>0</v>
       </c>
-      <c r="G1416" s="2">
+      <c r="G1416">
         <v>0</v>
       </c>
       <c r="H1416" s="1">
@@ -57249,7 +57496,7 @@
       <c r="A1417" t="s">
         <v>2591</v>
       </c>
-      <c r="B1417" s="2" t="s">
+      <c r="B1417" t="s">
         <v>550</v>
       </c>
       <c r="C1417" t="s">
@@ -57264,7 +57511,7 @@
       <c r="F1417">
         <v>0</v>
       </c>
-      <c r="G1417" s="2">
+      <c r="G1417">
         <v>0</v>
       </c>
       <c r="H1417" s="1">
@@ -57284,7 +57531,7 @@
       <c r="A1418" t="s">
         <v>2593</v>
       </c>
-      <c r="B1418" s="2" t="s">
+      <c r="B1418" t="s">
         <v>550</v>
       </c>
       <c r="C1418" t="s">
@@ -57299,7 +57546,7 @@
       <c r="F1418">
         <v>0</v>
       </c>
-      <c r="G1418" s="2">
+      <c r="G1418">
         <v>0</v>
       </c>
       <c r="H1418" s="1">
@@ -57319,7 +57566,7 @@
       <c r="A1419" t="s">
         <v>2594</v>
       </c>
-      <c r="B1419" s="2" t="s">
+      <c r="B1419" t="s">
         <v>550</v>
       </c>
       <c r="C1419" t="s">
@@ -57334,7 +57581,7 @@
       <c r="F1419">
         <v>0</v>
       </c>
-      <c r="G1419" s="2">
+      <c r="G1419">
         <v>0</v>
       </c>
       <c r="H1419" s="1">
@@ -57354,7 +57601,7 @@
       <c r="A1420" t="s">
         <v>2595</v>
       </c>
-      <c r="B1420" s="2" t="s">
+      <c r="B1420" t="s">
         <v>550</v>
       </c>
       <c r="C1420" t="s">
@@ -57369,7 +57616,7 @@
       <c r="F1420">
         <v>1</v>
       </c>
-      <c r="G1420" s="2">
+      <c r="G1420">
         <v>2.5</v>
       </c>
       <c r="H1420" s="1">
@@ -57389,7 +57636,7 @@
       <c r="A1421" t="s">
         <v>2597</v>
       </c>
-      <c r="B1421" s="2" t="s">
+      <c r="B1421" t="s">
         <v>550</v>
       </c>
       <c r="C1421" t="s">
@@ -57404,7 +57651,7 @@
       <c r="F1421">
         <v>0</v>
       </c>
-      <c r="G1421" s="2">
+      <c r="G1421">
         <v>0</v>
       </c>
       <c r="H1421" s="1">
@@ -57424,7 +57671,7 @@
       <c r="A1422" t="s">
         <v>2599</v>
       </c>
-      <c r="B1422" s="2" t="s">
+      <c r="B1422" t="s">
         <v>550</v>
       </c>
       <c r="C1422" t="s">
@@ -57439,7 +57686,7 @@
       <c r="F1422">
         <v>0</v>
       </c>
-      <c r="G1422" s="2">
+      <c r="G1422">
         <v>0</v>
       </c>
       <c r="H1422" s="1">
@@ -57459,7 +57706,7 @@
       <c r="A1423" t="s">
         <v>2600</v>
       </c>
-      <c r="B1423" s="2" t="s">
+      <c r="B1423" t="s">
         <v>550</v>
       </c>
       <c r="C1423" t="s">
@@ -57468,7 +57715,7 @@
       <c r="F1423">
         <v>0</v>
       </c>
-      <c r="G1423" s="2">
+      <c r="G1423">
         <v>0</v>
       </c>
       <c r="H1423" s="1">
@@ -57488,7 +57735,7 @@
       <c r="A1424" t="s">
         <v>2601</v>
       </c>
-      <c r="B1424" s="2" t="s">
+      <c r="B1424" t="s">
         <v>550</v>
       </c>
       <c r="C1424" t="s">
@@ -57503,7 +57750,7 @@
       <c r="F1424">
         <v>0</v>
       </c>
-      <c r="G1424" s="2">
+      <c r="G1424">
         <v>0</v>
       </c>
       <c r="H1424" s="1">
@@ -57523,7 +57770,7 @@
       <c r="A1425" t="s">
         <v>2602</v>
       </c>
-      <c r="B1425" s="2" t="s">
+      <c r="B1425" t="s">
         <v>550</v>
       </c>
       <c r="C1425" t="s">
@@ -57538,7 +57785,7 @@
       <c r="F1425">
         <v>0</v>
       </c>
-      <c r="G1425" s="2">
+      <c r="G1425">
         <v>0</v>
       </c>
       <c r="H1425" s="1">
@@ -57558,7 +57805,7 @@
       <c r="A1426" t="s">
         <v>2604</v>
       </c>
-      <c r="B1426" s="2" t="s">
+      <c r="B1426" t="s">
         <v>550</v>
       </c>
       <c r="C1426" t="s">
@@ -57573,7 +57820,7 @@
       <c r="F1426">
         <v>0</v>
       </c>
-      <c r="G1426" s="2">
+      <c r="G1426">
         <v>0</v>
       </c>
       <c r="H1426" s="1">
@@ -57593,7 +57840,7 @@
       <c r="A1427" t="s">
         <v>2605</v>
       </c>
-      <c r="B1427" s="2" t="s">
+      <c r="B1427" t="s">
         <v>550</v>
       </c>
       <c r="C1427" t="s">
@@ -57608,7 +57855,7 @@
       <c r="F1427">
         <v>0</v>
       </c>
-      <c r="G1427" s="2">
+      <c r="G1427">
         <v>0</v>
       </c>
       <c r="H1427" s="1">
@@ -57622,6 +57869,1769 @@
       </c>
       <c r="K1427">
         <v>29</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B1428" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1428">
+        <v>5.3</v>
+      </c>
+      <c r="F1428">
+        <v>1</v>
+      </c>
+      <c r="G1428" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="H1428" s="1">
+        <v>45495</v>
+      </c>
+      <c r="I1428" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1428" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1428">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1429" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E1429">
+        <v>1.5</v>
+      </c>
+      <c r="F1429">
+        <v>1</v>
+      </c>
+      <c r="G1429" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1429" s="1">
+        <v>45495</v>
+      </c>
+      <c r="I1429" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1429" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1429">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1430" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E1430">
+        <v>0.9</v>
+      </c>
+      <c r="F1430">
+        <v>1</v>
+      </c>
+      <c r="G1430" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1430" s="1">
+        <v>45495</v>
+      </c>
+      <c r="I1430" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1430" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1430">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B1431" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E1431">
+        <v>0.9</v>
+      </c>
+      <c r="F1431">
+        <v>1</v>
+      </c>
+      <c r="G1431" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1431" s="1">
+        <v>45495</v>
+      </c>
+      <c r="I1431" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1431" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1431">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1432" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E1432">
+        <v>1.5</v>
+      </c>
+      <c r="F1432">
+        <v>1</v>
+      </c>
+      <c r="G1432" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1432" s="1">
+        <v>45495</v>
+      </c>
+      <c r="I1432" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1432" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1432">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B1433" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1433">
+        <v>3</v>
+      </c>
+      <c r="F1433">
+        <v>1</v>
+      </c>
+      <c r="G1433" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1433" s="1">
+        <v>45495</v>
+      </c>
+      <c r="I1433" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1433" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1433">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1434" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E1434">
+        <v>8.5</v>
+      </c>
+      <c r="F1434">
+        <v>1</v>
+      </c>
+      <c r="G1434" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="H1434" s="1">
+        <v>45495</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1434" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1434">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B1435" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E1435">
+        <v>1</v>
+      </c>
+      <c r="F1435">
+        <v>1</v>
+      </c>
+      <c r="G1435" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1435" s="1">
+        <v>45495</v>
+      </c>
+      <c r="I1435" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1435" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1435">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B1436" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1436">
+        <v>1.5</v>
+      </c>
+      <c r="F1436">
+        <v>1</v>
+      </c>
+      <c r="G1436" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1436" s="1">
+        <v>45495</v>
+      </c>
+      <c r="I1436" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1436" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1436">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B1437" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E1437">
+        <v>6</v>
+      </c>
+      <c r="F1437">
+        <v>1</v>
+      </c>
+      <c r="G1437" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1437" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1437" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1437" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1437">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B1438" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E1438">
+        <v>3.6</v>
+      </c>
+      <c r="F1438">
+        <v>0</v>
+      </c>
+      <c r="G1438" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1438" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1438" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1438">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B1439" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E1439">
+        <v>1.2</v>
+      </c>
+      <c r="F1439">
+        <v>1</v>
+      </c>
+      <c r="G1439" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H1439" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1439" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1439" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1439">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1440" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E1440">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F1440">
+        <v>1</v>
+      </c>
+      <c r="G1440" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H1440" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1440" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1440" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1440">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B1441" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E1441">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F1441">
+        <v>1</v>
+      </c>
+      <c r="G1441" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H1441" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1441" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1441" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1441">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B1442" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1442">
+        <v>2.4</v>
+      </c>
+      <c r="F1442">
+        <v>1</v>
+      </c>
+      <c r="G1442" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="H1442" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1442" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1442" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1442">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1443" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E1443">
+        <v>1</v>
+      </c>
+      <c r="F1443">
+        <v>1</v>
+      </c>
+      <c r="G1443" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1443" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1443" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1443" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1443">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B1444" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1444">
+        <v>1</v>
+      </c>
+      <c r="F1444">
+        <v>1</v>
+      </c>
+      <c r="G1444" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1444" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1444" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1444" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1444">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B1445" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1445">
+        <v>0.5</v>
+      </c>
+      <c r="F1445">
+        <v>1</v>
+      </c>
+      <c r="G1445" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1445" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1445" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1445" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1445">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B1446" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E1446">
+        <v>3</v>
+      </c>
+      <c r="F1446">
+        <v>1</v>
+      </c>
+      <c r="G1446" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1446" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1446" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1446" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1446">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B1447" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E1447">
+        <v>3</v>
+      </c>
+      <c r="F1447">
+        <v>1</v>
+      </c>
+      <c r="G1447" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1447" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1447" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1447" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1447">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1448" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1448">
+        <v>2</v>
+      </c>
+      <c r="F1448">
+        <v>1</v>
+      </c>
+      <c r="G1448" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1448" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I1448" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1448" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1448">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B1449" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1449">
+        <v>7.2</v>
+      </c>
+      <c r="F1449">
+        <v>1</v>
+      </c>
+      <c r="G1449" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H1449" s="1">
+        <v>45497</v>
+      </c>
+      <c r="I1449" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1449" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1449">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1450" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E1450">
+        <v>1</v>
+      </c>
+      <c r="F1450">
+        <v>1</v>
+      </c>
+      <c r="G1450" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1450" s="1">
+        <v>45497</v>
+      </c>
+      <c r="I1450" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1450" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1450">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B1451" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E1451">
+        <v>1.3</v>
+      </c>
+      <c r="F1451">
+        <v>1</v>
+      </c>
+      <c r="G1451" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H1451" s="1">
+        <v>45497</v>
+      </c>
+      <c r="I1451" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1451" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1451">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B1452" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G1452" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1452" s="1">
+        <v>45497</v>
+      </c>
+      <c r="I1452" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1452" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1452">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B1453" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>2644</v>
+      </c>
+      <c r="G1453" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1453" s="1">
+        <v>45497</v>
+      </c>
+      <c r="I1453" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1453" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1453">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1454" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G1454" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1454" s="1">
+        <v>45497</v>
+      </c>
+      <c r="I1454" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1454" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1454">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B1455" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G1455" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1455" s="1">
+        <v>45497</v>
+      </c>
+      <c r="I1455" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1455" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1455">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B1456" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>2651</v>
+      </c>
+      <c r="G1456" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1456" s="1">
+        <v>45497</v>
+      </c>
+      <c r="I1456" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1456" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1456">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B1457" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G1457" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1457" s="1">
+        <v>45497</v>
+      </c>
+      <c r="I1457" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1457" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1457">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1458" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E1458">
+        <v>7.2</v>
+      </c>
+      <c r="F1458">
+        <v>1</v>
+      </c>
+      <c r="G1458" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H1458" s="1">
+        <v>45498</v>
+      </c>
+      <c r="I1458" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1458" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1458">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B1459" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>2547</v>
+      </c>
+      <c r="E1459">
+        <v>1</v>
+      </c>
+      <c r="F1459">
+        <v>0</v>
+      </c>
+      <c r="G1459" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1459" s="1">
+        <v>45498</v>
+      </c>
+      <c r="I1459" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1459" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1459">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1460" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1460" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>2657</v>
+      </c>
+      <c r="E1460">
+        <v>2.9</v>
+      </c>
+      <c r="F1460">
+        <v>1</v>
+      </c>
+      <c r="G1460" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="H1460" s="1">
+        <v>45498</v>
+      </c>
+      <c r="I1460" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1460" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1460">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B1461" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>2659</v>
+      </c>
+      <c r="G1461" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1461" s="1">
+        <v>45498</v>
+      </c>
+      <c r="I1461" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1461" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1461">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B1462" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E1462">
+        <v>12</v>
+      </c>
+      <c r="G1462" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1462" s="1">
+        <v>45498</v>
+      </c>
+      <c r="I1462" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1462" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1462">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B1463" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E1463">
+        <v>6</v>
+      </c>
+      <c r="G1463" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1463" s="1">
+        <v>45498</v>
+      </c>
+      <c r="I1463" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1463" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1463">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B1464" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>2665</v>
+      </c>
+      <c r="E1464">
+        <v>3</v>
+      </c>
+      <c r="G1464" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1464" s="1">
+        <v>45498</v>
+      </c>
+      <c r="I1464" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1464" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1464">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B1465" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E1465">
+        <v>2</v>
+      </c>
+      <c r="G1465" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1465" s="1">
+        <v>45498</v>
+      </c>
+      <c r="I1465" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1465" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1465">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B1466" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1466">
+        <v>7</v>
+      </c>
+      <c r="F1466">
+        <v>0</v>
+      </c>
+      <c r="G1466" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1466" s="1">
+        <v>45499</v>
+      </c>
+      <c r="I1466" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1466" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1466">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B1467" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E1467">
+        <v>2.5</v>
+      </c>
+      <c r="F1467">
+        <v>0</v>
+      </c>
+      <c r="G1467" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1467" s="1">
+        <v>45499</v>
+      </c>
+      <c r="I1467" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1467" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1467">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B1468" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E1468">
+        <v>1.5</v>
+      </c>
+      <c r="F1468">
+        <v>0</v>
+      </c>
+      <c r="G1468" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1468" s="1">
+        <v>45499</v>
+      </c>
+      <c r="I1468" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1468" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1468">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B1469" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1469">
+        <v>2.5</v>
+      </c>
+      <c r="F1469">
+        <v>0</v>
+      </c>
+      <c r="G1469" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1469" s="1">
+        <v>45499</v>
+      </c>
+      <c r="I1469" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1469" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1469">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B1470" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E1470">
+        <v>2.5</v>
+      </c>
+      <c r="F1470">
+        <v>0</v>
+      </c>
+      <c r="G1470" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1470" s="1">
+        <v>45499</v>
+      </c>
+      <c r="I1470" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1470" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1470">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B1471" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1471">
+        <v>2.5</v>
+      </c>
+      <c r="F1471">
+        <v>0</v>
+      </c>
+      <c r="G1471" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1471" s="1">
+        <v>45499</v>
+      </c>
+      <c r="I1471" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1471" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1471">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1472" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>2676</v>
+      </c>
+      <c r="E1472">
+        <v>3</v>
+      </c>
+      <c r="F1472">
+        <v>0</v>
+      </c>
+      <c r="G1472" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1472" s="1">
+        <v>45499</v>
+      </c>
+      <c r="I1472" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1472" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1472">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B1473" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>2678</v>
+      </c>
+      <c r="E1473">
+        <v>24.1</v>
+      </c>
+      <c r="F1473">
+        <v>0</v>
+      </c>
+      <c r="G1473" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1473" s="1">
+        <v>45500</v>
+      </c>
+      <c r="I1473" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1473" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1473">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B1474" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E1474">
+        <v>5</v>
+      </c>
+      <c r="F1474">
+        <v>0</v>
+      </c>
+      <c r="G1474" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1474" s="1">
+        <v>45500</v>
+      </c>
+      <c r="I1474" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1474" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1474">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B1475" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>2681</v>
+      </c>
+      <c r="E1475">
+        <v>1</v>
+      </c>
+      <c r="F1475">
+        <v>0</v>
+      </c>
+      <c r="G1475" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1475" s="1">
+        <v>45500</v>
+      </c>
+      <c r="I1475" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1475" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1475">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B1476" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1476">
+        <v>1.2</v>
+      </c>
+      <c r="F1476">
+        <v>0</v>
+      </c>
+      <c r="G1476" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1476" s="1">
+        <v>45500</v>
+      </c>
+      <c r="I1476" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1476" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1476">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B1477" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E1477">
+        <v>2.5</v>
+      </c>
+      <c r="F1477">
+        <v>0</v>
+      </c>
+      <c r="G1477" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1477" s="1">
+        <v>45500</v>
+      </c>
+      <c r="I1477" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1477" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1477">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B1478" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E1478">
+        <v>1.5</v>
+      </c>
+      <c r="F1478">
+        <v>0</v>
+      </c>
+      <c r="G1478" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1478" s="1">
+        <v>45500</v>
+      </c>
+      <c r="I1478" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1478" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1478">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B1479" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1479">
+        <v>2.5</v>
+      </c>
+      <c r="F1479">
+        <v>0</v>
+      </c>
+      <c r="G1479" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1479" s="1">
+        <v>45500</v>
+      </c>
+      <c r="I1479" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1479" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1479">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/produccion.xlsx
+++ b/datasets/produccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3DAA01E-F14A-4D8F-BB6C-775DF48190A0}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED9B46F2-7F05-4239-86B0-D8ACD7E41502}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4B7E62A-ACE4-488F-B31E-63058BE35439}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8992" uniqueCount="2831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9196" uniqueCount="2891">
   <si>
     <t>COD</t>
   </si>
@@ -8529,6 +8529,186 @@
   </si>
   <si>
     <t>5;45514;Entregables</t>
+  </si>
+  <si>
+    <t>1;45517;Entregables</t>
+  </si>
+  <si>
+    <t>3 Puertas</t>
+  </si>
+  <si>
+    <t>2;45517;Entregables</t>
+  </si>
+  <si>
+    <t>3;45517;Entregables</t>
+  </si>
+  <si>
+    <t>2 Buros Cab Ppal</t>
+  </si>
+  <si>
+    <t>1;45517;Extras</t>
+  </si>
+  <si>
+    <t>1 pierna</t>
+  </si>
+  <si>
+    <t>2;45517;Extras</t>
+  </si>
+  <si>
+    <t>3;45517;Extras</t>
+  </si>
+  <si>
+    <t>1 vista</t>
+  </si>
+  <si>
+    <t>5;45517;Extras</t>
+  </si>
+  <si>
+    <t>1;45517;Retrabajos</t>
+  </si>
+  <si>
+    <t>1 puerta</t>
+  </si>
+  <si>
+    <t>2;45517;Retrabajos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa s.o </t>
+  </si>
+  <si>
+    <t>2 piernas</t>
+  </si>
+  <si>
+    <t>3;45517;Retrabajos</t>
+  </si>
+  <si>
+    <t>1 panel</t>
+  </si>
+  <si>
+    <t>4;45517;Retrabajos</t>
+  </si>
+  <si>
+    <t>1;45518;Entregables</t>
+  </si>
+  <si>
+    <t>Mueble d Legos</t>
+  </si>
+  <si>
+    <t>2;45518;Entregables</t>
+  </si>
+  <si>
+    <t>3;45518;Entregables</t>
+  </si>
+  <si>
+    <t>2P Inter</t>
+  </si>
+  <si>
+    <t>1;45518;Extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201- Repisas </t>
+  </si>
+  <si>
+    <t>3;45518;Extras</t>
+  </si>
+  <si>
+    <t>ajustes tarja</t>
+  </si>
+  <si>
+    <t>1;45519;Entregables</t>
+  </si>
+  <si>
+    <t>Mueble Bodega</t>
+  </si>
+  <si>
+    <t>2;45519;Entregables</t>
+  </si>
+  <si>
+    <t>HERCOM PC 203</t>
+  </si>
+  <si>
+    <t>3;45519;Entregables</t>
+  </si>
+  <si>
+    <t>4;45519;Entregables</t>
+  </si>
+  <si>
+    <t>MDB Visitas</t>
+  </si>
+  <si>
+    <t>5;45519;Entregables</t>
+  </si>
+  <si>
+    <t>6;45519;Entregables</t>
+  </si>
+  <si>
+    <t>MDB Rec01</t>
+  </si>
+  <si>
+    <t>1;45519;Extras</t>
+  </si>
+  <si>
+    <t>ajustes</t>
+  </si>
+  <si>
+    <t>3;45519;Extras</t>
+  </si>
+  <si>
+    <t>1 puerta lambrin</t>
+  </si>
+  <si>
+    <t>4;45519;Extras</t>
+  </si>
+  <si>
+    <t>1 pta bajo esc</t>
+  </si>
+  <si>
+    <t>5;45519;Extras</t>
+  </si>
+  <si>
+    <t>Fondos lambrin</t>
+  </si>
+  <si>
+    <t>1;45520;Entregables</t>
+  </si>
+  <si>
+    <t>Escritorio Rec 02</t>
+  </si>
+  <si>
+    <t>2;45520;Entregables</t>
+  </si>
+  <si>
+    <t>Mueble Sala</t>
+  </si>
+  <si>
+    <t>3;45520;Entregables</t>
+  </si>
+  <si>
+    <t>4;45520;Entregables</t>
+  </si>
+  <si>
+    <t>2P Corredizas</t>
+  </si>
+  <si>
+    <t>5;45520;Entregables</t>
+  </si>
+  <si>
+    <t>Cl. Blancos + Forrado Columna</t>
+  </si>
+  <si>
+    <t>1;45520;Extras</t>
+  </si>
+  <si>
+    <t>Mdbaño</t>
+  </si>
+  <si>
+    <t>1;45521;Entregables</t>
+  </si>
+  <si>
+    <t>1P Corred.</t>
+  </si>
+  <si>
+    <t>2;45521;Entregables</t>
   </si>
 </sst>
 </file>
@@ -8600,8 +8780,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1559" totalsRowShown="0">
-  <autoFilter ref="A1:K1559" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1593" totalsRowShown="0">
+  <autoFilter ref="A1:K1593" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B6ECC9CA-BE29-4C5B-9606-01CFB697A054}" name="COD"/>
     <tableColumn id="2" xr3:uid="{C7D7DD62-79C4-4423-B87E-1408D1237598}" name="CTVV" dataDxfId="2"/>
@@ -8936,10 +9116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEF2190-C283-43C9-B0E2-E2F3DD6D60C6}">
-  <dimension ref="A1:K1559"/>
+  <dimension ref="A1:K1593"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1537" workbookViewId="0">
-      <selection activeCell="A1512" sqref="A1512"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1574" workbookViewId="0">
+      <selection activeCell="E1590" sqref="E1590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61155,7 +61335,7 @@
       <c r="A1511" t="s">
         <v>2743</v>
       </c>
-      <c r="B1511" s="2" t="s">
+      <c r="B1511" t="s">
         <v>550</v>
       </c>
       <c r="C1511" t="s">
@@ -61170,7 +61350,7 @@
       <c r="F1511">
         <v>1</v>
       </c>
-      <c r="G1511" s="2">
+      <c r="G1511">
         <v>2</v>
       </c>
       <c r="H1511" s="1">
@@ -61190,7 +61370,7 @@
       <c r="A1512" t="s">
         <v>2744</v>
       </c>
-      <c r="B1512" s="2" t="s">
+      <c r="B1512" t="s">
         <v>1117</v>
       </c>
       <c r="C1512" t="s">
@@ -61205,7 +61385,7 @@
       <c r="F1512">
         <v>1</v>
       </c>
-      <c r="G1512" s="2">
+      <c r="G1512">
         <v>1</v>
       </c>
       <c r="H1512" s="1">
@@ -61225,7 +61405,7 @@
       <c r="A1513" t="s">
         <v>2745</v>
       </c>
-      <c r="B1513" s="2" t="s">
+      <c r="B1513" t="s">
         <v>1117</v>
       </c>
       <c r="C1513" t="s">
@@ -61240,7 +61420,7 @@
       <c r="F1513">
         <v>2</v>
       </c>
-      <c r="G1513" s="2">
+      <c r="G1513">
         <v>1</v>
       </c>
       <c r="H1513" s="1">
@@ -61260,7 +61440,7 @@
       <c r="A1514" t="s">
         <v>2747</v>
       </c>
-      <c r="B1514" s="2" t="s">
+      <c r="B1514" t="s">
         <v>1117</v>
       </c>
       <c r="C1514" t="s">
@@ -61275,7 +61455,7 @@
       <c r="F1514">
         <v>1</v>
       </c>
-      <c r="G1514" s="2">
+      <c r="G1514">
         <v>1</v>
       </c>
       <c r="H1514" s="1">
@@ -61295,7 +61475,7 @@
       <c r="A1515" t="s">
         <v>2748</v>
       </c>
-      <c r="B1515" s="2" t="s">
+      <c r="B1515" t="s">
         <v>1117</v>
       </c>
       <c r="C1515" t="s">
@@ -61310,7 +61490,7 @@
       <c r="F1515">
         <v>1</v>
       </c>
-      <c r="G1515" s="2">
+      <c r="G1515">
         <v>0.2</v>
       </c>
       <c r="H1515" s="1">
@@ -61330,7 +61510,7 @@
       <c r="A1516" t="s">
         <v>2750</v>
       </c>
-      <c r="B1516" s="2" t="s">
+      <c r="B1516" t="s">
         <v>550</v>
       </c>
       <c r="C1516" t="s">
@@ -61345,7 +61525,7 @@
       <c r="F1516">
         <v>1</v>
       </c>
-      <c r="G1516" s="2">
+      <c r="G1516">
         <v>0.5</v>
       </c>
       <c r="H1516" s="1">
@@ -61365,7 +61545,7 @@
       <c r="A1517" t="s">
         <v>2752</v>
       </c>
-      <c r="B1517" s="2" t="s">
+      <c r="B1517" t="s">
         <v>550</v>
       </c>
       <c r="C1517" t="s">
@@ -61380,7 +61560,7 @@
       <c r="F1517">
         <v>1</v>
       </c>
-      <c r="G1517" s="2">
+      <c r="G1517">
         <v>1.8</v>
       </c>
       <c r="H1517" s="1">
@@ -61400,7 +61580,7 @@
       <c r="A1518" t="s">
         <v>2754</v>
       </c>
-      <c r="B1518" s="2" t="s">
+      <c r="B1518" t="s">
         <v>550</v>
       </c>
       <c r="C1518" t="s">
@@ -61415,7 +61595,7 @@
       <c r="F1518">
         <v>1</v>
       </c>
-      <c r="G1518" s="2">
+      <c r="G1518">
         <v>2.7</v>
       </c>
       <c r="H1518" s="1">
@@ -61435,7 +61615,7 @@
       <c r="A1519" t="s">
         <v>2756</v>
       </c>
-      <c r="B1519" s="2" t="s">
+      <c r="B1519" t="s">
         <v>550</v>
       </c>
       <c r="C1519" t="s">
@@ -61450,7 +61630,7 @@
       <c r="F1519">
         <v>1</v>
       </c>
-      <c r="G1519" s="2">
+      <c r="G1519">
         <v>0.9</v>
       </c>
       <c r="H1519" s="1">
@@ -61470,7 +61650,7 @@
       <c r="A1520" t="s">
         <v>2758</v>
       </c>
-      <c r="B1520" s="2" t="s">
+      <c r="B1520" t="s">
         <v>550</v>
       </c>
       <c r="C1520" t="s">
@@ -61485,7 +61665,7 @@
       <c r="F1520">
         <v>1</v>
       </c>
-      <c r="G1520" s="2">
+      <c r="G1520">
         <v>3.8</v>
       </c>
       <c r="H1520" s="1">
@@ -61505,7 +61685,7 @@
       <c r="A1521" t="s">
         <v>2759</v>
       </c>
-      <c r="B1521" s="2" t="s">
+      <c r="B1521" t="s">
         <v>550</v>
       </c>
       <c r="C1521" t="s">
@@ -61520,7 +61700,7 @@
       <c r="F1521">
         <v>1</v>
       </c>
-      <c r="G1521" s="2">
+      <c r="G1521">
         <v>1.5</v>
       </c>
       <c r="H1521" s="1">
@@ -61540,7 +61720,7 @@
       <c r="A1522" t="s">
         <v>2760</v>
       </c>
-      <c r="B1522" s="2" t="s">
+      <c r="B1522" t="s">
         <v>550</v>
       </c>
       <c r="C1522" t="s">
@@ -61555,7 +61735,7 @@
       <c r="F1522">
         <v>1</v>
       </c>
-      <c r="G1522" s="2">
+      <c r="G1522">
         <v>0.6</v>
       </c>
       <c r="H1522" s="1">
@@ -61575,7 +61755,7 @@
       <c r="A1523" t="s">
         <v>2763</v>
       </c>
-      <c r="B1523" s="2" t="s">
+      <c r="B1523" t="s">
         <v>550</v>
       </c>
       <c r="C1523" t="s">
@@ -61590,7 +61770,7 @@
       <c r="F1523">
         <v>1</v>
       </c>
-      <c r="G1523" s="2">
+      <c r="G1523">
         <v>1.2</v>
       </c>
       <c r="H1523" s="1">
@@ -61610,7 +61790,7 @@
       <c r="A1524" t="s">
         <v>2766</v>
       </c>
-      <c r="B1524" s="2" t="s">
+      <c r="B1524" t="s">
         <v>550</v>
       </c>
       <c r="C1524" t="s">
@@ -61625,7 +61805,7 @@
       <c r="F1524">
         <v>1</v>
       </c>
-      <c r="G1524" s="2">
+      <c r="G1524">
         <v>1</v>
       </c>
       <c r="H1524" s="1">
@@ -61645,7 +61825,7 @@
       <c r="A1525" t="s">
         <v>2769</v>
       </c>
-      <c r="B1525" s="2" t="s">
+      <c r="B1525" t="s">
         <v>550</v>
       </c>
       <c r="C1525" t="s">
@@ -61660,7 +61840,7 @@
       <c r="F1525">
         <v>1</v>
       </c>
-      <c r="G1525" s="2">
+      <c r="G1525">
         <v>1.5</v>
       </c>
       <c r="H1525" s="1">
@@ -61680,7 +61860,7 @@
       <c r="A1526" t="s">
         <v>2771</v>
       </c>
-      <c r="B1526" s="2" t="s">
+      <c r="B1526" t="s">
         <v>550</v>
       </c>
       <c r="C1526" t="s">
@@ -61695,7 +61875,7 @@
       <c r="F1526">
         <v>1</v>
       </c>
-      <c r="G1526" s="2">
+      <c r="G1526">
         <v>0.5</v>
       </c>
       <c r="H1526" s="1">
@@ -61715,7 +61895,7 @@
       <c r="A1527" t="s">
         <v>2773</v>
       </c>
-      <c r="B1527" s="2" t="s">
+      <c r="B1527" t="s">
         <v>550</v>
       </c>
       <c r="C1527" t="s">
@@ -61730,7 +61910,7 @@
       <c r="F1527">
         <v>1</v>
       </c>
-      <c r="G1527" s="2">
+      <c r="G1527">
         <v>1</v>
       </c>
       <c r="H1527" s="1">
@@ -61750,7 +61930,7 @@
       <c r="A1528" t="s">
         <v>2775</v>
       </c>
-      <c r="B1528" s="2" t="s">
+      <c r="B1528" t="s">
         <v>1507</v>
       </c>
       <c r="C1528" t="s">
@@ -61765,7 +61945,7 @@
       <c r="F1528">
         <v>1</v>
       </c>
-      <c r="G1528" s="2">
+      <c r="G1528">
         <v>14.4</v>
       </c>
       <c r="H1528" s="1">
@@ -61785,7 +61965,7 @@
       <c r="A1529" t="s">
         <v>2777</v>
       </c>
-      <c r="B1529" s="2" t="s">
+      <c r="B1529" t="s">
         <v>550</v>
       </c>
       <c r="C1529" t="s">
@@ -61800,7 +61980,7 @@
       <c r="F1529">
         <v>1</v>
       </c>
-      <c r="G1529" s="2">
+      <c r="G1529">
         <v>0.5</v>
       </c>
       <c r="H1529" s="1">
@@ -61820,7 +62000,7 @@
       <c r="A1530" t="s">
         <v>2779</v>
       </c>
-      <c r="B1530" s="2" t="s">
+      <c r="B1530" t="s">
         <v>550</v>
       </c>
       <c r="C1530" t="s">
@@ -61835,7 +62015,7 @@
       <c r="F1530">
         <v>1</v>
       </c>
-      <c r="G1530" s="2">
+      <c r="G1530">
         <v>5.2</v>
       </c>
       <c r="H1530" s="1">
@@ -61855,7 +62035,7 @@
       <c r="A1531" t="s">
         <v>2780</v>
       </c>
-      <c r="B1531" s="2" t="s">
+      <c r="B1531" t="s">
         <v>550</v>
       </c>
       <c r="C1531" t="s">
@@ -61870,7 +62050,7 @@
       <c r="F1531">
         <v>1</v>
       </c>
-      <c r="G1531" s="2">
+      <c r="G1531">
         <v>1.2</v>
       </c>
       <c r="H1531" s="1">
@@ -61890,7 +62070,7 @@
       <c r="A1532" t="s">
         <v>2781</v>
       </c>
-      <c r="B1532" s="2" t="s">
+      <c r="B1532" t="s">
         <v>550</v>
       </c>
       <c r="C1532" t="s">
@@ -61905,7 +62085,7 @@
       <c r="F1532">
         <v>0</v>
       </c>
-      <c r="G1532" s="2">
+      <c r="G1532">
         <v>0</v>
       </c>
       <c r="H1532" s="1">
@@ -61925,7 +62105,7 @@
       <c r="A1533" t="s">
         <v>2783</v>
       </c>
-      <c r="B1533" s="2" t="s">
+      <c r="B1533" t="s">
         <v>550</v>
       </c>
       <c r="C1533" t="s">
@@ -61940,7 +62120,7 @@
       <c r="F1533">
         <v>1</v>
       </c>
-      <c r="G1533" s="2">
+      <c r="G1533">
         <v>4.5999999999999996</v>
       </c>
       <c r="H1533" s="1">
@@ -61960,7 +62140,7 @@
       <c r="A1534" t="s">
         <v>2785</v>
       </c>
-      <c r="B1534" s="2" t="s">
+      <c r="B1534" t="s">
         <v>550</v>
       </c>
       <c r="C1534" t="s">
@@ -61975,7 +62155,7 @@
       <c r="F1534">
         <v>1</v>
       </c>
-      <c r="G1534" s="2">
+      <c r="G1534">
         <v>4.5999999999999996</v>
       </c>
       <c r="H1534" s="1">
@@ -61995,7 +62175,7 @@
       <c r="A1535" t="s">
         <v>2787</v>
       </c>
-      <c r="B1535" s="2" t="s">
+      <c r="B1535" t="s">
         <v>550</v>
       </c>
       <c r="C1535" t="s">
@@ -62010,7 +62190,7 @@
       <c r="F1535">
         <v>1</v>
       </c>
-      <c r="G1535" s="2">
+      <c r="G1535">
         <v>1.5</v>
       </c>
       <c r="H1535" s="1">
@@ -62030,7 +62210,7 @@
       <c r="A1536" t="s">
         <v>2790</v>
       </c>
-      <c r="B1536" s="2" t="s">
+      <c r="B1536" t="s">
         <v>550</v>
       </c>
       <c r="C1536" t="s">
@@ -62045,7 +62225,7 @@
       <c r="F1536">
         <v>2</v>
       </c>
-      <c r="G1536" s="2">
+      <c r="G1536">
         <v>1</v>
       </c>
       <c r="H1536" s="1">
@@ -62065,7 +62245,7 @@
       <c r="A1537" t="s">
         <v>2792</v>
       </c>
-      <c r="B1537" s="2" t="s">
+      <c r="B1537" t="s">
         <v>550</v>
       </c>
       <c r="C1537" t="s">
@@ -62080,7 +62260,7 @@
       <c r="F1537">
         <v>1</v>
       </c>
-      <c r="G1537" s="2">
+      <c r="G1537">
         <v>4</v>
       </c>
       <c r="H1537" s="1">
@@ -62100,7 +62280,7 @@
       <c r="A1538" t="s">
         <v>2793</v>
       </c>
-      <c r="B1538" s="2" t="s">
+      <c r="B1538" t="s">
         <v>550</v>
       </c>
       <c r="C1538" t="s">
@@ -62115,7 +62295,7 @@
       <c r="F1538">
         <v>1</v>
       </c>
-      <c r="G1538" s="2">
+      <c r="G1538">
         <v>1.4</v>
       </c>
       <c r="H1538" s="1">
@@ -62135,7 +62315,7 @@
       <c r="A1539" t="s">
         <v>2796</v>
       </c>
-      <c r="B1539" s="2" t="s">
+      <c r="B1539" t="s">
         <v>550</v>
       </c>
       <c r="C1539" t="s">
@@ -62150,7 +62330,7 @@
       <c r="F1539">
         <v>1</v>
       </c>
-      <c r="G1539" s="2">
+      <c r="G1539">
         <v>0.6</v>
       </c>
       <c r="H1539" s="1">
@@ -62170,7 +62350,7 @@
       <c r="A1540" t="s">
         <v>2798</v>
       </c>
-      <c r="B1540" s="2" t="s">
+      <c r="B1540" t="s">
         <v>550</v>
       </c>
       <c r="C1540" t="s">
@@ -62185,7 +62365,7 @@
       <c r="F1540">
         <v>1</v>
       </c>
-      <c r="G1540" s="2">
+      <c r="G1540">
         <v>1.5</v>
       </c>
       <c r="H1540" s="1">
@@ -62205,7 +62385,7 @@
       <c r="A1541" t="s">
         <v>2800</v>
       </c>
-      <c r="B1541" s="2" t="s">
+      <c r="B1541" t="s">
         <v>550</v>
       </c>
       <c r="C1541" t="s">
@@ -62220,7 +62400,7 @@
       <c r="F1541">
         <v>1</v>
       </c>
-      <c r="G1541" s="2">
+      <c r="G1541">
         <v>6</v>
       </c>
       <c r="H1541" s="1">
@@ -62240,7 +62420,7 @@
       <c r="A1542" t="s">
         <v>2803</v>
       </c>
-      <c r="B1542" s="2" t="s">
+      <c r="B1542" t="s">
         <v>1117</v>
       </c>
       <c r="C1542" t="s">
@@ -62255,7 +62435,7 @@
       <c r="F1542">
         <v>1</v>
       </c>
-      <c r="G1542" s="2">
+      <c r="G1542">
         <v>2.5</v>
       </c>
       <c r="H1542" s="1">
@@ -62275,7 +62455,7 @@
       <c r="A1543" t="s">
         <v>2805</v>
       </c>
-      <c r="B1543" s="2" t="s">
+      <c r="B1543" t="s">
         <v>550</v>
       </c>
       <c r="C1543" t="s">
@@ -62290,7 +62470,7 @@
       <c r="F1543">
         <v>1</v>
       </c>
-      <c r="G1543" s="2">
+      <c r="G1543">
         <v>8</v>
       </c>
       <c r="H1543" s="1">
@@ -62310,7 +62490,7 @@
       <c r="A1544" t="s">
         <v>2807</v>
       </c>
-      <c r="B1544" s="2" t="s">
+      <c r="B1544" t="s">
         <v>550</v>
       </c>
       <c r="C1544" t="s">
@@ -62325,7 +62505,7 @@
       <c r="F1544">
         <v>1</v>
       </c>
-      <c r="G1544" s="2">
+      <c r="G1544">
         <v>3.6</v>
       </c>
       <c r="H1544" s="1">
@@ -62345,7 +62525,7 @@
       <c r="A1545" t="s">
         <v>2809</v>
       </c>
-      <c r="B1545" s="2" t="s">
+      <c r="B1545" t="s">
         <v>550</v>
       </c>
       <c r="C1545" t="s">
@@ -62360,7 +62540,7 @@
       <c r="F1545">
         <v>1</v>
       </c>
-      <c r="G1545" s="2">
+      <c r="G1545">
         <v>1</v>
       </c>
       <c r="H1545" s="1">
@@ -62380,7 +62560,7 @@
       <c r="A1546" t="s">
         <v>2811</v>
       </c>
-      <c r="B1546" s="2" t="s">
+      <c r="B1546" t="s">
         <v>550</v>
       </c>
       <c r="C1546" t="s">
@@ -62395,7 +62575,7 @@
       <c r="F1546">
         <v>1</v>
       </c>
-      <c r="G1546" s="2">
+      <c r="G1546">
         <v>1</v>
       </c>
       <c r="H1546" s="1">
@@ -62415,7 +62595,7 @@
       <c r="A1547" t="s">
         <v>2812</v>
       </c>
-      <c r="B1547" s="2" t="s">
+      <c r="B1547" t="s">
         <v>550</v>
       </c>
       <c r="C1547" t="s">
@@ -62430,7 +62610,7 @@
       <c r="F1547">
         <v>1</v>
       </c>
-      <c r="G1547" s="2">
+      <c r="G1547">
         <v>1.4</v>
       </c>
       <c r="H1547" s="1">
@@ -62450,7 +62630,7 @@
       <c r="A1548" t="s">
         <v>2814</v>
       </c>
-      <c r="B1548" s="2" t="s">
+      <c r="B1548" t="s">
         <v>550</v>
       </c>
       <c r="C1548" t="s">
@@ -62465,7 +62645,7 @@
       <c r="F1548">
         <v>1</v>
       </c>
-      <c r="G1548" s="2">
+      <c r="G1548">
         <v>3.5</v>
       </c>
       <c r="H1548" s="1">
@@ -62485,7 +62665,7 @@
       <c r="A1549" t="s">
         <v>2816</v>
       </c>
-      <c r="B1549" s="2" t="s">
+      <c r="B1549" t="s">
         <v>550</v>
       </c>
       <c r="C1549" t="s">
@@ -62500,7 +62680,7 @@
       <c r="F1549">
         <v>1</v>
       </c>
-      <c r="G1549" s="2">
+      <c r="G1549">
         <v>1.2</v>
       </c>
       <c r="H1549" s="1">
@@ -62520,7 +62700,7 @@
       <c r="A1550" t="s">
         <v>2817</v>
       </c>
-      <c r="B1550" s="2" t="s">
+      <c r="B1550" t="s">
         <v>550</v>
       </c>
       <c r="C1550" t="s">
@@ -62535,7 +62715,7 @@
       <c r="F1550">
         <v>1</v>
       </c>
-      <c r="G1550" s="2">
+      <c r="G1550">
         <v>2.8</v>
       </c>
       <c r="H1550" s="1">
@@ -62555,7 +62735,7 @@
       <c r="A1551" t="s">
         <v>2819</v>
       </c>
-      <c r="B1551" s="2" t="s">
+      <c r="B1551" t="s">
         <v>550</v>
       </c>
       <c r="C1551" t="s">
@@ -62564,7 +62744,7 @@
       <c r="D1551" t="s">
         <v>1702</v>
       </c>
-      <c r="G1551" s="2">
+      <c r="G1551">
         <v>0</v>
       </c>
       <c r="H1551" s="1">
@@ -62584,7 +62764,7 @@
       <c r="A1552" t="s">
         <v>2821</v>
       </c>
-      <c r="B1552" s="2" t="s">
+      <c r="B1552" t="s">
         <v>550</v>
       </c>
       <c r="C1552" t="s">
@@ -62593,7 +62773,7 @@
       <c r="D1552" t="s">
         <v>1756</v>
       </c>
-      <c r="G1552" s="2">
+      <c r="G1552">
         <v>0</v>
       </c>
       <c r="H1552" s="1">
@@ -62613,7 +62793,7 @@
       <c r="A1553" t="s">
         <v>2822</v>
       </c>
-      <c r="B1553" s="2" t="s">
+      <c r="B1553" t="s">
         <v>550</v>
       </c>
       <c r="C1553" t="s">
@@ -62622,7 +62802,7 @@
       <c r="D1553" t="s">
         <v>2126</v>
       </c>
-      <c r="G1553" s="2">
+      <c r="G1553">
         <v>0</v>
       </c>
       <c r="H1553" s="1">
@@ -62642,7 +62822,7 @@
       <c r="A1554" t="s">
         <v>2823</v>
       </c>
-      <c r="B1554" s="2" t="s">
+      <c r="B1554" t="s">
         <v>550</v>
       </c>
       <c r="C1554" t="s">
@@ -62651,7 +62831,7 @@
       <c r="D1554" t="s">
         <v>2824</v>
       </c>
-      <c r="G1554" s="2">
+      <c r="G1554">
         <v>0</v>
       </c>
       <c r="H1554" s="1">
@@ -62671,7 +62851,7 @@
       <c r="A1555" t="s">
         <v>2825</v>
       </c>
-      <c r="B1555" s="2" t="s">
+      <c r="B1555" t="s">
         <v>550</v>
       </c>
       <c r="C1555" t="s">
@@ -62686,7 +62866,7 @@
       <c r="F1555">
         <v>0</v>
       </c>
-      <c r="G1555" s="2">
+      <c r="G1555">
         <v>0</v>
       </c>
       <c r="H1555" s="1">
@@ -62706,7 +62886,7 @@
       <c r="A1556" t="s">
         <v>2826</v>
       </c>
-      <c r="B1556" s="2" t="s">
+      <c r="B1556" t="s">
         <v>550</v>
       </c>
       <c r="C1556" t="s">
@@ -62721,7 +62901,7 @@
       <c r="F1556">
         <v>0</v>
       </c>
-      <c r="G1556" s="2">
+      <c r="G1556">
         <v>0</v>
       </c>
       <c r="H1556" s="1">
@@ -62741,7 +62921,7 @@
       <c r="A1557" t="s">
         <v>2828</v>
       </c>
-      <c r="B1557" s="2" t="s">
+      <c r="B1557" t="s">
         <v>550</v>
       </c>
       <c r="C1557" t="s">
@@ -62756,7 +62936,7 @@
       <c r="F1557">
         <v>0</v>
       </c>
-      <c r="G1557" s="2">
+      <c r="G1557">
         <v>0</v>
       </c>
       <c r="H1557" s="1">
@@ -62776,7 +62956,7 @@
       <c r="A1558" t="s">
         <v>2829</v>
       </c>
-      <c r="B1558" s="2" t="s">
+      <c r="B1558" t="s">
         <v>550</v>
       </c>
       <c r="C1558" t="s">
@@ -62791,7 +62971,7 @@
       <c r="F1558">
         <v>0</v>
       </c>
-      <c r="G1558" s="2">
+      <c r="G1558">
         <v>0</v>
       </c>
       <c r="H1558" s="1">
@@ -62811,7 +62991,7 @@
       <c r="A1559" t="s">
         <v>2830</v>
       </c>
-      <c r="B1559" s="2" t="s">
+      <c r="B1559" t="s">
         <v>550</v>
       </c>
       <c r="C1559" t="s">
@@ -62826,7 +63006,7 @@
       <c r="F1559">
         <v>0</v>
       </c>
-      <c r="G1559" s="2">
+      <c r="G1559">
         <v>0</v>
       </c>
       <c r="H1559" s="1">
@@ -62840,6 +63020,1196 @@
       </c>
       <c r="K1559">
         <v>32</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B1560" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1560">
+        <v>2.7</v>
+      </c>
+      <c r="F1560">
+        <v>1</v>
+      </c>
+      <c r="G1560" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="H1560" s="1">
+        <v>45517</v>
+      </c>
+      <c r="I1560" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1560" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1560">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B1561" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E1561">
+        <v>0.9</v>
+      </c>
+      <c r="F1561">
+        <v>1</v>
+      </c>
+      <c r="G1561" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1561" s="1">
+        <v>45517</v>
+      </c>
+      <c r="I1561" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1561" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1561">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B1562" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E1562">
+        <v>1</v>
+      </c>
+      <c r="F1562">
+        <v>1</v>
+      </c>
+      <c r="G1562" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1562" s="1">
+        <v>45517</v>
+      </c>
+      <c r="I1562" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1562" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1562">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B1563" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>2837</v>
+      </c>
+      <c r="E1563">
+        <v>0.5</v>
+      </c>
+      <c r="F1563">
+        <v>1</v>
+      </c>
+      <c r="G1563" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1563" s="1">
+        <v>45517</v>
+      </c>
+      <c r="I1563" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1563" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1563">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1564" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1564">
+        <v>0.5</v>
+      </c>
+      <c r="F1564">
+        <v>1</v>
+      </c>
+      <c r="G1564" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1564" s="1">
+        <v>45517</v>
+      </c>
+      <c r="I1564" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1564" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1564">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B1565" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E1565">
+        <v>0.5</v>
+      </c>
+      <c r="F1565">
+        <v>1</v>
+      </c>
+      <c r="G1565" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1565" s="1">
+        <v>45517</v>
+      </c>
+      <c r="I1565" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1565" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1565">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B1566" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1566">
+        <v>0.5</v>
+      </c>
+      <c r="F1566">
+        <v>1</v>
+      </c>
+      <c r="G1566" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1566" s="1">
+        <v>45517</v>
+      </c>
+      <c r="I1566" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1566" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1566">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B1567" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E1567">
+        <v>0.5</v>
+      </c>
+      <c r="F1567">
+        <v>1</v>
+      </c>
+      <c r="G1567" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1567" s="1">
+        <v>45517</v>
+      </c>
+      <c r="I1567" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1567" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1567">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1568" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E1568">
+        <v>0.5</v>
+      </c>
+      <c r="F1568">
+        <v>1</v>
+      </c>
+      <c r="G1568" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1568" s="1">
+        <v>45517</v>
+      </c>
+      <c r="I1568" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1568" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1568">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B1569" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E1569">
+        <v>1.5</v>
+      </c>
+      <c r="F1569">
+        <v>1</v>
+      </c>
+      <c r="G1569" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1569" s="1">
+        <v>45517</v>
+      </c>
+      <c r="I1569" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1569" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1569">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B1570" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E1570">
+        <v>0.7</v>
+      </c>
+      <c r="F1570">
+        <v>1</v>
+      </c>
+      <c r="G1570" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H1570" s="1">
+        <v>45517</v>
+      </c>
+      <c r="I1570" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1570" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1570">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B1571" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E1571">
+        <v>2.9</v>
+      </c>
+      <c r="F1571">
+        <v>1</v>
+      </c>
+      <c r="G1571" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="H1571" s="1">
+        <v>45518</v>
+      </c>
+      <c r="I1571" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1571" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1571">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B1572" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E1572">
+        <v>24.1</v>
+      </c>
+      <c r="F1572">
+        <v>1</v>
+      </c>
+      <c r="G1572" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="H1572" s="1">
+        <v>45518</v>
+      </c>
+      <c r="I1572" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1572" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1572">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B1573" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E1573">
+        <v>1.8</v>
+      </c>
+      <c r="F1573">
+        <v>1</v>
+      </c>
+      <c r="G1573" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H1573" s="1">
+        <v>45518</v>
+      </c>
+      <c r="I1573" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1573" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1573">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B1574" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E1574">
+        <v>1.5</v>
+      </c>
+      <c r="F1574">
+        <v>1</v>
+      </c>
+      <c r="G1574" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1574" s="1">
+        <v>45518</v>
+      </c>
+      <c r="I1574" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1574" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1574">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B1575" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>996</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>2858</v>
+      </c>
+      <c r="E1575">
+        <v>0.5</v>
+      </c>
+      <c r="F1575">
+        <v>1</v>
+      </c>
+      <c r="G1575" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1575" s="1">
+        <v>45518</v>
+      </c>
+      <c r="I1575" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1575" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1575">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B1576" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E1576">
+        <v>8</v>
+      </c>
+      <c r="F1576">
+        <v>1</v>
+      </c>
+      <c r="G1576" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1576" s="1">
+        <v>45519</v>
+      </c>
+      <c r="I1576" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1576" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1576">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B1577" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1577">
+        <v>8.5</v>
+      </c>
+      <c r="F1577">
+        <v>1</v>
+      </c>
+      <c r="G1577" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="H1577" s="1">
+        <v>45519</v>
+      </c>
+      <c r="I1577" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1577" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1577">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B1578" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E1578">
+        <v>3.5</v>
+      </c>
+      <c r="F1578">
+        <v>1</v>
+      </c>
+      <c r="G1578" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H1578" s="1">
+        <v>45519</v>
+      </c>
+      <c r="I1578" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1578" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1578">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B1579" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E1579">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1579">
+        <v>1</v>
+      </c>
+      <c r="G1579" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1579" s="1">
+        <v>45519</v>
+      </c>
+      <c r="I1579" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1579" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1579">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1580" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E1580">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F1580">
+        <v>1</v>
+      </c>
+      <c r="G1580" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H1580" s="1">
+        <v>45519</v>
+      </c>
+      <c r="I1580" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1580" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1580">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B1581" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>2868</v>
+      </c>
+      <c r="E1581">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1581">
+        <v>1</v>
+      </c>
+      <c r="G1581" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1581" s="1">
+        <v>45519</v>
+      </c>
+      <c r="I1581" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1581" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1581">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B1582" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>2870</v>
+      </c>
+      <c r="E1582">
+        <v>1</v>
+      </c>
+      <c r="F1582">
+        <v>1</v>
+      </c>
+      <c r="G1582" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1582" s="1">
+        <v>45519</v>
+      </c>
+      <c r="I1582" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1582" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1582">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B1583" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1583">
+        <v>2.5</v>
+      </c>
+      <c r="F1583">
+        <v>2</v>
+      </c>
+      <c r="G1583" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H1583" s="1">
+        <v>45519</v>
+      </c>
+      <c r="I1583" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1583" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1583">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B1584" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>2874</v>
+      </c>
+      <c r="E1584">
+        <v>1</v>
+      </c>
+      <c r="F1584">
+        <v>2</v>
+      </c>
+      <c r="G1584" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1584" s="1">
+        <v>45519</v>
+      </c>
+      <c r="I1584" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1584" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1584">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B1585" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>2876</v>
+      </c>
+      <c r="E1585">
+        <v>4.8</v>
+      </c>
+      <c r="F1585">
+        <v>1</v>
+      </c>
+      <c r="G1585" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="H1585" s="1">
+        <v>45519</v>
+      </c>
+      <c r="I1585" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1585" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1585">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B1586" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E1586">
+        <v>3</v>
+      </c>
+      <c r="F1586">
+        <v>1</v>
+      </c>
+      <c r="G1586" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1586" s="1">
+        <v>45520</v>
+      </c>
+      <c r="I1586" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1586" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1586">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B1587" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>2880</v>
+      </c>
+      <c r="E1587">
+        <v>2.5</v>
+      </c>
+      <c r="F1587">
+        <v>1</v>
+      </c>
+      <c r="G1587" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H1587" s="1">
+        <v>45520</v>
+      </c>
+      <c r="I1587" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1587" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1587">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B1588" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E1588">
+        <v>4.5</v>
+      </c>
+      <c r="F1588">
+        <v>1</v>
+      </c>
+      <c r="G1588" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H1588" s="1">
+        <v>45520</v>
+      </c>
+      <c r="I1588" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1588" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1588">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B1589" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E1589">
+        <v>1.8</v>
+      </c>
+      <c r="F1589">
+        <v>1</v>
+      </c>
+      <c r="G1589" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H1589" s="1">
+        <v>45520</v>
+      </c>
+      <c r="I1589" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1589" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1589">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B1590" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E1590">
+        <v>3.2</v>
+      </c>
+      <c r="F1590">
+        <v>1</v>
+      </c>
+      <c r="G1590" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="H1590" s="1">
+        <v>45520</v>
+      </c>
+      <c r="I1590" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1590" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1590">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B1591" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E1591">
+        <v>1.3</v>
+      </c>
+      <c r="F1591">
+        <v>1</v>
+      </c>
+      <c r="G1591" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H1591" s="1">
+        <v>45520</v>
+      </c>
+      <c r="I1591" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1591" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1591">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B1592" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>2889</v>
+      </c>
+      <c r="E1592">
+        <v>0.9</v>
+      </c>
+      <c r="F1592">
+        <v>1</v>
+      </c>
+      <c r="G1592" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1592" s="1">
+        <v>45521</v>
+      </c>
+      <c r="I1592" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1592" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1592">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B1593" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1593">
+        <v>7.2</v>
+      </c>
+      <c r="F1593">
+        <v>1</v>
+      </c>
+      <c r="G1593" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H1593" s="1">
+        <v>45521</v>
+      </c>
+      <c r="I1593" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1593" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1593">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/produccion.xlsx
+++ b/datasets/produccion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3FF593-49E3-48DC-9F1A-EC303E6F847F}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A050E7E5-2CE7-4FF0-9AFE-45884F999345}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B4B7E62A-ACE4-488F-B31E-63058BE35439}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9436" uniqueCount="2967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9940" uniqueCount="3086">
   <si>
     <t>COD</t>
   </si>
@@ -8937,6 +8937,363 @@
   </si>
   <si>
     <t>Closet 2 Rec Ppal</t>
+  </si>
+  <si>
+    <t>1;45530;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA A1, A2, A3</t>
+  </si>
+  <si>
+    <t>6MDB</t>
+  </si>
+  <si>
+    <t>2;45530;Entregables</t>
+  </si>
+  <si>
+    <t>1;45530;Extras</t>
+  </si>
+  <si>
+    <t>ANDANA.</t>
+  </si>
+  <si>
+    <t>2;45530;Extras</t>
+  </si>
+  <si>
+    <t>VISTA VERDE.</t>
+  </si>
+  <si>
+    <t>Cargadores</t>
+  </si>
+  <si>
+    <t>3;45530;Extras</t>
+  </si>
+  <si>
+    <t>Pergolado l-</t>
+  </si>
+  <si>
+    <t>4;45530;Extras</t>
+  </si>
+  <si>
+    <t>Lockers</t>
+  </si>
+  <si>
+    <t>5;45530;Extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puertas </t>
+  </si>
+  <si>
+    <t>6;45530;Extras</t>
+  </si>
+  <si>
+    <t>7;45530;Extras</t>
+  </si>
+  <si>
+    <t>Tiras</t>
+  </si>
+  <si>
+    <t>8;45530;Extras</t>
+  </si>
+  <si>
+    <t>1;45530;Retrabajos</t>
+  </si>
+  <si>
+    <t>2;45530;Retrabajos</t>
+  </si>
+  <si>
+    <t>3;45530;Retrabajos</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>4;45530;Retrabajos</t>
+  </si>
+  <si>
+    <t>HERCOM 203</t>
+  </si>
+  <si>
+    <t>1;45531;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA A3</t>
+  </si>
+  <si>
+    <t>Barra Cocina</t>
+  </si>
+  <si>
+    <t>2;45531;Entregables</t>
+  </si>
+  <si>
+    <t>VERONESA C5 PA</t>
+  </si>
+  <si>
+    <t>3;45531;Entregables</t>
+  </si>
+  <si>
+    <t>4;45531;Entregables</t>
+  </si>
+  <si>
+    <t>5;45531;Entregables</t>
+  </si>
+  <si>
+    <t>6;45531;Entregables</t>
+  </si>
+  <si>
+    <t>Closet 02 Ppal</t>
+  </si>
+  <si>
+    <t>1;45532;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA A4</t>
+  </si>
+  <si>
+    <t>1 Barra Cocina</t>
+  </si>
+  <si>
+    <t>2;45532;Entregables</t>
+  </si>
+  <si>
+    <t>1Forrado Mocheta</t>
+  </si>
+  <si>
+    <t>3;45532;Entregables</t>
+  </si>
+  <si>
+    <t>4;45532;Entregables</t>
+  </si>
+  <si>
+    <t>5;45532;Entregables</t>
+  </si>
+  <si>
+    <t>6;45532;Entregables</t>
+  </si>
+  <si>
+    <t>CRISTINA BARBA</t>
+  </si>
+  <si>
+    <t>1;45533;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA A5</t>
+  </si>
+  <si>
+    <t>2;45533;Entregables</t>
+  </si>
+  <si>
+    <t>CARLOS VILLICAÑA</t>
+  </si>
+  <si>
+    <t>9P Inter</t>
+  </si>
+  <si>
+    <t>3;45533;Entregables</t>
+  </si>
+  <si>
+    <t>2P Inter+Fijos</t>
+  </si>
+  <si>
+    <t>4;45533;Entregables</t>
+  </si>
+  <si>
+    <t>1;45534;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA A6</t>
+  </si>
+  <si>
+    <t>2;45534;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA BILBAO 6DEP</t>
+  </si>
+  <si>
+    <t>48P Closet</t>
+  </si>
+  <si>
+    <t>3;45534;Entregables</t>
+  </si>
+  <si>
+    <t>DESPACHO GM</t>
+  </si>
+  <si>
+    <t>Credenza-Sala</t>
+  </si>
+  <si>
+    <t>4;45534;Entregables</t>
+  </si>
+  <si>
+    <t>Escritorio Oficina</t>
+  </si>
+  <si>
+    <t>5;45534;Entregables</t>
+  </si>
+  <si>
+    <t>MDB</t>
+  </si>
+  <si>
+    <t>6;45534;Entregables</t>
+  </si>
+  <si>
+    <t>1;45535;Entregables</t>
+  </si>
+  <si>
+    <t>CENTRO CAPITAL</t>
+  </si>
+  <si>
+    <t>Hidden Bar</t>
+  </si>
+  <si>
+    <t>2;45535;Entregables</t>
+  </si>
+  <si>
+    <t>3;45535;Entregables</t>
+  </si>
+  <si>
+    <t>4;45535;Entregables</t>
+  </si>
+  <si>
+    <t>CASA MTA</t>
+  </si>
+  <si>
+    <t>5;45535;Entregables</t>
+  </si>
+  <si>
+    <t>Librero-Escritorio</t>
+  </si>
+  <si>
+    <t>6;45535;Entregables</t>
+  </si>
+  <si>
+    <t>Credenza1/2</t>
+  </si>
+  <si>
+    <t>1;45537;Entregables</t>
+  </si>
+  <si>
+    <t>2;45537;Entregables</t>
+  </si>
+  <si>
+    <t>1;45537;Extras</t>
+  </si>
+  <si>
+    <t>2;45537;Extras</t>
+  </si>
+  <si>
+    <t>3;45537;Extras</t>
+  </si>
+  <si>
+    <t>4;45537;Extras</t>
+  </si>
+  <si>
+    <t>5;45537;Extras</t>
+  </si>
+  <si>
+    <t>6;45537;Extras</t>
+  </si>
+  <si>
+    <t>7;45537;Extras</t>
+  </si>
+  <si>
+    <t>8;45537;Extras</t>
+  </si>
+  <si>
+    <t>1;45537;Retrabajos</t>
+  </si>
+  <si>
+    <t>2;45537;Retrabajos</t>
+  </si>
+  <si>
+    <t>3;45537;Retrabajos</t>
+  </si>
+  <si>
+    <t>4;45537;Retrabajos</t>
+  </si>
+  <si>
+    <t>1;45538;Entregables</t>
+  </si>
+  <si>
+    <t>2;45538;Entregables</t>
+  </si>
+  <si>
+    <t>3;45538;Entregables</t>
+  </si>
+  <si>
+    <t>4;45538;Entregables</t>
+  </si>
+  <si>
+    <t>5;45538;Entregables</t>
+  </si>
+  <si>
+    <t>6;45538;Entregables</t>
+  </si>
+  <si>
+    <t>1;45539;Entregables</t>
+  </si>
+  <si>
+    <t>2;45539;Entregables</t>
+  </si>
+  <si>
+    <t>3;45539;Entregables</t>
+  </si>
+  <si>
+    <t>4;45539;Entregables</t>
+  </si>
+  <si>
+    <t>5;45539;Entregables</t>
+  </si>
+  <si>
+    <t>6;45539;Entregables</t>
+  </si>
+  <si>
+    <t>1;45540;Entregables</t>
+  </si>
+  <si>
+    <t>2;45540;Entregables</t>
+  </si>
+  <si>
+    <t>3;45540;Entregables</t>
+  </si>
+  <si>
+    <t>4;45540;Entregables</t>
+  </si>
+  <si>
+    <t>1;45541;Entregables</t>
+  </si>
+  <si>
+    <t>2;45541;Entregables</t>
+  </si>
+  <si>
+    <t>3;45541;Entregables</t>
+  </si>
+  <si>
+    <t>4;45541;Entregables</t>
+  </si>
+  <si>
+    <t>5;45541;Entregables</t>
+  </si>
+  <si>
+    <t>6;45541;Entregables</t>
+  </si>
+  <si>
+    <t>1;45542;Entregables</t>
+  </si>
+  <si>
+    <t>2;45542;Entregables</t>
+  </si>
+  <si>
+    <t>3;45542;Entregables</t>
+  </si>
+  <si>
+    <t>4;45542;Entregables</t>
+  </si>
+  <si>
+    <t>5;45542;Entregables</t>
+  </si>
+  <si>
+    <t>6;45542;Entregables</t>
   </si>
 </sst>
 </file>
@@ -9003,9 +9360,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1633" totalsRowShown="0">
-  <autoFilter ref="A1:K1633" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1717" totalsRowShown="0">
+  <autoFilter ref="A1:K1717" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B6ECC9CA-BE29-4C5B-9606-01CFB697A054}" name="COD"/>
     <tableColumn id="2" xr3:uid="{C7D7DD62-79C4-4423-B87E-1408D1237598}" name="CTVV" dataDxfId="2"/>
@@ -9340,10 +9701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEF2190-C283-43C9-B0E2-E2F3DD6D60C6}">
-  <dimension ref="A1:K1633"/>
+  <dimension ref="A1:K1717"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1574" workbookViewId="0">
-      <selection activeCell="F1589" sqref="F1589"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1691" workbookViewId="0">
+      <selection activeCell="I1702" sqref="I1702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -64440,7 +64801,7 @@
       <c r="A1594" t="s">
         <v>2891</v>
       </c>
-      <c r="B1594" s="2" t="s">
+      <c r="B1594" t="s">
         <v>1507</v>
       </c>
       <c r="C1594" t="s">
@@ -64455,7 +64816,7 @@
       <c r="F1594">
         <v>1</v>
       </c>
-      <c r="G1594" s="2">
+      <c r="G1594">
         <v>1.5</v>
       </c>
       <c r="H1594" s="1">
@@ -64475,7 +64836,7 @@
       <c r="A1595" t="s">
         <v>2893</v>
       </c>
-      <c r="B1595" s="2" t="s">
+      <c r="B1595" t="s">
         <v>550</v>
       </c>
       <c r="C1595" t="s">
@@ -64490,7 +64851,7 @@
       <c r="F1595">
         <v>1</v>
       </c>
-      <c r="G1595" s="2">
+      <c r="G1595">
         <v>2.5</v>
       </c>
       <c r="H1595" s="1">
@@ -64510,7 +64871,7 @@
       <c r="A1596" t="s">
         <v>2894</v>
       </c>
-      <c r="B1596" s="2" t="s">
+      <c r="B1596" t="s">
         <v>550</v>
       </c>
       <c r="C1596" t="s">
@@ -64525,7 +64886,7 @@
       <c r="F1596">
         <v>1</v>
       </c>
-      <c r="G1596" s="2">
+      <c r="G1596">
         <v>2</v>
       </c>
       <c r="H1596" s="1">
@@ -64545,7 +64906,7 @@
       <c r="A1597" t="s">
         <v>2896</v>
       </c>
-      <c r="B1597" s="2" t="s">
+      <c r="B1597" t="s">
         <v>550</v>
       </c>
       <c r="C1597" t="s">
@@ -64560,7 +64921,7 @@
       <c r="F1597">
         <v>1</v>
       </c>
-      <c r="G1597" s="2">
+      <c r="G1597">
         <v>0.2</v>
       </c>
       <c r="H1597" s="1">
@@ -64580,7 +64941,7 @@
       <c r="A1598" t="s">
         <v>2898</v>
       </c>
-      <c r="B1598" s="2" t="s">
+      <c r="B1598" t="s">
         <v>550</v>
       </c>
       <c r="C1598" t="s">
@@ -64595,7 +64956,7 @@
       <c r="F1598">
         <v>1</v>
       </c>
-      <c r="G1598" s="2">
+      <c r="G1598">
         <v>1.5</v>
       </c>
       <c r="H1598" s="1">
@@ -64615,7 +64976,7 @@
       <c r="A1599" t="s">
         <v>2900</v>
       </c>
-      <c r="B1599" s="2" t="s">
+      <c r="B1599" t="s">
         <v>550</v>
       </c>
       <c r="C1599" t="s">
@@ -64630,7 +64991,7 @@
       <c r="F1599">
         <v>1</v>
       </c>
-      <c r="G1599" s="2">
+      <c r="G1599">
         <v>1.5</v>
       </c>
       <c r="H1599" s="1">
@@ -64650,7 +65011,7 @@
       <c r="A1600" t="s">
         <v>2902</v>
       </c>
-      <c r="B1600" s="2" t="s">
+      <c r="B1600" t="s">
         <v>550</v>
       </c>
       <c r="C1600" t="s">
@@ -64665,7 +65026,7 @@
       <c r="F1600">
         <v>1</v>
       </c>
-      <c r="G1600" s="2">
+      <c r="G1600">
         <v>0.5</v>
       </c>
       <c r="H1600" s="1">
@@ -64685,7 +65046,7 @@
       <c r="A1601" t="s">
         <v>2905</v>
       </c>
-      <c r="B1601" s="2" t="s">
+      <c r="B1601" t="s">
         <v>550</v>
       </c>
       <c r="C1601" t="s">
@@ -64700,7 +65061,7 @@
       <c r="F1601">
         <v>1</v>
       </c>
-      <c r="G1601" s="2">
+      <c r="G1601">
         <v>0.9</v>
       </c>
       <c r="H1601" s="1">
@@ -64720,7 +65081,7 @@
       <c r="A1602" t="s">
         <v>2906</v>
       </c>
-      <c r="B1602" s="2" t="s">
+      <c r="B1602" t="s">
         <v>550</v>
       </c>
       <c r="C1602" t="s">
@@ -64735,7 +65096,7 @@
       <c r="F1602">
         <v>1</v>
       </c>
-      <c r="G1602" s="2">
+      <c r="G1602">
         <v>0.4</v>
       </c>
       <c r="H1602" s="1">
@@ -64755,7 +65116,7 @@
       <c r="A1603" t="s">
         <v>2909</v>
       </c>
-      <c r="B1603" s="2" t="s">
+      <c r="B1603" t="s">
         <v>550</v>
       </c>
       <c r="C1603" t="s">
@@ -64770,7 +65131,7 @@
       <c r="F1603">
         <v>1</v>
       </c>
-      <c r="G1603" s="2">
+      <c r="G1603">
         <v>17.399999999999999</v>
       </c>
       <c r="H1603" s="1">
@@ -64790,7 +65151,7 @@
       <c r="A1604" t="s">
         <v>2912</v>
       </c>
-      <c r="B1604" s="2" t="s">
+      <c r="B1604" t="s">
         <v>550</v>
       </c>
       <c r="C1604" t="s">
@@ -64805,7 +65166,7 @@
       <c r="F1604">
         <v>1</v>
       </c>
-      <c r="G1604" s="2">
+      <c r="G1604">
         <v>1</v>
       </c>
       <c r="H1604" s="1">
@@ -64825,7 +65186,7 @@
       <c r="A1605" t="s">
         <v>2913</v>
       </c>
-      <c r="B1605" s="2" t="s">
+      <c r="B1605" t="s">
         <v>550</v>
       </c>
       <c r="C1605" t="s">
@@ -64840,7 +65201,7 @@
       <c r="F1605">
         <v>1</v>
       </c>
-      <c r="G1605" s="2">
+      <c r="G1605">
         <v>0.5</v>
       </c>
       <c r="H1605" s="1">
@@ -64860,7 +65221,7 @@
       <c r="A1606" t="s">
         <v>2915</v>
       </c>
-      <c r="B1606" s="2" t="s">
+      <c r="B1606" t="s">
         <v>550</v>
       </c>
       <c r="C1606" t="s">
@@ -64875,7 +65236,7 @@
       <c r="F1606">
         <v>1</v>
       </c>
-      <c r="G1606" s="2">
+      <c r="G1606">
         <v>0.5</v>
       </c>
       <c r="H1606" s="1">
@@ -64895,7 +65256,7 @@
       <c r="A1607" t="s">
         <v>2917</v>
       </c>
-      <c r="B1607" s="2" t="s">
+      <c r="B1607" t="s">
         <v>550</v>
       </c>
       <c r="C1607" t="s">
@@ -64910,7 +65271,7 @@
       <c r="F1607">
         <v>1</v>
       </c>
-      <c r="G1607" s="2">
+      <c r="G1607">
         <v>1.5</v>
       </c>
       <c r="H1607" s="1">
@@ -64930,7 +65291,7 @@
       <c r="A1608" t="s">
         <v>2920</v>
       </c>
-      <c r="B1608" s="2" t="s">
+      <c r="B1608" t="s">
         <v>550</v>
       </c>
       <c r="C1608" t="s">
@@ -64945,7 +65306,7 @@
       <c r="F1608">
         <v>1</v>
       </c>
-      <c r="G1608" s="2">
+      <c r="G1608">
         <v>2</v>
       </c>
       <c r="H1608" s="1">
@@ -64965,7 +65326,7 @@
       <c r="A1609" t="s">
         <v>2921</v>
       </c>
-      <c r="B1609" s="2" t="s">
+      <c r="B1609" t="s">
         <v>550</v>
       </c>
       <c r="C1609" t="s">
@@ -64980,7 +65341,7 @@
       <c r="F1609">
         <v>1</v>
       </c>
-      <c r="G1609" s="2">
+      <c r="G1609">
         <v>0.4</v>
       </c>
       <c r="H1609" s="1">
@@ -65000,7 +65361,7 @@
       <c r="A1610" t="s">
         <v>2923</v>
       </c>
-      <c r="B1610" s="2" t="s">
+      <c r="B1610" t="s">
         <v>550</v>
       </c>
       <c r="C1610" t="s">
@@ -65015,7 +65376,7 @@
       <c r="F1610">
         <v>1</v>
       </c>
-      <c r="G1610" s="2">
+      <c r="G1610">
         <v>6.9</v>
       </c>
       <c r="H1610" s="1">
@@ -65035,7 +65396,7 @@
       <c r="A1611" t="s">
         <v>2925</v>
       </c>
-      <c r="B1611" s="2" t="s">
+      <c r="B1611" t="s">
         <v>550</v>
       </c>
       <c r="C1611" t="s">
@@ -65050,7 +65411,7 @@
       <c r="F1611">
         <v>1</v>
       </c>
-      <c r="G1611" s="2">
+      <c r="G1611">
         <v>6.9</v>
       </c>
       <c r="H1611" s="1">
@@ -65070,7 +65431,7 @@
       <c r="A1612" t="s">
         <v>2926</v>
       </c>
-      <c r="B1612" s="2" t="s">
+      <c r="B1612" t="s">
         <v>550</v>
       </c>
       <c r="C1612" t="s">
@@ -65085,7 +65446,7 @@
       <c r="F1612">
         <v>1</v>
       </c>
-      <c r="G1612" s="2">
+      <c r="G1612">
         <v>17.399999999999999</v>
       </c>
       <c r="H1612" s="1">
@@ -65105,7 +65466,7 @@
       <c r="A1613" t="s">
         <v>2929</v>
       </c>
-      <c r="B1613" s="2" t="s">
+      <c r="B1613" t="s">
         <v>550</v>
       </c>
       <c r="C1613" t="s">
@@ -65120,7 +65481,7 @@
       <c r="F1613">
         <v>1</v>
       </c>
-      <c r="G1613" s="2">
+      <c r="G1613">
         <v>6.9</v>
       </c>
       <c r="H1613" s="1">
@@ -65140,7 +65501,7 @@
       <c r="A1614" t="s">
         <v>2930</v>
       </c>
-      <c r="B1614" s="2" t="s">
+      <c r="B1614" t="s">
         <v>550</v>
       </c>
       <c r="C1614" t="s">
@@ -65155,7 +65516,7 @@
       <c r="F1614">
         <v>1</v>
       </c>
-      <c r="G1614" s="2">
+      <c r="G1614">
         <v>6.9</v>
       </c>
       <c r="H1614" s="1">
@@ -65175,7 +65536,7 @@
       <c r="A1615" t="s">
         <v>2931</v>
       </c>
-      <c r="B1615" s="2" t="s">
+      <c r="B1615" t="s">
         <v>550</v>
       </c>
       <c r="C1615" t="s">
@@ -65190,7 +65551,7 @@
       <c r="F1615">
         <v>1</v>
       </c>
-      <c r="G1615" s="2">
+      <c r="G1615">
         <v>2</v>
       </c>
       <c r="H1615" s="1">
@@ -65210,7 +65571,7 @@
       <c r="A1616" t="s">
         <v>2934</v>
       </c>
-      <c r="B1616" s="2" t="s">
+      <c r="B1616" t="s">
         <v>550</v>
       </c>
       <c r="C1616" t="s">
@@ -65225,7 +65586,7 @@
       <c r="F1616">
         <v>1</v>
       </c>
-      <c r="G1616" s="2">
+      <c r="G1616">
         <v>0.9</v>
       </c>
       <c r="H1616" s="1">
@@ -65245,7 +65606,7 @@
       <c r="A1617" t="s">
         <v>2936</v>
       </c>
-      <c r="B1617" s="2" t="s">
+      <c r="B1617" t="s">
         <v>550</v>
       </c>
       <c r="C1617" t="s">
@@ -65260,7 +65621,7 @@
       <c r="F1617">
         <v>1</v>
       </c>
-      <c r="G1617" s="2">
+      <c r="G1617">
         <v>7.2</v>
       </c>
       <c r="H1617" s="1">
@@ -65280,7 +65641,7 @@
       <c r="A1618" t="s">
         <v>2938</v>
       </c>
-      <c r="B1618" s="2" t="s">
+      <c r="B1618" t="s">
         <v>550</v>
       </c>
       <c r="C1618" t="s">
@@ -65295,7 +65656,7 @@
       <c r="F1618">
         <v>0</v>
       </c>
-      <c r="G1618" s="2">
+      <c r="G1618">
         <v>0</v>
       </c>
       <c r="H1618" s="1">
@@ -65315,7 +65676,7 @@
       <c r="A1619" t="s">
         <v>2940</v>
       </c>
-      <c r="B1619" s="2" t="s">
+      <c r="B1619" t="s">
         <v>550</v>
       </c>
       <c r="C1619" t="s">
@@ -65330,7 +65691,7 @@
       <c r="F1619">
         <v>0</v>
       </c>
-      <c r="G1619" s="2">
+      <c r="G1619">
         <v>0</v>
       </c>
       <c r="H1619" s="1">
@@ -65350,7 +65711,7 @@
       <c r="A1620" t="s">
         <v>2942</v>
       </c>
-      <c r="B1620" s="2" t="s">
+      <c r="B1620" t="s">
         <v>550</v>
       </c>
       <c r="C1620" t="s">
@@ -65365,7 +65726,7 @@
       <c r="F1620">
         <v>1</v>
       </c>
-      <c r="G1620" s="2">
+      <c r="G1620">
         <v>1.2</v>
       </c>
       <c r="H1620" s="1">
@@ -65385,7 +65746,7 @@
       <c r="A1621" t="s">
         <v>2944</v>
       </c>
-      <c r="B1621" s="2" t="s">
+      <c r="B1621" t="s">
         <v>550</v>
       </c>
       <c r="C1621" t="s">
@@ -65400,7 +65761,7 @@
       <c r="F1621">
         <v>1</v>
       </c>
-      <c r="G1621" s="2">
+      <c r="G1621">
         <v>1.8</v>
       </c>
       <c r="H1621" s="1">
@@ -65420,7 +65781,7 @@
       <c r="A1622" t="s">
         <v>2946</v>
       </c>
-      <c r="B1622" s="2" t="s">
+      <c r="B1622" t="s">
         <v>550</v>
       </c>
       <c r="C1622" t="s">
@@ -65435,7 +65796,7 @@
       <c r="F1622">
         <v>1</v>
       </c>
-      <c r="G1622" s="2">
+      <c r="G1622">
         <v>4.9000000000000004</v>
       </c>
       <c r="H1622" s="1">
@@ -65455,7 +65816,7 @@
       <c r="A1623" t="s">
         <v>2947</v>
       </c>
-      <c r="B1623" s="2" t="s">
+      <c r="B1623" t="s">
         <v>550</v>
       </c>
       <c r="C1623" t="s">
@@ -65470,7 +65831,7 @@
       <c r="F1623">
         <v>0</v>
       </c>
-      <c r="G1623" s="2">
+      <c r="G1623">
         <v>0</v>
       </c>
       <c r="H1623" s="1">
@@ -65490,7 +65851,7 @@
       <c r="A1624" t="s">
         <v>2948</v>
       </c>
-      <c r="B1624" s="2" t="s">
+      <c r="B1624" t="s">
         <v>550</v>
       </c>
       <c r="C1624" t="s">
@@ -65505,7 +65866,7 @@
       <c r="F1624">
         <v>0</v>
       </c>
-      <c r="G1624" s="2">
+      <c r="G1624">
         <v>0</v>
       </c>
       <c r="H1624" s="1">
@@ -65525,7 +65886,7 @@
       <c r="A1625" t="s">
         <v>2949</v>
       </c>
-      <c r="B1625" s="2" t="s">
+      <c r="B1625" t="s">
         <v>550</v>
       </c>
       <c r="C1625" t="s">
@@ -65540,7 +65901,7 @@
       <c r="F1625">
         <v>0</v>
       </c>
-      <c r="G1625" s="2">
+      <c r="G1625">
         <v>0</v>
       </c>
       <c r="H1625" s="1">
@@ -65560,7 +65921,7 @@
       <c r="A1626" t="s">
         <v>2950</v>
       </c>
-      <c r="B1626" s="2" t="s">
+      <c r="B1626" t="s">
         <v>550</v>
       </c>
       <c r="C1626" t="s">
@@ -65575,7 +65936,7 @@
       <c r="F1626">
         <v>0</v>
       </c>
-      <c r="G1626" s="2">
+      <c r="G1626">
         <v>0</v>
       </c>
       <c r="H1626" s="1">
@@ -65595,7 +65956,7 @@
       <c r="A1627" t="s">
         <v>2951</v>
       </c>
-      <c r="B1627" s="2" t="s">
+      <c r="B1627" t="s">
         <v>550</v>
       </c>
       <c r="C1627" t="s">
@@ -65610,7 +65971,7 @@
       <c r="F1627">
         <v>1</v>
       </c>
-      <c r="G1627" s="2">
+      <c r="G1627">
         <v>4.3</v>
       </c>
       <c r="H1627" s="1">
@@ -65630,7 +65991,7 @@
       <c r="A1628" t="s">
         <v>2954</v>
       </c>
-      <c r="B1628" s="2" t="s">
+      <c r="B1628" t="s">
         <v>550</v>
       </c>
       <c r="C1628" t="s">
@@ -65645,7 +66006,7 @@
       <c r="F1628">
         <v>1</v>
       </c>
-      <c r="G1628" s="2">
+      <c r="G1628">
         <v>2.6</v>
       </c>
       <c r="H1628" s="1">
@@ -65665,7 +66026,7 @@
       <c r="A1629" t="s">
         <v>2956</v>
       </c>
-      <c r="B1629" s="2" t="s">
+      <c r="B1629" t="s">
         <v>550</v>
       </c>
       <c r="C1629" t="s">
@@ -65680,7 +66041,7 @@
       <c r="F1629">
         <v>1</v>
       </c>
-      <c r="G1629" s="2">
+      <c r="G1629">
         <v>2.6</v>
       </c>
       <c r="H1629" s="1">
@@ -65700,7 +66061,7 @@
       <c r="A1630" t="s">
         <v>2958</v>
       </c>
-      <c r="B1630" s="2" t="s">
+      <c r="B1630" t="s">
         <v>550</v>
       </c>
       <c r="C1630" t="s">
@@ -65715,7 +66076,7 @@
       <c r="F1630">
         <v>0</v>
       </c>
-      <c r="G1630" s="2">
+      <c r="G1630">
         <v>0</v>
       </c>
       <c r="H1630" s="1">
@@ -65735,7 +66096,7 @@
       <c r="A1631" t="s">
         <v>2961</v>
       </c>
-      <c r="B1631" s="2" t="s">
+      <c r="B1631" t="s">
         <v>550</v>
       </c>
       <c r="C1631" t="s">
@@ -65750,7 +66111,7 @@
       <c r="F1631">
         <v>0</v>
       </c>
-      <c r="G1631" s="2">
+      <c r="G1631">
         <v>0</v>
       </c>
       <c r="H1631" s="1">
@@ -65770,7 +66131,7 @@
       <c r="A1632" t="s">
         <v>2963</v>
       </c>
-      <c r="B1632" s="2" t="s">
+      <c r="B1632" t="s">
         <v>550</v>
       </c>
       <c r="C1632" t="s">
@@ -65785,7 +66146,7 @@
       <c r="F1632">
         <v>0</v>
       </c>
-      <c r="G1632" s="2">
+      <c r="G1632">
         <v>0</v>
       </c>
       <c r="H1632" s="1">
@@ -65805,7 +66166,7 @@
       <c r="A1633" t="s">
         <v>2965</v>
       </c>
-      <c r="B1633" s="2" t="s">
+      <c r="B1633" t="s">
         <v>550</v>
       </c>
       <c r="C1633" t="s">
@@ -65820,7 +66181,7 @@
       <c r="F1633">
         <v>0</v>
       </c>
-      <c r="G1633" s="2">
+      <c r="G1633">
         <v>0</v>
       </c>
       <c r="H1633" s="1">
@@ -65834,6 +66195,2916 @@
       </c>
       <c r="K1633">
         <v>34</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1634" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B1634" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>2969</v>
+      </c>
+      <c r="E1634">
+        <v>4.5</v>
+      </c>
+      <c r="F1634">
+        <v>1</v>
+      </c>
+      <c r="G1634" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H1634" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1634" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1634" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1634">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1635" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B1635" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>2969</v>
+      </c>
+      <c r="E1635">
+        <v>4.5</v>
+      </c>
+      <c r="F1635">
+        <v>1</v>
+      </c>
+      <c r="G1635" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H1635" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1635" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1635" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1635">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1636" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B1636" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1636">
+        <v>1.7</v>
+      </c>
+      <c r="F1636">
+        <v>1</v>
+      </c>
+      <c r="G1636" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H1636" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1636" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1636" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1636">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1637" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B1637" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E1637">
+        <v>1</v>
+      </c>
+      <c r="F1637">
+        <v>1</v>
+      </c>
+      <c r="G1637" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1637" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1637" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1637" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1637">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1638" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B1638" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E1638">
+        <v>2</v>
+      </c>
+      <c r="F1638">
+        <v>1</v>
+      </c>
+      <c r="G1638" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1638" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1638" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1638" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1638">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1639" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1639" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>2979</v>
+      </c>
+      <c r="E1639">
+        <v>2</v>
+      </c>
+      <c r="F1639">
+        <v>1</v>
+      </c>
+      <c r="G1639" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1639" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1639" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1639" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1639">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1640" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B1640" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>2981</v>
+      </c>
+      <c r="E1640">
+        <v>1</v>
+      </c>
+      <c r="F1640">
+        <v>2</v>
+      </c>
+      <c r="G1640" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1640" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1640" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1640" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1640">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1641" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1641" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1641">
+        <v>1</v>
+      </c>
+      <c r="F1641">
+        <v>1</v>
+      </c>
+      <c r="G1641" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1641" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1641" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1641" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1641">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1642" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B1642" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>2984</v>
+      </c>
+      <c r="E1642">
+        <v>0.5</v>
+      </c>
+      <c r="F1642">
+        <v>1</v>
+      </c>
+      <c r="G1642" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1642" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1642" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1642" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1642">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1643" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B1643" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E1643">
+        <v>0.5</v>
+      </c>
+      <c r="F1643">
+        <v>1</v>
+      </c>
+      <c r="G1643" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1643" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1643" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1643" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1643">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1644" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1644" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1644">
+        <v>1</v>
+      </c>
+      <c r="F1644">
+        <v>1</v>
+      </c>
+      <c r="G1644" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1644" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1644" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1644" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1644">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1645" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B1645" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1645">
+        <v>2</v>
+      </c>
+      <c r="F1645">
+        <v>1</v>
+      </c>
+      <c r="G1645" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1645" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1645" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1645" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1645">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1646" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1646" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1646">
+        <v>1</v>
+      </c>
+      <c r="F1646">
+        <v>1</v>
+      </c>
+      <c r="G1646" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1646" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1646" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1646" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1646">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1647" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1647" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1647">
+        <v>0.6</v>
+      </c>
+      <c r="F1647">
+        <v>1</v>
+      </c>
+      <c r="G1647" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H1647" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I1647" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1647" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1647">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1648" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1648" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F1648">
+        <v>1</v>
+      </c>
+      <c r="G1648" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1648" s="1">
+        <v>45531</v>
+      </c>
+      <c r="I1648" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1648" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1648">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1649" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B1649" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E1649">
+        <v>2.7</v>
+      </c>
+      <c r="F1649">
+        <v>0</v>
+      </c>
+      <c r="G1649" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1649" s="1">
+        <v>45531</v>
+      </c>
+      <c r="I1649" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1649" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1649">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1650" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1650" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E1650">
+        <v>1.5</v>
+      </c>
+      <c r="F1650">
+        <v>1</v>
+      </c>
+      <c r="G1650" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1650" s="1">
+        <v>45531</v>
+      </c>
+      <c r="I1650" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1650" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1650">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1651" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B1651" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E1651">
+        <v>1.8</v>
+      </c>
+      <c r="F1651">
+        <v>1</v>
+      </c>
+      <c r="G1651" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H1651" s="1">
+        <v>45531</v>
+      </c>
+      <c r="I1651" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1651" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1651">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1652" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B1652" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E1652">
+        <v>3.7</v>
+      </c>
+      <c r="F1652">
+        <v>0</v>
+      </c>
+      <c r="G1652" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1652" s="1">
+        <v>45531</v>
+      </c>
+      <c r="I1652" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1652" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1652">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1653" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1653" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E1653">
+        <v>1.8</v>
+      </c>
+      <c r="F1653">
+        <v>1</v>
+      </c>
+      <c r="G1653" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H1653" s="1">
+        <v>45531</v>
+      </c>
+      <c r="I1653" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1653" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1653">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1654" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B1654" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F1654">
+        <v>1</v>
+      </c>
+      <c r="G1654" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1654" s="1">
+        <v>45532</v>
+      </c>
+      <c r="I1654" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1654" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1654">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1655" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1655" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E1655">
+        <v>2</v>
+      </c>
+      <c r="F1655">
+        <v>1</v>
+      </c>
+      <c r="G1655" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1655" s="1">
+        <v>45532</v>
+      </c>
+      <c r="I1655" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1655" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1655">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1656" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B1656" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1656">
+        <v>1</v>
+      </c>
+      <c r="F1656">
+        <v>0</v>
+      </c>
+      <c r="G1656" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1656" s="1">
+        <v>45532</v>
+      </c>
+      <c r="I1656" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1656" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1656">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1657" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B1657" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1657">
+        <v>7.5</v>
+      </c>
+      <c r="F1657">
+        <v>1</v>
+      </c>
+      <c r="G1657" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H1657" s="1">
+        <v>45532</v>
+      </c>
+      <c r="I1657" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1657" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1657">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1658" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B1658" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E1658">
+        <v>0.7</v>
+      </c>
+      <c r="F1658">
+        <v>1</v>
+      </c>
+      <c r="G1658" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H1658" s="1">
+        <v>45532</v>
+      </c>
+      <c r="I1658" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1658" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1658">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1659" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1659" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E1659">
+        <v>4.5</v>
+      </c>
+      <c r="F1659">
+        <v>0</v>
+      </c>
+      <c r="G1659" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1659" s="1">
+        <v>45532</v>
+      </c>
+      <c r="I1659" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1659" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1659">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1660" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B1660" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F1660">
+        <v>1</v>
+      </c>
+      <c r="G1660" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1660" s="1">
+        <v>45533</v>
+      </c>
+      <c r="I1660" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1660" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1660">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1661" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B1661" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>3016</v>
+      </c>
+      <c r="E1661">
+        <v>9.1</v>
+      </c>
+      <c r="F1661">
+        <v>1</v>
+      </c>
+      <c r="G1661" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="H1661" s="1">
+        <v>45533</v>
+      </c>
+      <c r="I1661" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1661" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1661">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1662" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B1662" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E1662">
+        <v>3</v>
+      </c>
+      <c r="F1662">
+        <v>1</v>
+      </c>
+      <c r="G1662" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1662" s="1">
+        <v>45533</v>
+      </c>
+      <c r="I1662" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1662" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1662">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1663" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1663" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1663">
+        <v>1.4</v>
+      </c>
+      <c r="F1663">
+        <v>1</v>
+      </c>
+      <c r="G1663" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H1663" s="1">
+        <v>45533</v>
+      </c>
+      <c r="I1663" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1663" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1663">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1664" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B1664" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F1664">
+        <v>1</v>
+      </c>
+      <c r="G1664" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1664" s="1">
+        <v>45534</v>
+      </c>
+      <c r="I1664" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1664" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1664">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1665" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B1665" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>3024</v>
+      </c>
+      <c r="F1665">
+        <v>1</v>
+      </c>
+      <c r="G1665" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1665" s="1">
+        <v>45534</v>
+      </c>
+      <c r="I1665" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1665" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1665">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1666" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1666" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E1666">
+        <v>1.2</v>
+      </c>
+      <c r="F1666">
+        <v>1</v>
+      </c>
+      <c r="G1666" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H1666" s="1">
+        <v>45534</v>
+      </c>
+      <c r="I1666" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1666" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1666">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1667" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1667" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>3029</v>
+      </c>
+      <c r="E1667">
+        <v>1.6</v>
+      </c>
+      <c r="F1667">
+        <v>0</v>
+      </c>
+      <c r="G1667" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1667" s="1">
+        <v>45534</v>
+      </c>
+      <c r="I1667" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1667" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1667">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1668" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1668" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E1668">
+        <v>1.9</v>
+      </c>
+      <c r="F1668">
+        <v>1</v>
+      </c>
+      <c r="G1668" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H1668" s="1">
+        <v>45534</v>
+      </c>
+      <c r="I1668" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1668" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1668">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1669" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1669" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1669">
+        <v>0.5</v>
+      </c>
+      <c r="F1669">
+        <v>1</v>
+      </c>
+      <c r="G1669" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1669" s="1">
+        <v>45534</v>
+      </c>
+      <c r="I1669" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1669" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1669">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1670" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B1670" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>3035</v>
+      </c>
+      <c r="E1670">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F1670">
+        <v>0</v>
+      </c>
+      <c r="G1670" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1670" s="1">
+        <v>45535</v>
+      </c>
+      <c r="I1670" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1670" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1670">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1671" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1671" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1671">
+        <v>3.2</v>
+      </c>
+      <c r="F1671">
+        <v>1</v>
+      </c>
+      <c r="G1671" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="H1671" s="1">
+        <v>45535</v>
+      </c>
+      <c r="I1671" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1671" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1671">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1672" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B1672" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>909</v>
+      </c>
+      <c r="E1672">
+        <v>3.2</v>
+      </c>
+      <c r="F1672">
+        <v>1</v>
+      </c>
+      <c r="G1672" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="H1672" s="1">
+        <v>45535</v>
+      </c>
+      <c r="I1672" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1672" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1672">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1673" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B1673" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E1673">
+        <v>4.7</v>
+      </c>
+      <c r="F1673">
+        <v>1</v>
+      </c>
+      <c r="G1673" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="H1673" s="1">
+        <v>45535</v>
+      </c>
+      <c r="I1673" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1673" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1673">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1674" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1674" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>3041</v>
+      </c>
+      <c r="E1674">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1674">
+        <v>1</v>
+      </c>
+      <c r="G1674" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1674" s="1">
+        <v>45535</v>
+      </c>
+      <c r="I1674" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1674" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1674">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1675" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B1675" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>3043</v>
+      </c>
+      <c r="E1675">
+        <v>1.5</v>
+      </c>
+      <c r="F1675">
+        <v>1</v>
+      </c>
+      <c r="G1675" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1675" s="1">
+        <v>45535</v>
+      </c>
+      <c r="I1675" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1675" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1675">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1676" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B1676" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>2969</v>
+      </c>
+      <c r="E1676">
+        <v>4.5</v>
+      </c>
+      <c r="F1676">
+        <v>1</v>
+      </c>
+      <c r="G1676" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H1676" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1676" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1676" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1676">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1677" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B1677" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>2969</v>
+      </c>
+      <c r="E1677">
+        <v>4.5</v>
+      </c>
+      <c r="F1677">
+        <v>1</v>
+      </c>
+      <c r="G1677" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H1677" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1677" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1677" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1677">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1678" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B1678" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1678">
+        <v>1.7</v>
+      </c>
+      <c r="F1678">
+        <v>1</v>
+      </c>
+      <c r="G1678" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H1678" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1678" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1678" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1678">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1679" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B1679" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E1679">
+        <v>1</v>
+      </c>
+      <c r="F1679">
+        <v>1</v>
+      </c>
+      <c r="G1679" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1679" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1679" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1679" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1679">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1680" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B1680" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E1680">
+        <v>2</v>
+      </c>
+      <c r="F1680">
+        <v>1</v>
+      </c>
+      <c r="G1680" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1680" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1680" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1680" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1680">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1681" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B1681" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>2979</v>
+      </c>
+      <c r="E1681">
+        <v>2</v>
+      </c>
+      <c r="F1681">
+        <v>1</v>
+      </c>
+      <c r="G1681" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1681" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1681" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1681" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1681">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1682" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B1682" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>2981</v>
+      </c>
+      <c r="E1682">
+        <v>1</v>
+      </c>
+      <c r="F1682">
+        <v>2</v>
+      </c>
+      <c r="G1682" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1682" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1682" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1682" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1682">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1683" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B1683" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1683">
+        <v>1</v>
+      </c>
+      <c r="F1683">
+        <v>1</v>
+      </c>
+      <c r="G1683" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1683" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1683" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1683" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1683">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1684" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B1684" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>2984</v>
+      </c>
+      <c r="E1684">
+        <v>0.5</v>
+      </c>
+      <c r="F1684">
+        <v>1</v>
+      </c>
+      <c r="G1684" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1684" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1684" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1684" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1684">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1685" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B1685" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E1685">
+        <v>0.5</v>
+      </c>
+      <c r="F1685">
+        <v>1</v>
+      </c>
+      <c r="G1685" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1685" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1685" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1685" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1685">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1686" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B1686" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1686">
+        <v>1</v>
+      </c>
+      <c r="F1686">
+        <v>1</v>
+      </c>
+      <c r="G1686" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1686" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1686" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1686" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1686">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1687" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B1687" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1687">
+        <v>2</v>
+      </c>
+      <c r="F1687">
+        <v>1</v>
+      </c>
+      <c r="G1687" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1687" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1687" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1687" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1687">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1688" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B1688" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1688">
+        <v>1</v>
+      </c>
+      <c r="F1688">
+        <v>1</v>
+      </c>
+      <c r="G1688" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1688" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1688" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1688" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1688">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1689" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B1689" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1689">
+        <v>0.6</v>
+      </c>
+      <c r="F1689">
+        <v>1</v>
+      </c>
+      <c r="G1689" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H1689" s="1">
+        <v>45537</v>
+      </c>
+      <c r="I1689" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1689" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1689">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1690" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B1690" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F1690">
+        <v>1</v>
+      </c>
+      <c r="G1690" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1690" s="1">
+        <v>45538</v>
+      </c>
+      <c r="I1690" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1690" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1690">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1691" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B1691" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E1691">
+        <v>2.7</v>
+      </c>
+      <c r="G1691" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1691" s="1">
+        <v>45538</v>
+      </c>
+      <c r="I1691" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1691" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1691">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1692" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1692" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E1692">
+        <v>1.5</v>
+      </c>
+      <c r="F1692">
+        <v>1</v>
+      </c>
+      <c r="G1692" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1692" s="1">
+        <v>45538</v>
+      </c>
+      <c r="I1692" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1692" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1692">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1693" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B1693" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E1693">
+        <v>1.8</v>
+      </c>
+      <c r="F1693">
+        <v>1</v>
+      </c>
+      <c r="G1693" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H1693" s="1">
+        <v>45538</v>
+      </c>
+      <c r="I1693" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1693" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1693">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1694" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B1694" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E1694">
+        <v>3.7</v>
+      </c>
+      <c r="F1694">
+        <v>0</v>
+      </c>
+      <c r="G1694" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1694" s="1">
+        <v>45538</v>
+      </c>
+      <c r="I1694" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1694" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1694">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1695" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B1695" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E1695">
+        <v>1.8</v>
+      </c>
+      <c r="F1695">
+        <v>1</v>
+      </c>
+      <c r="G1695" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H1695" s="1">
+        <v>45538</v>
+      </c>
+      <c r="I1695" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1695" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1695">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1696" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B1696" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E1696">
+        <v>1</v>
+      </c>
+      <c r="F1696">
+        <v>1</v>
+      </c>
+      <c r="G1696" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1696" s="1">
+        <v>45539</v>
+      </c>
+      <c r="I1696" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1696" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1696">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1697" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B1697" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E1697">
+        <v>2</v>
+      </c>
+      <c r="F1697">
+        <v>1</v>
+      </c>
+      <c r="G1697" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1697" s="1">
+        <v>45539</v>
+      </c>
+      <c r="I1697" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1697" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1697">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1698" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B1698" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1698">
+        <v>1</v>
+      </c>
+      <c r="F1698">
+        <v>0</v>
+      </c>
+      <c r="G1698" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1698" s="1">
+        <v>45539</v>
+      </c>
+      <c r="I1698" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1698" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1698">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1699" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1699" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1699">
+        <v>7.5</v>
+      </c>
+      <c r="F1699">
+        <v>1</v>
+      </c>
+      <c r="G1699" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H1699" s="1">
+        <v>45539</v>
+      </c>
+      <c r="I1699" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1699" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1699">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1700" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B1700" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E1700">
+        <v>0.7</v>
+      </c>
+      <c r="F1700">
+        <v>1</v>
+      </c>
+      <c r="G1700" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H1700" s="1">
+        <v>45539</v>
+      </c>
+      <c r="I1700" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1700" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1700">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1701" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B1701" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E1701">
+        <v>4.5</v>
+      </c>
+      <c r="F1701">
+        <v>0</v>
+      </c>
+      <c r="G1701" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1701" s="1">
+        <v>45539</v>
+      </c>
+      <c r="I1701" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1701" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1701">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1702" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B1702" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F1702">
+        <v>1</v>
+      </c>
+      <c r="G1702" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1702" s="1">
+        <v>45540</v>
+      </c>
+      <c r="I1702" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1702" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1702">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1703" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B1703" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>3016</v>
+      </c>
+      <c r="E1703">
+        <v>9.1</v>
+      </c>
+      <c r="F1703">
+        <v>1</v>
+      </c>
+      <c r="G1703" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="H1703" s="1">
+        <v>45540</v>
+      </c>
+      <c r="I1703" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1703" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1703">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1704" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1704" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E1704">
+        <v>3</v>
+      </c>
+      <c r="F1704">
+        <v>1</v>
+      </c>
+      <c r="G1704" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1704" s="1">
+        <v>45540</v>
+      </c>
+      <c r="I1704" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1704" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1704">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1705" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B1705" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1705">
+        <v>1.4</v>
+      </c>
+      <c r="F1705">
+        <v>1</v>
+      </c>
+      <c r="G1705" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H1705" s="1">
+        <v>45540</v>
+      </c>
+      <c r="I1705" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1705" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1705">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1706" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B1706" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F1706">
+        <v>1</v>
+      </c>
+      <c r="G1706" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1706" s="1">
+        <v>45541</v>
+      </c>
+      <c r="I1706" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1706" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1706">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1707" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B1707" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>3024</v>
+      </c>
+      <c r="F1707">
+        <v>1</v>
+      </c>
+      <c r="G1707" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1707" s="1">
+        <v>45541</v>
+      </c>
+      <c r="I1707" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1707" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1707">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1708" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B1708" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E1708">
+        <v>1.2</v>
+      </c>
+      <c r="F1708">
+        <v>1</v>
+      </c>
+      <c r="G1708" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H1708" s="1">
+        <v>45541</v>
+      </c>
+      <c r="I1708" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1708" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1708">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1709" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B1709" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>3029</v>
+      </c>
+      <c r="E1709">
+        <v>1.6</v>
+      </c>
+      <c r="F1709">
+        <v>0</v>
+      </c>
+      <c r="G1709" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1709" s="1">
+        <v>45541</v>
+      </c>
+      <c r="I1709" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1709" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1709">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1710" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B1710" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E1710">
+        <v>1.9</v>
+      </c>
+      <c r="F1710">
+        <v>1</v>
+      </c>
+      <c r="G1710" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H1710" s="1">
+        <v>45541</v>
+      </c>
+      <c r="I1710" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1710" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1710">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1711" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B1711" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1711">
+        <v>0.5</v>
+      </c>
+      <c r="F1711">
+        <v>1</v>
+      </c>
+      <c r="G1711" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1711" s="1">
+        <v>45541</v>
+      </c>
+      <c r="I1711" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1711" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1711">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1712" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B1712" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>3035</v>
+      </c>
+      <c r="E1712">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F1712">
+        <v>0</v>
+      </c>
+      <c r="G1712" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1712" s="1">
+        <v>45542</v>
+      </c>
+      <c r="I1712" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1712" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1712">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1713" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B1713" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1713">
+        <v>3.2</v>
+      </c>
+      <c r="F1713">
+        <v>1</v>
+      </c>
+      <c r="G1713" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="H1713" s="1">
+        <v>45542</v>
+      </c>
+      <c r="I1713" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1713" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1713">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1714" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B1714" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>909</v>
+      </c>
+      <c r="E1714">
+        <v>3.2</v>
+      </c>
+      <c r="F1714">
+        <v>1</v>
+      </c>
+      <c r="G1714" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="H1714" s="1">
+        <v>45542</v>
+      </c>
+      <c r="I1714" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1714" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1714">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1715" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B1715" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E1715">
+        <v>4.7</v>
+      </c>
+      <c r="F1715">
+        <v>1</v>
+      </c>
+      <c r="G1715" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="H1715" s="1">
+        <v>45542</v>
+      </c>
+      <c r="I1715" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1715" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1715">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1716" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B1716" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>3041</v>
+      </c>
+      <c r="E1716">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1716">
+        <v>1</v>
+      </c>
+      <c r="G1716" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1716" s="1">
+        <v>45542</v>
+      </c>
+      <c r="I1716" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1716" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1716">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1717" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B1717" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>3043</v>
+      </c>
+      <c r="E1717">
+        <v>1.5</v>
+      </c>
+      <c r="F1717">
+        <v>1</v>
+      </c>
+      <c r="G1717" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1717" s="1">
+        <v>45542</v>
+      </c>
+      <c r="I1717" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1717" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1717">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/produccion.xlsx
+++ b/datasets/produccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A050E7E5-2CE7-4FF0-9AFE-45884F999345}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAC4D2E3-680A-47B4-B5AE-FD1FA2C65D34}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B4B7E62A-ACE4-488F-B31E-63058BE35439}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9940" uniqueCount="3086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10174" uniqueCount="3169">
   <si>
     <t>COD</t>
   </si>
@@ -9294,6 +9294,255 @@
   </si>
   <si>
     <t>6;45542;Entregables</t>
+  </si>
+  <si>
+    <t>1;45544;Entregables</t>
+  </si>
+  <si>
+    <t>pta retrabajo</t>
+  </si>
+  <si>
+    <t>1;45544;Extras</t>
+  </si>
+  <si>
+    <t>VISTA VERDE L-35</t>
+  </si>
+  <si>
+    <t>4 Pergolados</t>
+  </si>
+  <si>
+    <t>2;45544;Extras</t>
+  </si>
+  <si>
+    <t>3;45544;Extras</t>
+  </si>
+  <si>
+    <t>VERONESA C6</t>
+  </si>
+  <si>
+    <t>4;45544;Extras</t>
+  </si>
+  <si>
+    <t>VERONESA (C4-5)</t>
+  </si>
+  <si>
+    <t>5;45544;Extras</t>
+  </si>
+  <si>
+    <t>VERONESA C4</t>
+  </si>
+  <si>
+    <t>6;45544;Extras</t>
+  </si>
+  <si>
+    <t>7;45544;Extras</t>
+  </si>
+  <si>
+    <t>1p cto Maq.</t>
+  </si>
+  <si>
+    <t>8;45544;Extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERCOM </t>
+  </si>
+  <si>
+    <t>1O Vistas</t>
+  </si>
+  <si>
+    <t>1;45544;Retrabajos</t>
+  </si>
+  <si>
+    <t>VISTA VERDE L-17</t>
+  </si>
+  <si>
+    <t>2 Pergolados</t>
+  </si>
+  <si>
+    <t>2;45544;Retrabajos</t>
+  </si>
+  <si>
+    <t>VISTA VERDE L-1</t>
+  </si>
+  <si>
+    <t>3;45544;Retrabajos</t>
+  </si>
+  <si>
+    <t>1;45545;Entregables</t>
+  </si>
+  <si>
+    <t>cristina barba</t>
+  </si>
+  <si>
+    <t>librero</t>
+  </si>
+  <si>
+    <t>2;45545;Entregables</t>
+  </si>
+  <si>
+    <t>miguel maldonado</t>
+  </si>
+  <si>
+    <t>lambrin mdb</t>
+  </si>
+  <si>
+    <t>3;45545;Entregables</t>
+  </si>
+  <si>
+    <t>hercom 302</t>
+  </si>
+  <si>
+    <t>4;45545;Entregables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extnsion </t>
+  </si>
+  <si>
+    <t>5;45545;Entregables</t>
+  </si>
+  <si>
+    <t>depto 503 Ta injesa</t>
+  </si>
+  <si>
+    <t>4 pta</t>
+  </si>
+  <si>
+    <t>6;45545;Entregables</t>
+  </si>
+  <si>
+    <t>1;45546;Entregables</t>
+  </si>
+  <si>
+    <t>javier media</t>
+  </si>
+  <si>
+    <t>2;45546;Entregables</t>
+  </si>
+  <si>
+    <t>despacho Gm</t>
+  </si>
+  <si>
+    <t>front desk</t>
+  </si>
+  <si>
+    <t>3;45546;Entregables</t>
+  </si>
+  <si>
+    <t>depto 603 ta injesa</t>
+  </si>
+  <si>
+    <t>4;45546;Entregables</t>
+  </si>
+  <si>
+    <t>5;45546;Entregables</t>
+  </si>
+  <si>
+    <t>2 mdb</t>
+  </si>
+  <si>
+    <t>6;45546;Entregables</t>
+  </si>
+  <si>
+    <t>2 repisas</t>
+  </si>
+  <si>
+    <t>1;45547;Entregables</t>
+  </si>
+  <si>
+    <t>depto 603 TA injesa</t>
+  </si>
+  <si>
+    <t>2;45547;Entregables</t>
+  </si>
+  <si>
+    <t>vista verde l 34</t>
+  </si>
+  <si>
+    <t>pta ppal</t>
+  </si>
+  <si>
+    <t>3;45547;Entregables</t>
+  </si>
+  <si>
+    <t>vista verde l35</t>
+  </si>
+  <si>
+    <t>6 ptas inter</t>
+  </si>
+  <si>
+    <t>4;45547;Entregables</t>
+  </si>
+  <si>
+    <t>pta corrediza</t>
+  </si>
+  <si>
+    <t>5;45547;Entregables</t>
+  </si>
+  <si>
+    <t>veronica eron</t>
+  </si>
+  <si>
+    <t>mueble tv</t>
+  </si>
+  <si>
+    <t>1;45548;Entregables</t>
+  </si>
+  <si>
+    <t>centro capital</t>
+  </si>
+  <si>
+    <t>escritorio en L</t>
+  </si>
+  <si>
+    <t>2;45548;Entregables</t>
+  </si>
+  <si>
+    <t>lambrin mas pta</t>
+  </si>
+  <si>
+    <t>3;45548;Entregables</t>
+  </si>
+  <si>
+    <t>muro divisorio</t>
+  </si>
+  <si>
+    <t>4;45548;Entregables</t>
+  </si>
+  <si>
+    <t>Veronica eron</t>
+  </si>
+  <si>
+    <t>recumbrimiento campana</t>
+  </si>
+  <si>
+    <t>5;45548;Entregables</t>
+  </si>
+  <si>
+    <t>1;45549;Entregables</t>
+  </si>
+  <si>
+    <t>Vista verde l35</t>
+  </si>
+  <si>
+    <t>2;45549;Entregables</t>
+  </si>
+  <si>
+    <t>3;45549;Entregables</t>
+  </si>
+  <si>
+    <t>hercom 301</t>
+  </si>
+  <si>
+    <t>4;45549;Entregables</t>
+  </si>
+  <si>
+    <t>5;45549;Entregables</t>
+  </si>
+  <si>
+    <t>VERONICA ERON</t>
+  </si>
+  <si>
+    <t>1 pta inter</t>
   </si>
 </sst>
 </file>
@@ -9360,13 +9609,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1717" totalsRowShown="0">
-  <autoFilter ref="A1:K1717" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1756" totalsRowShown="0">
+  <autoFilter ref="A1:K1756" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B6ECC9CA-BE29-4C5B-9606-01CFB697A054}" name="COD"/>
     <tableColumn id="2" xr3:uid="{C7D7DD62-79C4-4423-B87E-1408D1237598}" name="CTVV" dataDxfId="2"/>
@@ -9701,10 +9946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEF2190-C283-43C9-B0E2-E2F3DD6D60C6}">
-  <dimension ref="A1:K1717"/>
+  <dimension ref="A1:K1756"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1691" workbookViewId="0">
-      <selection activeCell="I1702" sqref="I1702"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1703" workbookViewId="0">
+      <selection activeCell="J1707" sqref="J1707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -66201,7 +66446,7 @@
       <c r="A1634" t="s">
         <v>2967</v>
       </c>
-      <c r="B1634" s="2" t="s">
+      <c r="B1634" t="s">
         <v>550</v>
       </c>
       <c r="C1634" t="s">
@@ -66216,7 +66461,7 @@
       <c r="F1634">
         <v>1</v>
       </c>
-      <c r="G1634" s="2">
+      <c r="G1634">
         <v>4.5</v>
       </c>
       <c r="H1634" s="1">
@@ -66236,7 +66481,7 @@
       <c r="A1635" t="s">
         <v>2970</v>
       </c>
-      <c r="B1635" s="2" t="s">
+      <c r="B1635" t="s">
         <v>550</v>
       </c>
       <c r="C1635" t="s">
@@ -66251,7 +66496,7 @@
       <c r="F1635">
         <v>1</v>
       </c>
-      <c r="G1635" s="2">
+      <c r="G1635">
         <v>4.5</v>
       </c>
       <c r="H1635" s="1">
@@ -66271,7 +66516,7 @@
       <c r="A1636" t="s">
         <v>2971</v>
       </c>
-      <c r="B1636" s="2" t="s">
+      <c r="B1636" t="s">
         <v>550</v>
       </c>
       <c r="C1636" t="s">
@@ -66286,7 +66531,7 @@
       <c r="F1636">
         <v>1</v>
       </c>
-      <c r="G1636" s="2">
+      <c r="G1636">
         <v>1.7</v>
       </c>
       <c r="H1636" s="1">
@@ -66306,7 +66551,7 @@
       <c r="A1637" t="s">
         <v>2973</v>
       </c>
-      <c r="B1637" s="2" t="s">
+      <c r="B1637" t="s">
         <v>550</v>
       </c>
       <c r="C1637" t="s">
@@ -66321,7 +66566,7 @@
       <c r="F1637">
         <v>1</v>
       </c>
-      <c r="G1637" s="2">
+      <c r="G1637">
         <v>1</v>
       </c>
       <c r="H1637" s="1">
@@ -66341,7 +66586,7 @@
       <c r="A1638" t="s">
         <v>2976</v>
       </c>
-      <c r="B1638" s="2" t="s">
+      <c r="B1638" t="s">
         <v>550</v>
       </c>
       <c r="C1638" t="s">
@@ -66356,7 +66601,7 @@
       <c r="F1638">
         <v>1</v>
       </c>
-      <c r="G1638" s="2">
+      <c r="G1638">
         <v>2</v>
       </c>
       <c r="H1638" s="1">
@@ -66376,7 +66621,7 @@
       <c r="A1639" t="s">
         <v>2978</v>
       </c>
-      <c r="B1639" s="2" t="s">
+      <c r="B1639" t="s">
         <v>965</v>
       </c>
       <c r="C1639" t="s">
@@ -66391,7 +66636,7 @@
       <c r="F1639">
         <v>1</v>
       </c>
-      <c r="G1639" s="2">
+      <c r="G1639">
         <v>2</v>
       </c>
       <c r="H1639" s="1">
@@ -66411,7 +66656,7 @@
       <c r="A1640" t="s">
         <v>2980</v>
       </c>
-      <c r="B1640" s="2" t="s">
+      <c r="B1640" t="s">
         <v>550</v>
       </c>
       <c r="C1640" t="s">
@@ -66426,7 +66671,7 @@
       <c r="F1640">
         <v>2</v>
       </c>
-      <c r="G1640" s="2">
+      <c r="G1640">
         <v>1</v>
       </c>
       <c r="H1640" s="1">
@@ -66446,7 +66691,7 @@
       <c r="A1641" t="s">
         <v>2982</v>
       </c>
-      <c r="B1641" s="2" t="s">
+      <c r="B1641" t="s">
         <v>550</v>
       </c>
       <c r="C1641" t="s">
@@ -66461,7 +66706,7 @@
       <c r="F1641">
         <v>1</v>
       </c>
-      <c r="G1641" s="2">
+      <c r="G1641">
         <v>1</v>
       </c>
       <c r="H1641" s="1">
@@ -66481,7 +66726,7 @@
       <c r="A1642" t="s">
         <v>2983</v>
       </c>
-      <c r="B1642" s="2" t="s">
+      <c r="B1642" t="s">
         <v>1507</v>
       </c>
       <c r="C1642" t="s">
@@ -66496,7 +66741,7 @@
       <c r="F1642">
         <v>1</v>
       </c>
-      <c r="G1642" s="2">
+      <c r="G1642">
         <v>0.5</v>
       </c>
       <c r="H1642" s="1">
@@ -66516,7 +66761,7 @@
       <c r="A1643" t="s">
         <v>2985</v>
       </c>
-      <c r="B1643" s="2" t="s">
+      <c r="B1643" t="s">
         <v>1507</v>
       </c>
       <c r="C1643" t="s">
@@ -66531,7 +66776,7 @@
       <c r="F1643">
         <v>1</v>
       </c>
-      <c r="G1643" s="2">
+      <c r="G1643">
         <v>0.5</v>
       </c>
       <c r="H1643" s="1">
@@ -66551,7 +66796,7 @@
       <c r="A1644" t="s">
         <v>2986</v>
       </c>
-      <c r="B1644" s="2" t="s">
+      <c r="B1644" t="s">
         <v>550</v>
       </c>
       <c r="C1644" t="s">
@@ -66566,7 +66811,7 @@
       <c r="F1644">
         <v>1</v>
       </c>
-      <c r="G1644" s="2">
+      <c r="G1644">
         <v>1</v>
       </c>
       <c r="H1644" s="1">
@@ -66586,7 +66831,7 @@
       <c r="A1645" t="s">
         <v>2987</v>
       </c>
-      <c r="B1645" s="2" t="s">
+      <c r="B1645" t="s">
         <v>550</v>
       </c>
       <c r="C1645" t="s">
@@ -66601,7 +66846,7 @@
       <c r="F1645">
         <v>1</v>
       </c>
-      <c r="G1645" s="2">
+      <c r="G1645">
         <v>2</v>
       </c>
       <c r="H1645" s="1">
@@ -66621,7 +66866,7 @@
       <c r="A1646" t="s">
         <v>2988</v>
       </c>
-      <c r="B1646" s="2" t="s">
+      <c r="B1646" t="s">
         <v>550</v>
       </c>
       <c r="C1646" t="s">
@@ -66636,7 +66881,7 @@
       <c r="F1646">
         <v>1</v>
       </c>
-      <c r="G1646" s="2">
+      <c r="G1646">
         <v>1</v>
       </c>
       <c r="H1646" s="1">
@@ -66656,7 +66901,7 @@
       <c r="A1647" t="s">
         <v>2990</v>
       </c>
-      <c r="B1647" s="2" t="s">
+      <c r="B1647" t="s">
         <v>550</v>
       </c>
       <c r="C1647" t="s">
@@ -66671,7 +66916,7 @@
       <c r="F1647">
         <v>1</v>
       </c>
-      <c r="G1647" s="2">
+      <c r="G1647">
         <v>0.6</v>
       </c>
       <c r="H1647" s="1">
@@ -66691,7 +66936,7 @@
       <c r="A1648" t="s">
         <v>2992</v>
       </c>
-      <c r="B1648" s="2" t="s">
+      <c r="B1648" t="s">
         <v>550</v>
       </c>
       <c r="C1648" t="s">
@@ -66703,7 +66948,7 @@
       <c r="F1648">
         <v>1</v>
       </c>
-      <c r="G1648" s="2">
+      <c r="G1648">
         <v>0</v>
       </c>
       <c r="H1648" s="1">
@@ -66723,7 +66968,7 @@
       <c r="A1649" t="s">
         <v>2995</v>
       </c>
-      <c r="B1649" s="2" t="s">
+      <c r="B1649" t="s">
         <v>550</v>
       </c>
       <c r="C1649" t="s">
@@ -66738,7 +66983,7 @@
       <c r="F1649">
         <v>0</v>
       </c>
-      <c r="G1649" s="2">
+      <c r="G1649">
         <v>0</v>
       </c>
       <c r="H1649" s="1">
@@ -66758,7 +67003,7 @@
       <c r="A1650" t="s">
         <v>2997</v>
       </c>
-      <c r="B1650" s="2" t="s">
+      <c r="B1650" t="s">
         <v>550</v>
       </c>
       <c r="C1650" t="s">
@@ -66773,7 +67018,7 @@
       <c r="F1650">
         <v>1</v>
       </c>
-      <c r="G1650" s="2">
+      <c r="G1650">
         <v>1.5</v>
       </c>
       <c r="H1650" s="1">
@@ -66793,7 +67038,7 @@
       <c r="A1651" t="s">
         <v>2998</v>
       </c>
-      <c r="B1651" s="2" t="s">
+      <c r="B1651" t="s">
         <v>550</v>
       </c>
       <c r="C1651" t="s">
@@ -66808,7 +67053,7 @@
       <c r="F1651">
         <v>1</v>
       </c>
-      <c r="G1651" s="2">
+      <c r="G1651">
         <v>1.8</v>
       </c>
       <c r="H1651" s="1">
@@ -66828,7 +67073,7 @@
       <c r="A1652" t="s">
         <v>2999</v>
       </c>
-      <c r="B1652" s="2" t="s">
+      <c r="B1652" t="s">
         <v>550</v>
       </c>
       <c r="C1652" t="s">
@@ -66843,7 +67088,7 @@
       <c r="F1652">
         <v>0</v>
       </c>
-      <c r="G1652" s="2">
+      <c r="G1652">
         <v>0</v>
       </c>
       <c r="H1652" s="1">
@@ -66863,7 +67108,7 @@
       <c r="A1653" t="s">
         <v>3000</v>
       </c>
-      <c r="B1653" s="2" t="s">
+      <c r="B1653" t="s">
         <v>550</v>
       </c>
       <c r="C1653" t="s">
@@ -66878,7 +67123,7 @@
       <c r="F1653">
         <v>1</v>
       </c>
-      <c r="G1653" s="2">
+      <c r="G1653">
         <v>1.8</v>
       </c>
       <c r="H1653" s="1">
@@ -66898,7 +67143,7 @@
       <c r="A1654" t="s">
         <v>3002</v>
       </c>
-      <c r="B1654" s="2" t="s">
+      <c r="B1654" t="s">
         <v>550</v>
       </c>
       <c r="C1654" t="s">
@@ -66910,7 +67155,7 @@
       <c r="F1654">
         <v>1</v>
       </c>
-      <c r="G1654" s="2">
+      <c r="G1654">
         <v>0</v>
       </c>
       <c r="H1654" s="1">
@@ -66930,7 +67175,7 @@
       <c r="A1655" t="s">
         <v>3005</v>
       </c>
-      <c r="B1655" s="2" t="s">
+      <c r="B1655" t="s">
         <v>550</v>
       </c>
       <c r="C1655" t="s">
@@ -66945,7 +67190,7 @@
       <c r="F1655">
         <v>1</v>
       </c>
-      <c r="G1655" s="2">
+      <c r="G1655">
         <v>2</v>
       </c>
       <c r="H1655" s="1">
@@ -66965,7 +67210,7 @@
       <c r="A1656" t="s">
         <v>3007</v>
       </c>
-      <c r="B1656" s="2" t="s">
+      <c r="B1656" t="s">
         <v>550</v>
       </c>
       <c r="C1656" t="s">
@@ -66980,7 +67225,7 @@
       <c r="F1656">
         <v>0</v>
       </c>
-      <c r="G1656" s="2">
+      <c r="G1656">
         <v>0</v>
       </c>
       <c r="H1656" s="1">
@@ -67000,7 +67245,7 @@
       <c r="A1657" t="s">
         <v>3008</v>
       </c>
-      <c r="B1657" s="2" t="s">
+      <c r="B1657" t="s">
         <v>550</v>
       </c>
       <c r="C1657" t="s">
@@ -67015,7 +67260,7 @@
       <c r="F1657">
         <v>1</v>
       </c>
-      <c r="G1657" s="2">
+      <c r="G1657">
         <v>7.5</v>
       </c>
       <c r="H1657" s="1">
@@ -67035,7 +67280,7 @@
       <c r="A1658" t="s">
         <v>3009</v>
       </c>
-      <c r="B1658" s="2" t="s">
+      <c r="B1658" t="s">
         <v>550</v>
       </c>
       <c r="C1658" t="s">
@@ -67050,7 +67295,7 @@
       <c r="F1658">
         <v>1</v>
       </c>
-      <c r="G1658" s="2">
+      <c r="G1658">
         <v>0.7</v>
       </c>
       <c r="H1658" s="1">
@@ -67070,7 +67315,7 @@
       <c r="A1659" t="s">
         <v>3010</v>
       </c>
-      <c r="B1659" s="2" t="s">
+      <c r="B1659" t="s">
         <v>550</v>
       </c>
       <c r="C1659" t="s">
@@ -67085,7 +67330,7 @@
       <c r="F1659">
         <v>0</v>
       </c>
-      <c r="G1659" s="2">
+      <c r="G1659">
         <v>0</v>
       </c>
       <c r="H1659" s="1">
@@ -67105,7 +67350,7 @@
       <c r="A1660" t="s">
         <v>3012</v>
       </c>
-      <c r="B1660" s="2" t="s">
+      <c r="B1660" t="s">
         <v>550</v>
       </c>
       <c r="C1660" t="s">
@@ -67117,7 +67362,7 @@
       <c r="F1660">
         <v>1</v>
       </c>
-      <c r="G1660" s="2">
+      <c r="G1660">
         <v>0</v>
       </c>
       <c r="H1660" s="1">
@@ -67137,7 +67382,7 @@
       <c r="A1661" t="s">
         <v>3014</v>
       </c>
-      <c r="B1661" s="2" t="s">
+      <c r="B1661" t="s">
         <v>550</v>
       </c>
       <c r="C1661" t="s">
@@ -67152,7 +67397,7 @@
       <c r="F1661">
         <v>1</v>
       </c>
-      <c r="G1661" s="2">
+      <c r="G1661">
         <v>9.1</v>
       </c>
       <c r="H1661" s="1">
@@ -67172,7 +67417,7 @@
       <c r="A1662" t="s">
         <v>3017</v>
       </c>
-      <c r="B1662" s="2" t="s">
+      <c r="B1662" t="s">
         <v>550</v>
       </c>
       <c r="C1662" t="s">
@@ -67187,7 +67432,7 @@
       <c r="F1662">
         <v>1</v>
       </c>
-      <c r="G1662" s="2">
+      <c r="G1662">
         <v>3</v>
       </c>
       <c r="H1662" s="1">
@@ -67207,7 +67452,7 @@
       <c r="A1663" t="s">
         <v>3019</v>
       </c>
-      <c r="B1663" s="2" t="s">
+      <c r="B1663" t="s">
         <v>1202</v>
       </c>
       <c r="C1663" t="s">
@@ -67222,7 +67467,7 @@
       <c r="F1663">
         <v>1</v>
       </c>
-      <c r="G1663" s="2">
+      <c r="G1663">
         <v>1.4</v>
       </c>
       <c r="H1663" s="1">
@@ -67242,7 +67487,7 @@
       <c r="A1664" t="s">
         <v>3020</v>
       </c>
-      <c r="B1664" s="2" t="s">
+      <c r="B1664" t="s">
         <v>550</v>
       </c>
       <c r="C1664" t="s">
@@ -67254,7 +67499,7 @@
       <c r="F1664">
         <v>1</v>
       </c>
-      <c r="G1664" s="2">
+      <c r="G1664">
         <v>0</v>
       </c>
       <c r="H1664" s="1">
@@ -67274,7 +67519,7 @@
       <c r="A1665" t="s">
         <v>3022</v>
       </c>
-      <c r="B1665" s="2" t="s">
+      <c r="B1665" t="s">
         <v>550</v>
       </c>
       <c r="C1665" t="s">
@@ -67286,7 +67531,7 @@
       <c r="F1665">
         <v>1</v>
       </c>
-      <c r="G1665" s="2">
+      <c r="G1665">
         <v>0</v>
       </c>
       <c r="H1665" s="1">
@@ -67306,7 +67551,7 @@
       <c r="A1666" t="s">
         <v>3025</v>
       </c>
-      <c r="B1666" s="2" t="s">
+      <c r="B1666" t="s">
         <v>550</v>
       </c>
       <c r="C1666" t="s">
@@ -67321,7 +67566,7 @@
       <c r="F1666">
         <v>1</v>
       </c>
-      <c r="G1666" s="2">
+      <c r="G1666">
         <v>1.2</v>
       </c>
       <c r="H1666" s="1">
@@ -67341,7 +67586,7 @@
       <c r="A1667" t="s">
         <v>3028</v>
       </c>
-      <c r="B1667" s="2" t="s">
+      <c r="B1667" t="s">
         <v>550</v>
       </c>
       <c r="C1667" t="s">
@@ -67356,7 +67601,7 @@
       <c r="F1667">
         <v>0</v>
       </c>
-      <c r="G1667" s="2">
+      <c r="G1667">
         <v>0</v>
       </c>
       <c r="H1667" s="1">
@@ -67376,7 +67621,7 @@
       <c r="A1668" t="s">
         <v>3030</v>
       </c>
-      <c r="B1668" s="2" t="s">
+      <c r="B1668" t="s">
         <v>550</v>
       </c>
       <c r="C1668" t="s">
@@ -67391,7 +67636,7 @@
       <c r="F1668">
         <v>1</v>
       </c>
-      <c r="G1668" s="2">
+      <c r="G1668">
         <v>1.9</v>
       </c>
       <c r="H1668" s="1">
@@ -67411,7 +67656,7 @@
       <c r="A1669" t="s">
         <v>3032</v>
       </c>
-      <c r="B1669" s="2" t="s">
+      <c r="B1669" t="s">
         <v>550</v>
       </c>
       <c r="C1669" t="s">
@@ -67426,7 +67671,7 @@
       <c r="F1669">
         <v>1</v>
       </c>
-      <c r="G1669" s="2">
+      <c r="G1669">
         <v>0.5</v>
       </c>
       <c r="H1669" s="1">
@@ -67446,7 +67691,7 @@
       <c r="A1670" t="s">
         <v>3033</v>
       </c>
-      <c r="B1670" s="2" t="s">
+      <c r="B1670" t="s">
         <v>550</v>
       </c>
       <c r="C1670" t="s">
@@ -67461,7 +67706,7 @@
       <c r="F1670">
         <v>0</v>
       </c>
-      <c r="G1670" s="2">
+      <c r="G1670">
         <v>0</v>
       </c>
       <c r="H1670" s="1">
@@ -67481,7 +67726,7 @@
       <c r="A1671" t="s">
         <v>3036</v>
       </c>
-      <c r="B1671" s="2" t="s">
+      <c r="B1671" t="s">
         <v>550</v>
       </c>
       <c r="C1671" t="s">
@@ -67496,7 +67741,7 @@
       <c r="F1671">
         <v>1</v>
       </c>
-      <c r="G1671" s="2">
+      <c r="G1671">
         <v>3.2</v>
       </c>
       <c r="H1671" s="1">
@@ -67516,7 +67761,7 @@
       <c r="A1672" t="s">
         <v>3037</v>
       </c>
-      <c r="B1672" s="2" t="s">
+      <c r="B1672" t="s">
         <v>550</v>
       </c>
       <c r="C1672" t="s">
@@ -67531,7 +67776,7 @@
       <c r="F1672">
         <v>1</v>
       </c>
-      <c r="G1672" s="2">
+      <c r="G1672">
         <v>3.2</v>
       </c>
       <c r="H1672" s="1">
@@ -67551,7 +67796,7 @@
       <c r="A1673" t="s">
         <v>3038</v>
       </c>
-      <c r="B1673" s="2" t="s">
+      <c r="B1673" t="s">
         <v>550</v>
       </c>
       <c r="C1673" t="s">
@@ -67566,7 +67811,7 @@
       <c r="F1673">
         <v>1</v>
       </c>
-      <c r="G1673" s="2">
+      <c r="G1673">
         <v>4.7</v>
       </c>
       <c r="H1673" s="1">
@@ -67586,7 +67831,7 @@
       <c r="A1674" t="s">
         <v>3040</v>
       </c>
-      <c r="B1674" s="2" t="s">
+      <c r="B1674" t="s">
         <v>550</v>
       </c>
       <c r="C1674" t="s">
@@ -67601,7 +67846,7 @@
       <c r="F1674">
         <v>1</v>
       </c>
-      <c r="G1674" s="2">
+      <c r="G1674">
         <v>1.1000000000000001</v>
       </c>
       <c r="H1674" s="1">
@@ -67621,7 +67866,7 @@
       <c r="A1675" t="s">
         <v>3042</v>
       </c>
-      <c r="B1675" s="2" t="s">
+      <c r="B1675" t="s">
         <v>550</v>
       </c>
       <c r="C1675" t="s">
@@ -67636,7 +67881,7 @@
       <c r="F1675">
         <v>1</v>
       </c>
-      <c r="G1675" s="2">
+      <c r="G1675">
         <v>1.5</v>
       </c>
       <c r="H1675" s="1">
@@ -67656,7 +67901,7 @@
       <c r="A1676" t="s">
         <v>3044</v>
       </c>
-      <c r="B1676" s="2" t="s">
+      <c r="B1676" t="s">
         <v>550</v>
       </c>
       <c r="C1676" t="s">
@@ -67671,7 +67916,7 @@
       <c r="F1676">
         <v>1</v>
       </c>
-      <c r="G1676" s="2">
+      <c r="G1676">
         <v>4.5</v>
       </c>
       <c r="H1676" s="1">
@@ -67691,7 +67936,7 @@
       <c r="A1677" t="s">
         <v>3045</v>
       </c>
-      <c r="B1677" s="2" t="s">
+      <c r="B1677" t="s">
         <v>550</v>
       </c>
       <c r="C1677" t="s">
@@ -67706,7 +67951,7 @@
       <c r="F1677">
         <v>1</v>
       </c>
-      <c r="G1677" s="2">
+      <c r="G1677">
         <v>4.5</v>
       </c>
       <c r="H1677" s="1">
@@ -67726,7 +67971,7 @@
       <c r="A1678" t="s">
         <v>3046</v>
       </c>
-      <c r="B1678" s="2" t="s">
+      <c r="B1678" t="s">
         <v>550</v>
       </c>
       <c r="C1678" t="s">
@@ -67741,7 +67986,7 @@
       <c r="F1678">
         <v>1</v>
       </c>
-      <c r="G1678" s="2">
+      <c r="G1678">
         <v>1.7</v>
       </c>
       <c r="H1678" s="1">
@@ -67761,7 +68006,7 @@
       <c r="A1679" t="s">
         <v>3047</v>
       </c>
-      <c r="B1679" s="2" t="s">
+      <c r="B1679" t="s">
         <v>550</v>
       </c>
       <c r="C1679" t="s">
@@ -67776,7 +68021,7 @@
       <c r="F1679">
         <v>1</v>
       </c>
-      <c r="G1679" s="2">
+      <c r="G1679">
         <v>1</v>
       </c>
       <c r="H1679" s="1">
@@ -67796,7 +68041,7 @@
       <c r="A1680" t="s">
         <v>3048</v>
       </c>
-      <c r="B1680" s="2" t="s">
+      <c r="B1680" t="s">
         <v>550</v>
       </c>
       <c r="C1680" t="s">
@@ -67811,7 +68056,7 @@
       <c r="F1680">
         <v>1</v>
       </c>
-      <c r="G1680" s="2">
+      <c r="G1680">
         <v>2</v>
       </c>
       <c r="H1680" s="1">
@@ -67831,7 +68076,7 @@
       <c r="A1681" t="s">
         <v>3049</v>
       </c>
-      <c r="B1681" s="2" t="s">
+      <c r="B1681" t="s">
         <v>965</v>
       </c>
       <c r="C1681" t="s">
@@ -67846,7 +68091,7 @@
       <c r="F1681">
         <v>1</v>
       </c>
-      <c r="G1681" s="2">
+      <c r="G1681">
         <v>2</v>
       </c>
       <c r="H1681" s="1">
@@ -67866,7 +68111,7 @@
       <c r="A1682" t="s">
         <v>3050</v>
       </c>
-      <c r="B1682" s="2" t="s">
+      <c r="B1682" t="s">
         <v>550</v>
       </c>
       <c r="C1682" t="s">
@@ -67881,7 +68126,7 @@
       <c r="F1682">
         <v>2</v>
       </c>
-      <c r="G1682" s="2">
+      <c r="G1682">
         <v>1</v>
       </c>
       <c r="H1682" s="1">
@@ -67901,7 +68146,7 @@
       <c r="A1683" t="s">
         <v>3051</v>
       </c>
-      <c r="B1683" s="2" t="s">
+      <c r="B1683" t="s">
         <v>550</v>
       </c>
       <c r="C1683" t="s">
@@ -67916,7 +68161,7 @@
       <c r="F1683">
         <v>1</v>
       </c>
-      <c r="G1683" s="2">
+      <c r="G1683">
         <v>1</v>
       </c>
       <c r="H1683" s="1">
@@ -67936,7 +68181,7 @@
       <c r="A1684" t="s">
         <v>3052</v>
       </c>
-      <c r="B1684" s="2" t="s">
+      <c r="B1684" t="s">
         <v>1507</v>
       </c>
       <c r="C1684" t="s">
@@ -67951,7 +68196,7 @@
       <c r="F1684">
         <v>1</v>
       </c>
-      <c r="G1684" s="2">
+      <c r="G1684">
         <v>0.5</v>
       </c>
       <c r="H1684" s="1">
@@ -67971,7 +68216,7 @@
       <c r="A1685" t="s">
         <v>3053</v>
       </c>
-      <c r="B1685" s="2" t="s">
+      <c r="B1685" t="s">
         <v>1507</v>
       </c>
       <c r="C1685" t="s">
@@ -67986,7 +68231,7 @@
       <c r="F1685">
         <v>1</v>
       </c>
-      <c r="G1685" s="2">
+      <c r="G1685">
         <v>0.5</v>
       </c>
       <c r="H1685" s="1">
@@ -68006,7 +68251,7 @@
       <c r="A1686" t="s">
         <v>3054</v>
       </c>
-      <c r="B1686" s="2" t="s">
+      <c r="B1686" t="s">
         <v>550</v>
       </c>
       <c r="C1686" t="s">
@@ -68021,7 +68266,7 @@
       <c r="F1686">
         <v>1</v>
       </c>
-      <c r="G1686" s="2">
+      <c r="G1686">
         <v>1</v>
       </c>
       <c r="H1686" s="1">
@@ -68041,7 +68286,7 @@
       <c r="A1687" t="s">
         <v>3055</v>
       </c>
-      <c r="B1687" s="2" t="s">
+      <c r="B1687" t="s">
         <v>550</v>
       </c>
       <c r="C1687" t="s">
@@ -68056,7 +68301,7 @@
       <c r="F1687">
         <v>1</v>
       </c>
-      <c r="G1687" s="2">
+      <c r="G1687">
         <v>2</v>
       </c>
       <c r="H1687" s="1">
@@ -68076,7 +68321,7 @@
       <c r="A1688" t="s">
         <v>3056</v>
       </c>
-      <c r="B1688" s="2" t="s">
+      <c r="B1688" t="s">
         <v>550</v>
       </c>
       <c r="C1688" t="s">
@@ -68091,7 +68336,7 @@
       <c r="F1688">
         <v>1</v>
       </c>
-      <c r="G1688" s="2">
+      <c r="G1688">
         <v>1</v>
       </c>
       <c r="H1688" s="1">
@@ -68111,7 +68356,7 @@
       <c r="A1689" t="s">
         <v>3057</v>
       </c>
-      <c r="B1689" s="2" t="s">
+      <c r="B1689" t="s">
         <v>550</v>
       </c>
       <c r="C1689" t="s">
@@ -68126,7 +68371,7 @@
       <c r="F1689">
         <v>1</v>
       </c>
-      <c r="G1689" s="2">
+      <c r="G1689">
         <v>0.6</v>
       </c>
       <c r="H1689" s="1">
@@ -68146,7 +68391,7 @@
       <c r="A1690" t="s">
         <v>3058</v>
       </c>
-      <c r="B1690" s="2" t="s">
+      <c r="B1690" t="s">
         <v>550</v>
       </c>
       <c r="C1690" t="s">
@@ -68158,7 +68403,7 @@
       <c r="F1690">
         <v>1</v>
       </c>
-      <c r="G1690" s="2">
+      <c r="G1690">
         <v>0</v>
       </c>
       <c r="H1690" s="1">
@@ -68178,7 +68423,7 @@
       <c r="A1691" t="s">
         <v>3059</v>
       </c>
-      <c r="B1691" s="2" t="s">
+      <c r="B1691" t="s">
         <v>550</v>
       </c>
       <c r="C1691" t="s">
@@ -68190,7 +68435,7 @@
       <c r="E1691">
         <v>2.7</v>
       </c>
-      <c r="G1691" s="2">
+      <c r="G1691">
         <v>0</v>
       </c>
       <c r="H1691" s="1">
@@ -68210,7 +68455,7 @@
       <c r="A1692" t="s">
         <v>3060</v>
       </c>
-      <c r="B1692" s="2" t="s">
+      <c r="B1692" t="s">
         <v>550</v>
       </c>
       <c r="C1692" t="s">
@@ -68225,7 +68470,7 @@
       <c r="F1692">
         <v>1</v>
       </c>
-      <c r="G1692" s="2">
+      <c r="G1692">
         <v>1.5</v>
       </c>
       <c r="H1692" s="1">
@@ -68245,7 +68490,7 @@
       <c r="A1693" t="s">
         <v>3061</v>
       </c>
-      <c r="B1693" s="2" t="s">
+      <c r="B1693" t="s">
         <v>550</v>
       </c>
       <c r="C1693" t="s">
@@ -68260,7 +68505,7 @@
       <c r="F1693">
         <v>1</v>
       </c>
-      <c r="G1693" s="2">
+      <c r="G1693">
         <v>1.8</v>
       </c>
       <c r="H1693" s="1">
@@ -68280,7 +68525,7 @@
       <c r="A1694" t="s">
         <v>3062</v>
       </c>
-      <c r="B1694" s="2" t="s">
+      <c r="B1694" t="s">
         <v>550</v>
       </c>
       <c r="C1694" t="s">
@@ -68295,7 +68540,7 @@
       <c r="F1694">
         <v>0</v>
       </c>
-      <c r="G1694" s="2">
+      <c r="G1694">
         <v>0</v>
       </c>
       <c r="H1694" s="1">
@@ -68315,7 +68560,7 @@
       <c r="A1695" t="s">
         <v>3063</v>
       </c>
-      <c r="B1695" s="2" t="s">
+      <c r="B1695" t="s">
         <v>550</v>
       </c>
       <c r="C1695" t="s">
@@ -68330,7 +68575,7 @@
       <c r="F1695">
         <v>1</v>
       </c>
-      <c r="G1695" s="2">
+      <c r="G1695">
         <v>1.8</v>
       </c>
       <c r="H1695" s="1">
@@ -68350,7 +68595,7 @@
       <c r="A1696" t="s">
         <v>3064</v>
       </c>
-      <c r="B1696" s="2" t="s">
+      <c r="B1696" t="s">
         <v>550</v>
       </c>
       <c r="C1696" t="s">
@@ -68365,7 +68610,7 @@
       <c r="F1696">
         <v>1</v>
       </c>
-      <c r="G1696" s="2">
+      <c r="G1696">
         <v>1</v>
       </c>
       <c r="H1696" s="1">
@@ -68385,7 +68630,7 @@
       <c r="A1697" t="s">
         <v>3065</v>
       </c>
-      <c r="B1697" s="2" t="s">
+      <c r="B1697" t="s">
         <v>550</v>
       </c>
       <c r="C1697" t="s">
@@ -68400,7 +68645,7 @@
       <c r="F1697">
         <v>1</v>
       </c>
-      <c r="G1697" s="2">
+      <c r="G1697">
         <v>2</v>
       </c>
       <c r="H1697" s="1">
@@ -68420,7 +68665,7 @@
       <c r="A1698" t="s">
         <v>3066</v>
       </c>
-      <c r="B1698" s="2" t="s">
+      <c r="B1698" t="s">
         <v>550</v>
       </c>
       <c r="C1698" t="s">
@@ -68435,7 +68680,7 @@
       <c r="F1698">
         <v>0</v>
       </c>
-      <c r="G1698" s="2">
+      <c r="G1698">
         <v>0</v>
       </c>
       <c r="H1698" s="1">
@@ -68455,7 +68700,7 @@
       <c r="A1699" t="s">
         <v>3067</v>
       </c>
-      <c r="B1699" s="2" t="s">
+      <c r="B1699" t="s">
         <v>550</v>
       </c>
       <c r="C1699" t="s">
@@ -68470,7 +68715,7 @@
       <c r="F1699">
         <v>1</v>
       </c>
-      <c r="G1699" s="2">
+      <c r="G1699">
         <v>7.5</v>
       </c>
       <c r="H1699" s="1">
@@ -68490,7 +68735,7 @@
       <c r="A1700" t="s">
         <v>3068</v>
       </c>
-      <c r="B1700" s="2" t="s">
+      <c r="B1700" t="s">
         <v>550</v>
       </c>
       <c r="C1700" t="s">
@@ -68505,7 +68750,7 @@
       <c r="F1700">
         <v>1</v>
       </c>
-      <c r="G1700" s="2">
+      <c r="G1700">
         <v>0.7</v>
       </c>
       <c r="H1700" s="1">
@@ -68525,7 +68770,7 @@
       <c r="A1701" t="s">
         <v>3069</v>
       </c>
-      <c r="B1701" s="2" t="s">
+      <c r="B1701" t="s">
         <v>550</v>
       </c>
       <c r="C1701" t="s">
@@ -68540,7 +68785,7 @@
       <c r="F1701">
         <v>0</v>
       </c>
-      <c r="G1701" s="2">
+      <c r="G1701">
         <v>0</v>
       </c>
       <c r="H1701" s="1">
@@ -68560,7 +68805,7 @@
       <c r="A1702" t="s">
         <v>3070</v>
       </c>
-      <c r="B1702" s="2" t="s">
+      <c r="B1702" t="s">
         <v>550</v>
       </c>
       <c r="C1702" t="s">
@@ -68572,7 +68817,7 @@
       <c r="F1702">
         <v>1</v>
       </c>
-      <c r="G1702" s="2">
+      <c r="G1702">
         <v>0</v>
       </c>
       <c r="H1702" s="1">
@@ -68592,7 +68837,7 @@
       <c r="A1703" t="s">
         <v>3071</v>
       </c>
-      <c r="B1703" s="2" t="s">
+      <c r="B1703" t="s">
         <v>550</v>
       </c>
       <c r="C1703" t="s">
@@ -68607,7 +68852,7 @@
       <c r="F1703">
         <v>1</v>
       </c>
-      <c r="G1703" s="2">
+      <c r="G1703">
         <v>9.1</v>
       </c>
       <c r="H1703" s="1">
@@ -68627,7 +68872,7 @@
       <c r="A1704" t="s">
         <v>3072</v>
       </c>
-      <c r="B1704" s="2" t="s">
+      <c r="B1704" t="s">
         <v>550</v>
       </c>
       <c r="C1704" t="s">
@@ -68642,7 +68887,7 @@
       <c r="F1704">
         <v>1</v>
       </c>
-      <c r="G1704" s="2">
+      <c r="G1704">
         <v>3</v>
       </c>
       <c r="H1704" s="1">
@@ -68662,7 +68907,7 @@
       <c r="A1705" t="s">
         <v>3073</v>
       </c>
-      <c r="B1705" s="2" t="s">
+      <c r="B1705" t="s">
         <v>1202</v>
       </c>
       <c r="C1705" t="s">
@@ -68677,7 +68922,7 @@
       <c r="F1705">
         <v>1</v>
       </c>
-      <c r="G1705" s="2">
+      <c r="G1705">
         <v>1.4</v>
       </c>
       <c r="H1705" s="1">
@@ -68697,7 +68942,7 @@
       <c r="A1706" t="s">
         <v>3074</v>
       </c>
-      <c r="B1706" s="2" t="s">
+      <c r="B1706" t="s">
         <v>550</v>
       </c>
       <c r="C1706" t="s">
@@ -68709,7 +68954,7 @@
       <c r="F1706">
         <v>1</v>
       </c>
-      <c r="G1706" s="2">
+      <c r="G1706">
         <v>0</v>
       </c>
       <c r="H1706" s="1">
@@ -68729,7 +68974,7 @@
       <c r="A1707" t="s">
         <v>3075</v>
       </c>
-      <c r="B1707" s="2" t="s">
+      <c r="B1707" t="s">
         <v>550</v>
       </c>
       <c r="C1707" t="s">
@@ -68741,7 +68986,7 @@
       <c r="F1707">
         <v>1</v>
       </c>
-      <c r="G1707" s="2">
+      <c r="G1707">
         <v>0</v>
       </c>
       <c r="H1707" s="1">
@@ -68761,7 +69006,7 @@
       <c r="A1708" t="s">
         <v>3076</v>
       </c>
-      <c r="B1708" s="2" t="s">
+      <c r="B1708" t="s">
         <v>550</v>
       </c>
       <c r="C1708" t="s">
@@ -68776,7 +69021,7 @@
       <c r="F1708">
         <v>1</v>
       </c>
-      <c r="G1708" s="2">
+      <c r="G1708">
         <v>1.2</v>
       </c>
       <c r="H1708" s="1">
@@ -68796,7 +69041,7 @@
       <c r="A1709" t="s">
         <v>3077</v>
       </c>
-      <c r="B1709" s="2" t="s">
+      <c r="B1709" t="s">
         <v>550</v>
       </c>
       <c r="C1709" t="s">
@@ -68811,7 +69056,7 @@
       <c r="F1709">
         <v>0</v>
       </c>
-      <c r="G1709" s="2">
+      <c r="G1709">
         <v>0</v>
       </c>
       <c r="H1709" s="1">
@@ -68831,7 +69076,7 @@
       <c r="A1710" t="s">
         <v>3078</v>
       </c>
-      <c r="B1710" s="2" t="s">
+      <c r="B1710" t="s">
         <v>550</v>
       </c>
       <c r="C1710" t="s">
@@ -68846,7 +69091,7 @@
       <c r="F1710">
         <v>1</v>
       </c>
-      <c r="G1710" s="2">
+      <c r="G1710">
         <v>1.9</v>
       </c>
       <c r="H1710" s="1">
@@ -68866,7 +69111,7 @@
       <c r="A1711" t="s">
         <v>3079</v>
       </c>
-      <c r="B1711" s="2" t="s">
+      <c r="B1711" t="s">
         <v>550</v>
       </c>
       <c r="C1711" t="s">
@@ -68881,7 +69126,7 @@
       <c r="F1711">
         <v>1</v>
       </c>
-      <c r="G1711" s="2">
+      <c r="G1711">
         <v>0.5</v>
       </c>
       <c r="H1711" s="1">
@@ -68901,7 +69146,7 @@
       <c r="A1712" t="s">
         <v>3080</v>
       </c>
-      <c r="B1712" s="2" t="s">
+      <c r="B1712" t="s">
         <v>550</v>
       </c>
       <c r="C1712" t="s">
@@ -68916,7 +69161,7 @@
       <c r="F1712">
         <v>0</v>
       </c>
-      <c r="G1712" s="2">
+      <c r="G1712">
         <v>0</v>
       </c>
       <c r="H1712" s="1">
@@ -68936,7 +69181,7 @@
       <c r="A1713" t="s">
         <v>3081</v>
       </c>
-      <c r="B1713" s="2" t="s">
+      <c r="B1713" t="s">
         <v>550</v>
       </c>
       <c r="C1713" t="s">
@@ -68951,7 +69196,7 @@
       <c r="F1713">
         <v>1</v>
       </c>
-      <c r="G1713" s="2">
+      <c r="G1713">
         <v>3.2</v>
       </c>
       <c r="H1713" s="1">
@@ -68971,7 +69216,7 @@
       <c r="A1714" t="s">
         <v>3082</v>
       </c>
-      <c r="B1714" s="2" t="s">
+      <c r="B1714" t="s">
         <v>550</v>
       </c>
       <c r="C1714" t="s">
@@ -68986,7 +69231,7 @@
       <c r="F1714">
         <v>1</v>
       </c>
-      <c r="G1714" s="2">
+      <c r="G1714">
         <v>3.2</v>
       </c>
       <c r="H1714" s="1">
@@ -69006,7 +69251,7 @@
       <c r="A1715" t="s">
         <v>3083</v>
       </c>
-      <c r="B1715" s="2" t="s">
+      <c r="B1715" t="s">
         <v>550</v>
       </c>
       <c r="C1715" t="s">
@@ -69021,7 +69266,7 @@
       <c r="F1715">
         <v>1</v>
       </c>
-      <c r="G1715" s="2">
+      <c r="G1715">
         <v>4.7</v>
       </c>
       <c r="H1715" s="1">
@@ -69041,7 +69286,7 @@
       <c r="A1716" t="s">
         <v>3084</v>
       </c>
-      <c r="B1716" s="2" t="s">
+      <c r="B1716" t="s">
         <v>550</v>
       </c>
       <c r="C1716" t="s">
@@ -69056,7 +69301,7 @@
       <c r="F1716">
         <v>1</v>
       </c>
-      <c r="G1716" s="2">
+      <c r="G1716">
         <v>1.1000000000000001</v>
       </c>
       <c r="H1716" s="1">
@@ -69076,7 +69321,7 @@
       <c r="A1717" t="s">
         <v>3085</v>
       </c>
-      <c r="B1717" s="2" t="s">
+      <c r="B1717" t="s">
         <v>550</v>
       </c>
       <c r="C1717" t="s">
@@ -69091,7 +69336,7 @@
       <c r="F1717">
         <v>1</v>
       </c>
-      <c r="G1717" s="2">
+      <c r="G1717">
         <v>1.5</v>
       </c>
       <c r="H1717" s="1">
@@ -69105,6 +69350,1365 @@
       </c>
       <c r="K1717">
         <v>36</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1718" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B1718" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>3087</v>
+      </c>
+      <c r="E1718">
+        <v>1</v>
+      </c>
+      <c r="F1718">
+        <v>1</v>
+      </c>
+      <c r="G1718" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1718" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1718" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1718" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1718">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1719" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B1719" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E1719">
+        <v>2</v>
+      </c>
+      <c r="F1719">
+        <v>1</v>
+      </c>
+      <c r="G1719" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1719" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1719" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1719" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1719">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1720" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B1720" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>813</v>
+      </c>
+      <c r="E1720">
+        <v>1</v>
+      </c>
+      <c r="F1720">
+        <v>1</v>
+      </c>
+      <c r="G1720" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1720" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1720" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1720" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1720">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1721" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B1721" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1721">
+        <v>2.5</v>
+      </c>
+      <c r="F1721">
+        <v>1</v>
+      </c>
+      <c r="G1721" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H1721" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1721" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1721" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1721">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1722" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B1722" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E1722">
+        <v>1</v>
+      </c>
+      <c r="F1722">
+        <v>1</v>
+      </c>
+      <c r="G1722" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1722" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1722" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1722" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1722">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1723" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B1723" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1723">
+        <v>1.5</v>
+      </c>
+      <c r="F1723">
+        <v>1</v>
+      </c>
+      <c r="G1723" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1723" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1723" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1723" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1723">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1724" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B1724" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>2535</v>
+      </c>
+      <c r="E1724">
+        <v>1</v>
+      </c>
+      <c r="F1724">
+        <v>1</v>
+      </c>
+      <c r="G1724" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1724" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1724" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1724" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1724">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1725" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B1725" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E1725">
+        <v>1</v>
+      </c>
+      <c r="F1725">
+        <v>1</v>
+      </c>
+      <c r="G1725" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1725" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1725" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1725" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1725">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1726" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B1726" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E1726">
+        <v>2</v>
+      </c>
+      <c r="F1726">
+        <v>1</v>
+      </c>
+      <c r="G1726" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1726" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1726" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1726" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1726">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1727" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B1727" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>3106</v>
+      </c>
+      <c r="E1727">
+        <v>1</v>
+      </c>
+      <c r="F1727">
+        <v>1</v>
+      </c>
+      <c r="G1727" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1727" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1727" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1727" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1727">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1728" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B1728" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E1728">
+        <v>1</v>
+      </c>
+      <c r="F1728">
+        <v>1</v>
+      </c>
+      <c r="G1728" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1728" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1728" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1728" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1728">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1729" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B1729" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1729">
+        <v>1.5</v>
+      </c>
+      <c r="F1729">
+        <v>1</v>
+      </c>
+      <c r="G1729" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1729" s="1">
+        <v>45544</v>
+      </c>
+      <c r="I1729" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1729" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1729">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1730" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B1730" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>3112</v>
+      </c>
+      <c r="E1730">
+        <v>4.5</v>
+      </c>
+      <c r="F1730">
+        <v>1</v>
+      </c>
+      <c r="G1730" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H1730" s="1">
+        <v>45545</v>
+      </c>
+      <c r="I1730" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1730" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1730">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1731" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B1731" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E1731">
+        <v>3.1</v>
+      </c>
+      <c r="F1731">
+        <v>1</v>
+      </c>
+      <c r="G1731" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="H1731" s="1">
+        <v>45545</v>
+      </c>
+      <c r="I1731" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1731" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1731">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1732" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B1732" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1732">
+        <v>8</v>
+      </c>
+      <c r="F1732">
+        <v>1</v>
+      </c>
+      <c r="G1732" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1732" s="1">
+        <v>45545</v>
+      </c>
+      <c r="I1732" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1732" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1732">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1733" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B1733" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E1733">
+        <v>3</v>
+      </c>
+      <c r="F1733">
+        <v>1</v>
+      </c>
+      <c r="G1733" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1733" s="1">
+        <v>45545</v>
+      </c>
+      <c r="I1733" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1733" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1733">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1734" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B1734" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E1734">
+        <v>3.6</v>
+      </c>
+      <c r="F1734">
+        <v>1</v>
+      </c>
+      <c r="G1734" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H1734" s="1">
+        <v>45545</v>
+      </c>
+      <c r="I1734" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1734" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1734">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1735" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B1735" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E1735">
+        <v>1.5</v>
+      </c>
+      <c r="F1735">
+        <v>1</v>
+      </c>
+      <c r="G1735" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1735" s="1">
+        <v>45545</v>
+      </c>
+      <c r="I1735" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1735" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1735">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1736" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B1736" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1736">
+        <v>12.7</v>
+      </c>
+      <c r="F1736">
+        <v>0</v>
+      </c>
+      <c r="G1736" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1736" s="1">
+        <v>45546</v>
+      </c>
+      <c r="I1736" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1736" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1736">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1737" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B1737" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E1737">
+        <v>2.5</v>
+      </c>
+      <c r="F1737">
+        <v>0</v>
+      </c>
+      <c r="G1737" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1737" s="1">
+        <v>45546</v>
+      </c>
+      <c r="I1737" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1737" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1737">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1738" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B1738" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E1738">
+        <v>2.5</v>
+      </c>
+      <c r="F1738">
+        <v>1</v>
+      </c>
+      <c r="G1738" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H1738" s="1">
+        <v>45546</v>
+      </c>
+      <c r="I1738" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1738" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1738">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1739" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B1739" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E1739">
+        <v>2.5</v>
+      </c>
+      <c r="F1739">
+        <v>0</v>
+      </c>
+      <c r="G1739" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1739" s="1">
+        <v>45546</v>
+      </c>
+      <c r="I1739" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1739" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1739">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1740" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1740" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E1740">
+        <v>1.3</v>
+      </c>
+      <c r="F1740">
+        <v>1</v>
+      </c>
+      <c r="G1740" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H1740" s="1">
+        <v>45546</v>
+      </c>
+      <c r="I1740" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1740" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1740">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1741" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B1741" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>3135</v>
+      </c>
+      <c r="E1741">
+        <v>0.5</v>
+      </c>
+      <c r="F1741">
+        <v>1</v>
+      </c>
+      <c r="G1741" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1741" s="1">
+        <v>45546</v>
+      </c>
+      <c r="I1741" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1741" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1741">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1742" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B1742" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1742">
+        <v>4.2</v>
+      </c>
+      <c r="F1742">
+        <v>0</v>
+      </c>
+      <c r="G1742" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1742" s="1">
+        <v>45547</v>
+      </c>
+      <c r="I1742" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1742" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1742">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1743" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B1743" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E1743">
+        <v>2</v>
+      </c>
+      <c r="F1743">
+        <v>0</v>
+      </c>
+      <c r="G1743" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1743" s="1">
+        <v>45547</v>
+      </c>
+      <c r="I1743" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1743" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1743">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1744" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B1744" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>3143</v>
+      </c>
+      <c r="E1744">
+        <v>5.4</v>
+      </c>
+      <c r="F1744">
+        <v>1</v>
+      </c>
+      <c r="G1744" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H1744" s="1">
+        <v>45547</v>
+      </c>
+      <c r="I1744" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1744" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1744">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1745" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B1745" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E1745">
+        <v>0.9</v>
+      </c>
+      <c r="F1745">
+        <v>1</v>
+      </c>
+      <c r="G1745" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1745" s="1">
+        <v>45547</v>
+      </c>
+      <c r="I1745" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1745" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1745">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1746" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B1746" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E1746">
+        <v>4.7</v>
+      </c>
+      <c r="F1746">
+        <v>0</v>
+      </c>
+      <c r="G1746" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1746" s="1">
+        <v>45547</v>
+      </c>
+      <c r="I1746" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1746" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1746">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1747" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B1747" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>3151</v>
+      </c>
+      <c r="E1747">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F1747">
+        <v>1</v>
+      </c>
+      <c r="G1747" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H1747" s="1">
+        <v>45548</v>
+      </c>
+      <c r="I1747" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1747" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1747">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1748" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B1748" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E1748">
+        <v>7.9</v>
+      </c>
+      <c r="F1748">
+        <v>1</v>
+      </c>
+      <c r="G1748" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H1748" s="1">
+        <v>45548</v>
+      </c>
+      <c r="I1748" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1748" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1748">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1749" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B1749" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E1749">
+        <v>3</v>
+      </c>
+      <c r="F1749">
+        <v>1</v>
+      </c>
+      <c r="G1749" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1749" s="1">
+        <v>45548</v>
+      </c>
+      <c r="I1749" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1749" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1749">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1750" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B1750" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>3158</v>
+      </c>
+      <c r="F1750">
+        <v>0</v>
+      </c>
+      <c r="G1750" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1750" s="1">
+        <v>45548</v>
+      </c>
+      <c r="I1750" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1750" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1750">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1751" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B1751" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F1751">
+        <v>1</v>
+      </c>
+      <c r="G1751" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1751" s="1">
+        <v>45548</v>
+      </c>
+      <c r="I1751" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1751" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1751">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1752" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B1752" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E1752">
+        <v>2</v>
+      </c>
+      <c r="F1752">
+        <v>0</v>
+      </c>
+      <c r="G1752" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1752" s="1">
+        <v>45549</v>
+      </c>
+      <c r="I1752" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1752" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1752">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1753" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B1753" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1753">
+        <v>2</v>
+      </c>
+      <c r="F1753">
+        <v>1</v>
+      </c>
+      <c r="G1753" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1753" s="1">
+        <v>45549</v>
+      </c>
+      <c r="I1753" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1753" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1753">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1754" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B1754" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E1754">
+        <v>1.5</v>
+      </c>
+      <c r="F1754">
+        <v>0</v>
+      </c>
+      <c r="G1754" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1754" s="1">
+        <v>45549</v>
+      </c>
+      <c r="I1754" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1754" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1754">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1755" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B1755" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>3143</v>
+      </c>
+      <c r="E1755">
+        <v>5.4</v>
+      </c>
+      <c r="F1755">
+        <v>1</v>
+      </c>
+      <c r="G1755" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H1755" s="1">
+        <v>45549</v>
+      </c>
+      <c r="I1755" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1755" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1755">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1756" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B1756" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E1756">
+        <v>0.9</v>
+      </c>
+      <c r="F1756">
+        <v>0</v>
+      </c>
+      <c r="G1756" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1756" s="1">
+        <v>45549</v>
+      </c>
+      <c r="I1756" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1756" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1756">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/produccion.xlsx
+++ b/datasets/produccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAC4D2E3-680A-47B4-B5AE-FD1FA2C65D34}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{079356F9-A836-49EE-A3A5-1BE6129B7483}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B4B7E62A-ACE4-488F-B31E-63058BE35439}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10174" uniqueCount="3169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10414" uniqueCount="3246">
   <si>
     <t>COD</t>
   </si>
@@ -9543,6 +9543,237 @@
   </si>
   <si>
     <t>1 pta inter</t>
+  </si>
+  <si>
+    <t>1;45552;Entregables</t>
+  </si>
+  <si>
+    <t>DEP 603 INJESA</t>
+  </si>
+  <si>
+    <t>2;45552;Entregables</t>
+  </si>
+  <si>
+    <t>3;45552;Entregables</t>
+  </si>
+  <si>
+    <t>1P Bajo Esc.</t>
+  </si>
+  <si>
+    <t>4;45552;Entregables</t>
+  </si>
+  <si>
+    <t>1 Celosía</t>
+  </si>
+  <si>
+    <t>5;45552;Entregables</t>
+  </si>
+  <si>
+    <t>1P P. Baja</t>
+  </si>
+  <si>
+    <t>6;45552;Entregables</t>
+  </si>
+  <si>
+    <t>1Mod. Sala</t>
+  </si>
+  <si>
+    <t>1;45552;Extras</t>
+  </si>
+  <si>
+    <t>1Vista Oxford</t>
+  </si>
+  <si>
+    <t>2;45552;Extras</t>
+  </si>
+  <si>
+    <t>5 Tiras</t>
+  </si>
+  <si>
+    <t>3;45552;Extras</t>
+  </si>
+  <si>
+    <t>Faldones</t>
+  </si>
+  <si>
+    <t>1;45552;Retrabajos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASA MATA </t>
+  </si>
+  <si>
+    <t>1 Puerta</t>
+  </si>
+  <si>
+    <t>1;45553;Entregables</t>
+  </si>
+  <si>
+    <t>JAVIER MEDINA</t>
+  </si>
+  <si>
+    <t>2;45553;Entregables</t>
+  </si>
+  <si>
+    <t>VERONICA ERÓN</t>
+  </si>
+  <si>
+    <t>3;45553;Entregables</t>
+  </si>
+  <si>
+    <t>Recubrimiento Comp.</t>
+  </si>
+  <si>
+    <t>4;45553;Entregables</t>
+  </si>
+  <si>
+    <t>5;45553;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA BILBAO TC. 1,2,3</t>
+  </si>
+  <si>
+    <t>x3 Cl 01</t>
+  </si>
+  <si>
+    <t>6;45553;Entregables</t>
+  </si>
+  <si>
+    <t>x3 Cl 02</t>
+  </si>
+  <si>
+    <t>7;45553;Entregables</t>
+  </si>
+  <si>
+    <t>x3 MDB</t>
+  </si>
+  <si>
+    <t>8;45553;Entregables</t>
+  </si>
+  <si>
+    <t>x3 Cocinas</t>
+  </si>
+  <si>
+    <t>1;45553;Extras</t>
+  </si>
+  <si>
+    <t>STAR MEDICA</t>
+  </si>
+  <si>
+    <t>1 Banca</t>
+  </si>
+  <si>
+    <t>2;45553;Extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICKY OROZCO </t>
+  </si>
+  <si>
+    <t>9 Ajustes</t>
+  </si>
+  <si>
+    <t>3;45553;Extras</t>
+  </si>
+  <si>
+    <t>1Mod Esc.</t>
+  </si>
+  <si>
+    <t>4;45553;Extras</t>
+  </si>
+  <si>
+    <t>ARRACHAZ</t>
+  </si>
+  <si>
+    <t>1Mod Hostess</t>
+  </si>
+  <si>
+    <t>5;45553;Extras</t>
+  </si>
+  <si>
+    <t>MEDA CASA ZAMORA</t>
+  </si>
+  <si>
+    <t>6 Cloaet</t>
+  </si>
+  <si>
+    <t>6;45553;Extras</t>
+  </si>
+  <si>
+    <t>1;45554;Entregables</t>
+  </si>
+  <si>
+    <t>Front Desk</t>
+  </si>
+  <si>
+    <t>2;45554;Entregables</t>
+  </si>
+  <si>
+    <t>HERCOM 301</t>
+  </si>
+  <si>
+    <t>3;45554;Entregables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEESA BILBAO TC 4,5,6 </t>
+  </si>
+  <si>
+    <t>4;45554;Entregables</t>
+  </si>
+  <si>
+    <t>5;45554;Entregables</t>
+  </si>
+  <si>
+    <t>6;45554;Entregables</t>
+  </si>
+  <si>
+    <t>2;45555;Entregables</t>
+  </si>
+  <si>
+    <t>3;45555;Entregables</t>
+  </si>
+  <si>
+    <t>4;45555;Entregables</t>
+  </si>
+  <si>
+    <t>5;45555;Entregables</t>
+  </si>
+  <si>
+    <t>VALBA T01 3/15</t>
+  </si>
+  <si>
+    <t>6;45555;Entregables</t>
+  </si>
+  <si>
+    <t>x5 Cubiertas</t>
+  </si>
+  <si>
+    <t>1;45556;Entregables</t>
+  </si>
+  <si>
+    <t>VISTA VERDE L34 Y 35</t>
+  </si>
+  <si>
+    <t>2P Ppal.</t>
+  </si>
+  <si>
+    <t>2;45556;Entregables</t>
+  </si>
+  <si>
+    <t>VISTA VERDE L37</t>
+  </si>
+  <si>
+    <t>3;45556;Entregables</t>
+  </si>
+  <si>
+    <t>4;45556;Entregables</t>
+  </si>
+  <si>
+    <t>5;45556;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA BILBAO BARRAS</t>
+  </si>
+  <si>
+    <t>x6 Barras</t>
   </si>
 </sst>
 </file>
@@ -9609,9 +9840,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1756" totalsRowShown="0">
-  <autoFilter ref="A1:K1756" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1796" totalsRowShown="0">
+  <autoFilter ref="A1:K1796" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B6ECC9CA-BE29-4C5B-9606-01CFB697A054}" name="COD"/>
     <tableColumn id="2" xr3:uid="{C7D7DD62-79C4-4423-B87E-1408D1237598}" name="CTVV" dataDxfId="2"/>
@@ -9946,10 +10181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEF2190-C283-43C9-B0E2-E2F3DD6D60C6}">
-  <dimension ref="A1:K1756"/>
+  <dimension ref="A1:K1796"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1703" workbookViewId="0">
-      <selection activeCell="J1707" sqref="J1707"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1765" workbookViewId="0">
+      <selection activeCell="A1757" sqref="A1757:K1796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -69356,7 +69591,7 @@
       <c r="A1718" t="s">
         <v>3086</v>
       </c>
-      <c r="B1718" s="2" t="s">
+      <c r="B1718" t="s">
         <v>1507</v>
       </c>
       <c r="C1718" t="s">
@@ -69371,7 +69606,7 @@
       <c r="F1718">
         <v>1</v>
       </c>
-      <c r="G1718" s="2">
+      <c r="G1718">
         <v>1</v>
       </c>
       <c r="H1718" s="1">
@@ -69391,7 +69626,7 @@
       <c r="A1719" t="s">
         <v>3088</v>
       </c>
-      <c r="B1719" s="2" t="s">
+      <c r="B1719" t="s">
         <v>550</v>
       </c>
       <c r="C1719" t="s">
@@ -69406,7 +69641,7 @@
       <c r="F1719">
         <v>1</v>
       </c>
-      <c r="G1719" s="2">
+      <c r="G1719">
         <v>2</v>
       </c>
       <c r="H1719" s="1">
@@ -69426,7 +69661,7 @@
       <c r="A1720" t="s">
         <v>3091</v>
       </c>
-      <c r="B1720" s="2" t="s">
+      <c r="B1720" t="s">
         <v>550</v>
       </c>
       <c r="C1720" t="s">
@@ -69441,7 +69676,7 @@
       <c r="F1720">
         <v>1</v>
       </c>
-      <c r="G1720" s="2">
+      <c r="G1720">
         <v>1</v>
       </c>
       <c r="H1720" s="1">
@@ -69461,7 +69696,7 @@
       <c r="A1721" t="s">
         <v>3092</v>
       </c>
-      <c r="B1721" s="2" t="s">
+      <c r="B1721" t="s">
         <v>550</v>
       </c>
       <c r="C1721" t="s">
@@ -69476,7 +69711,7 @@
       <c r="F1721">
         <v>1</v>
       </c>
-      <c r="G1721" s="2">
+      <c r="G1721">
         <v>2.5</v>
       </c>
       <c r="H1721" s="1">
@@ -69496,7 +69731,7 @@
       <c r="A1722" t="s">
         <v>3094</v>
       </c>
-      <c r="B1722" s="2" t="s">
+      <c r="B1722" t="s">
         <v>550</v>
       </c>
       <c r="C1722" t="s">
@@ -69511,7 +69746,7 @@
       <c r="F1722">
         <v>1</v>
       </c>
-      <c r="G1722" s="2">
+      <c r="G1722">
         <v>1</v>
       </c>
       <c r="H1722" s="1">
@@ -69531,7 +69766,7 @@
       <c r="A1723" t="s">
         <v>3096</v>
       </c>
-      <c r="B1723" s="2" t="s">
+      <c r="B1723" t="s">
         <v>550</v>
       </c>
       <c r="C1723" t="s">
@@ -69546,7 +69781,7 @@
       <c r="F1723">
         <v>1</v>
       </c>
-      <c r="G1723" s="2">
+      <c r="G1723">
         <v>1.5</v>
       </c>
       <c r="H1723" s="1">
@@ -69566,7 +69801,7 @@
       <c r="A1724" t="s">
         <v>3098</v>
       </c>
-      <c r="B1724" s="2" t="s">
+      <c r="B1724" t="s">
         <v>550</v>
       </c>
       <c r="C1724" t="s">
@@ -69581,7 +69816,7 @@
       <c r="F1724">
         <v>1</v>
       </c>
-      <c r="G1724" s="2">
+      <c r="G1724">
         <v>1</v>
       </c>
       <c r="H1724" s="1">
@@ -69601,7 +69836,7 @@
       <c r="A1725" t="s">
         <v>3099</v>
       </c>
-      <c r="B1725" s="2" t="s">
+      <c r="B1725" t="s">
         <v>1507</v>
       </c>
       <c r="C1725" t="s">
@@ -69616,7 +69851,7 @@
       <c r="F1725">
         <v>1</v>
       </c>
-      <c r="G1725" s="2">
+      <c r="G1725">
         <v>1</v>
       </c>
       <c r="H1725" s="1">
@@ -69636,7 +69871,7 @@
       <c r="A1726" t="s">
         <v>3101</v>
       </c>
-      <c r="B1726" s="2" t="s">
+      <c r="B1726" t="s">
         <v>550</v>
       </c>
       <c r="C1726" t="s">
@@ -69651,7 +69886,7 @@
       <c r="F1726">
         <v>1</v>
       </c>
-      <c r="G1726" s="2">
+      <c r="G1726">
         <v>2</v>
       </c>
       <c r="H1726" s="1">
@@ -69671,7 +69906,7 @@
       <c r="A1727" t="s">
         <v>3104</v>
       </c>
-      <c r="B1727" s="2" t="s">
+      <c r="B1727" t="s">
         <v>550</v>
       </c>
       <c r="C1727" t="s">
@@ -69686,7 +69921,7 @@
       <c r="F1727">
         <v>1</v>
       </c>
-      <c r="G1727" s="2">
+      <c r="G1727">
         <v>1</v>
       </c>
       <c r="H1727" s="1">
@@ -69706,7 +69941,7 @@
       <c r="A1728" t="s">
         <v>3107</v>
       </c>
-      <c r="B1728" s="2" t="s">
+      <c r="B1728" t="s">
         <v>550</v>
       </c>
       <c r="C1728" t="s">
@@ -69721,7 +69956,7 @@
       <c r="F1728">
         <v>1</v>
       </c>
-      <c r="G1728" s="2">
+      <c r="G1728">
         <v>1</v>
       </c>
       <c r="H1728" s="1">
@@ -69741,7 +69976,7 @@
       <c r="A1729" t="s">
         <v>3109</v>
       </c>
-      <c r="B1729" s="2" t="s">
+      <c r="B1729" t="s">
         <v>550</v>
       </c>
       <c r="C1729" t="s">
@@ -69756,7 +69991,7 @@
       <c r="F1729">
         <v>1</v>
       </c>
-      <c r="G1729" s="2">
+      <c r="G1729">
         <v>1.5</v>
       </c>
       <c r="H1729" s="1">
@@ -69776,7 +70011,7 @@
       <c r="A1730" t="s">
         <v>3110</v>
       </c>
-      <c r="B1730" s="2" t="s">
+      <c r="B1730" t="s">
         <v>550</v>
       </c>
       <c r="C1730" t="s">
@@ -69791,7 +70026,7 @@
       <c r="F1730">
         <v>1</v>
       </c>
-      <c r="G1730" s="2">
+      <c r="G1730">
         <v>4.5</v>
       </c>
       <c r="H1730" s="1">
@@ -69811,7 +70046,7 @@
       <c r="A1731" t="s">
         <v>3113</v>
       </c>
-      <c r="B1731" s="2" t="s">
+      <c r="B1731" t="s">
         <v>550</v>
       </c>
       <c r="C1731" t="s">
@@ -69826,7 +70061,7 @@
       <c r="F1731">
         <v>1</v>
       </c>
-      <c r="G1731" s="2">
+      <c r="G1731">
         <v>3.1</v>
       </c>
       <c r="H1731" s="1">
@@ -69846,7 +70081,7 @@
       <c r="A1732" t="s">
         <v>3116</v>
       </c>
-      <c r="B1732" s="2" t="s">
+      <c r="B1732" t="s">
         <v>550</v>
       </c>
       <c r="C1732" t="s">
@@ -69861,7 +70096,7 @@
       <c r="F1732">
         <v>1</v>
       </c>
-      <c r="G1732" s="2">
+      <c r="G1732">
         <v>8</v>
       </c>
       <c r="H1732" s="1">
@@ -69881,7 +70116,7 @@
       <c r="A1733" t="s">
         <v>3118</v>
       </c>
-      <c r="B1733" s="2" t="s">
+      <c r="B1733" t="s">
         <v>550</v>
       </c>
       <c r="C1733" t="s">
@@ -69896,7 +70131,7 @@
       <c r="F1733">
         <v>1</v>
       </c>
-      <c r="G1733" s="2">
+      <c r="G1733">
         <v>3</v>
       </c>
       <c r="H1733" s="1">
@@ -69916,7 +70151,7 @@
       <c r="A1734" t="s">
         <v>3120</v>
       </c>
-      <c r="B1734" s="2" t="s">
+      <c r="B1734" t="s">
         <v>550</v>
       </c>
       <c r="C1734" t="s">
@@ -69931,7 +70166,7 @@
       <c r="F1734">
         <v>1</v>
       </c>
-      <c r="G1734" s="2">
+      <c r="G1734">
         <v>3.6</v>
       </c>
       <c r="H1734" s="1">
@@ -69951,7 +70186,7 @@
       <c r="A1735" t="s">
         <v>3123</v>
       </c>
-      <c r="B1735" s="2" t="s">
+      <c r="B1735" t="s">
         <v>550</v>
       </c>
       <c r="C1735" t="s">
@@ -69966,7 +70201,7 @@
       <c r="F1735">
         <v>1</v>
       </c>
-      <c r="G1735" s="2">
+      <c r="G1735">
         <v>1.5</v>
       </c>
       <c r="H1735" s="1">
@@ -69986,7 +70221,7 @@
       <c r="A1736" t="s">
         <v>3124</v>
       </c>
-      <c r="B1736" s="2" t="s">
+      <c r="B1736" t="s">
         <v>550</v>
       </c>
       <c r="C1736" t="s">
@@ -70001,7 +70236,7 @@
       <c r="F1736">
         <v>0</v>
       </c>
-      <c r="G1736" s="2">
+      <c r="G1736">
         <v>0</v>
       </c>
       <c r="H1736" s="1">
@@ -70021,7 +70256,7 @@
       <c r="A1737" t="s">
         <v>3126</v>
       </c>
-      <c r="B1737" s="2" t="s">
+      <c r="B1737" t="s">
         <v>550</v>
       </c>
       <c r="C1737" t="s">
@@ -70036,7 +70271,7 @@
       <c r="F1737">
         <v>0</v>
       </c>
-      <c r="G1737" s="2">
+      <c r="G1737">
         <v>0</v>
       </c>
       <c r="H1737" s="1">
@@ -70056,7 +70291,7 @@
       <c r="A1738" t="s">
         <v>3129</v>
       </c>
-      <c r="B1738" s="2" t="s">
+      <c r="B1738" t="s">
         <v>550</v>
       </c>
       <c r="C1738" t="s">
@@ -70071,7 +70306,7 @@
       <c r="F1738">
         <v>1</v>
       </c>
-      <c r="G1738" s="2">
+      <c r="G1738">
         <v>2.5</v>
       </c>
       <c r="H1738" s="1">
@@ -70091,7 +70326,7 @@
       <c r="A1739" t="s">
         <v>3131</v>
       </c>
-      <c r="B1739" s="2" t="s">
+      <c r="B1739" t="s">
         <v>550</v>
       </c>
       <c r="C1739" t="s">
@@ -70106,7 +70341,7 @@
       <c r="F1739">
         <v>0</v>
       </c>
-      <c r="G1739" s="2">
+      <c r="G1739">
         <v>0</v>
       </c>
       <c r="H1739" s="1">
@@ -70126,7 +70361,7 @@
       <c r="A1740" t="s">
         <v>3132</v>
       </c>
-      <c r="B1740" s="2" t="s">
+      <c r="B1740" t="s">
         <v>550</v>
       </c>
       <c r="C1740" t="s">
@@ -70141,7 +70376,7 @@
       <c r="F1740">
         <v>1</v>
       </c>
-      <c r="G1740" s="2">
+      <c r="G1740">
         <v>1.3</v>
       </c>
       <c r="H1740" s="1">
@@ -70161,7 +70396,7 @@
       <c r="A1741" t="s">
         <v>3134</v>
       </c>
-      <c r="B1741" s="2" t="s">
+      <c r="B1741" t="s">
         <v>550</v>
       </c>
       <c r="C1741" t="s">
@@ -70176,7 +70411,7 @@
       <c r="F1741">
         <v>1</v>
       </c>
-      <c r="G1741" s="2">
+      <c r="G1741">
         <v>0.5</v>
       </c>
       <c r="H1741" s="1">
@@ -70196,7 +70431,7 @@
       <c r="A1742" t="s">
         <v>3136</v>
       </c>
-      <c r="B1742" s="2" t="s">
+      <c r="B1742" t="s">
         <v>550</v>
       </c>
       <c r="C1742" t="s">
@@ -70211,7 +70446,7 @@
       <c r="F1742">
         <v>0</v>
       </c>
-      <c r="G1742" s="2">
+      <c r="G1742">
         <v>0</v>
       </c>
       <c r="H1742" s="1">
@@ -70231,7 +70466,7 @@
       <c r="A1743" t="s">
         <v>3138</v>
       </c>
-      <c r="B1743" s="2" t="s">
+      <c r="B1743" t="s">
         <v>550</v>
       </c>
       <c r="C1743" t="s">
@@ -70246,7 +70481,7 @@
       <c r="F1743">
         <v>0</v>
       </c>
-      <c r="G1743" s="2">
+      <c r="G1743">
         <v>0</v>
       </c>
       <c r="H1743" s="1">
@@ -70266,7 +70501,7 @@
       <c r="A1744" t="s">
         <v>3141</v>
       </c>
-      <c r="B1744" s="2" t="s">
+      <c r="B1744" t="s">
         <v>550</v>
       </c>
       <c r="C1744" t="s">
@@ -70281,7 +70516,7 @@
       <c r="F1744">
         <v>1</v>
       </c>
-      <c r="G1744" s="2">
+      <c r="G1744">
         <v>5.4</v>
       </c>
       <c r="H1744" s="1">
@@ -70301,7 +70536,7 @@
       <c r="A1745" t="s">
         <v>3144</v>
       </c>
-      <c r="B1745" s="2" t="s">
+      <c r="B1745" t="s">
         <v>550</v>
       </c>
       <c r="C1745" t="s">
@@ -70316,7 +70551,7 @@
       <c r="F1745">
         <v>1</v>
       </c>
-      <c r="G1745" s="2">
+      <c r="G1745">
         <v>0.9</v>
       </c>
       <c r="H1745" s="1">
@@ -70336,7 +70571,7 @@
       <c r="A1746" t="s">
         <v>3146</v>
       </c>
-      <c r="B1746" s="2" t="s">
+      <c r="B1746" t="s">
         <v>550</v>
       </c>
       <c r="C1746" t="s">
@@ -70351,7 +70586,7 @@
       <c r="F1746">
         <v>0</v>
       </c>
-      <c r="G1746" s="2">
+      <c r="G1746">
         <v>0</v>
       </c>
       <c r="H1746" s="1">
@@ -70371,7 +70606,7 @@
       <c r="A1747" t="s">
         <v>3149</v>
       </c>
-      <c r="B1747" s="2" t="s">
+      <c r="B1747" t="s">
         <v>550</v>
       </c>
       <c r="C1747" t="s">
@@ -70386,7 +70621,7 @@
       <c r="F1747">
         <v>1</v>
       </c>
-      <c r="G1747" s="2">
+      <c r="G1747">
         <v>4.5999999999999996</v>
       </c>
       <c r="H1747" s="1">
@@ -70406,7 +70641,7 @@
       <c r="A1748" t="s">
         <v>3152</v>
       </c>
-      <c r="B1748" s="2" t="s">
+      <c r="B1748" t="s">
         <v>550</v>
       </c>
       <c r="C1748" t="s">
@@ -70421,7 +70656,7 @@
       <c r="F1748">
         <v>1</v>
       </c>
-      <c r="G1748" s="2">
+      <c r="G1748">
         <v>7.9</v>
       </c>
       <c r="H1748" s="1">
@@ -70441,7 +70676,7 @@
       <c r="A1749" t="s">
         <v>3154</v>
       </c>
-      <c r="B1749" s="2" t="s">
+      <c r="B1749" t="s">
         <v>550</v>
       </c>
       <c r="C1749" t="s">
@@ -70456,7 +70691,7 @@
       <c r="F1749">
         <v>1</v>
       </c>
-      <c r="G1749" s="2">
+      <c r="G1749">
         <v>3</v>
       </c>
       <c r="H1749" s="1">
@@ -70476,7 +70711,7 @@
       <c r="A1750" t="s">
         <v>3156</v>
       </c>
-      <c r="B1750" s="2" t="s">
+      <c r="B1750" t="s">
         <v>550</v>
       </c>
       <c r="C1750" t="s">
@@ -70488,7 +70723,7 @@
       <c r="F1750">
         <v>0</v>
       </c>
-      <c r="G1750" s="2">
+      <c r="G1750">
         <v>0</v>
       </c>
       <c r="H1750" s="1">
@@ -70508,7 +70743,7 @@
       <c r="A1751" t="s">
         <v>3159</v>
       </c>
-      <c r="B1751" s="2" t="s">
+      <c r="B1751" t="s">
         <v>550</v>
       </c>
       <c r="C1751" t="s">
@@ -70520,7 +70755,7 @@
       <c r="F1751">
         <v>1</v>
       </c>
-      <c r="G1751" s="2">
+      <c r="G1751">
         <v>0</v>
       </c>
       <c r="H1751" s="1">
@@ -70540,7 +70775,7 @@
       <c r="A1752" t="s">
         <v>3160</v>
       </c>
-      <c r="B1752" s="2" t="s">
+      <c r="B1752" t="s">
         <v>550</v>
       </c>
       <c r="C1752" t="s">
@@ -70555,7 +70790,7 @@
       <c r="F1752">
         <v>0</v>
       </c>
-      <c r="G1752" s="2">
+      <c r="G1752">
         <v>0</v>
       </c>
       <c r="H1752" s="1">
@@ -70575,7 +70810,7 @@
       <c r="A1753" t="s">
         <v>3162</v>
       </c>
-      <c r="B1753" s="2" t="s">
+      <c r="B1753" t="s">
         <v>550</v>
       </c>
       <c r="C1753" t="s">
@@ -70590,7 +70825,7 @@
       <c r="F1753">
         <v>1</v>
       </c>
-      <c r="G1753" s="2">
+      <c r="G1753">
         <v>2</v>
       </c>
       <c r="H1753" s="1">
@@ -70610,7 +70845,7 @@
       <c r="A1754" t="s">
         <v>3163</v>
       </c>
-      <c r="B1754" s="2" t="s">
+      <c r="B1754" t="s">
         <v>550</v>
       </c>
       <c r="C1754" t="s">
@@ -70625,7 +70860,7 @@
       <c r="F1754">
         <v>0</v>
       </c>
-      <c r="G1754" s="2">
+      <c r="G1754">
         <v>0</v>
       </c>
       <c r="H1754" s="1">
@@ -70645,7 +70880,7 @@
       <c r="A1755" t="s">
         <v>3165</v>
       </c>
-      <c r="B1755" s="2" t="s">
+      <c r="B1755" t="s">
         <v>550</v>
       </c>
       <c r="C1755" t="s">
@@ -70660,7 +70895,7 @@
       <c r="F1755">
         <v>1</v>
       </c>
-      <c r="G1755" s="2">
+      <c r="G1755">
         <v>5.4</v>
       </c>
       <c r="H1755" s="1">
@@ -70680,7 +70915,7 @@
       <c r="A1756" t="s">
         <v>3166</v>
       </c>
-      <c r="B1756" s="2" t="s">
+      <c r="B1756" t="s">
         <v>550</v>
       </c>
       <c r="C1756" t="s">
@@ -70695,7 +70930,7 @@
       <c r="F1756">
         <v>0</v>
       </c>
-      <c r="G1756" s="2">
+      <c r="G1756">
         <v>0</v>
       </c>
       <c r="H1756" s="1">
@@ -70709,6 +70944,1406 @@
       </c>
       <c r="K1756">
         <v>37</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1757" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B1757" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>3170</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E1757">
+        <v>2.5</v>
+      </c>
+      <c r="F1757">
+        <v>0</v>
+      </c>
+      <c r="G1757" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1757" s="1">
+        <v>45552</v>
+      </c>
+      <c r="I1757" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1757" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1757">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1758" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B1758" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>3170</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1758">
+        <v>4.2</v>
+      </c>
+      <c r="F1758">
+        <v>0</v>
+      </c>
+      <c r="G1758" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1758" s="1">
+        <v>45552</v>
+      </c>
+      <c r="I1758" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1758" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1758">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1759" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B1759" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E1759">
+        <v>1.5</v>
+      </c>
+      <c r="F1759">
+        <v>1</v>
+      </c>
+      <c r="G1759" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1759" s="1">
+        <v>45552</v>
+      </c>
+      <c r="I1759" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1759" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1759">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1760" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B1760" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E1760">
+        <v>2</v>
+      </c>
+      <c r="F1760">
+        <v>1</v>
+      </c>
+      <c r="G1760" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1760" s="1">
+        <v>45552</v>
+      </c>
+      <c r="I1760" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1760" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1760">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1761" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B1761" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E1761">
+        <v>1</v>
+      </c>
+      <c r="F1761">
+        <v>1</v>
+      </c>
+      <c r="G1761" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1761" s="1">
+        <v>45552</v>
+      </c>
+      <c r="I1761" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1761" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1761">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1762" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B1762" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E1762">
+        <v>0.9</v>
+      </c>
+      <c r="F1762">
+        <v>1</v>
+      </c>
+      <c r="G1762" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1762" s="1">
+        <v>45552</v>
+      </c>
+      <c r="I1762" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1762" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1762">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1763" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B1763" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E1763">
+        <v>1</v>
+      </c>
+      <c r="F1763">
+        <v>1</v>
+      </c>
+      <c r="G1763" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1763" s="1">
+        <v>45552</v>
+      </c>
+      <c r="I1763" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1763" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1763">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1764" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B1764" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E1764">
+        <v>1</v>
+      </c>
+      <c r="F1764">
+        <v>1</v>
+      </c>
+      <c r="G1764" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1764" s="1">
+        <v>45552</v>
+      </c>
+      <c r="I1764" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1764" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1764">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1765" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1765" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>3185</v>
+      </c>
+      <c r="E1765">
+        <v>1</v>
+      </c>
+      <c r="F1765">
+        <v>1</v>
+      </c>
+      <c r="G1765" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1765" s="1">
+        <v>45552</v>
+      </c>
+      <c r="I1765" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1765" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1765">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1766" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1766" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E1766">
+        <v>0.7</v>
+      </c>
+      <c r="F1766">
+        <v>1</v>
+      </c>
+      <c r="G1766" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H1766" s="1">
+        <v>45552</v>
+      </c>
+      <c r="I1766" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1766" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1766">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1767" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B1767" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1767">
+        <v>12.7</v>
+      </c>
+      <c r="F1767">
+        <v>1</v>
+      </c>
+      <c r="G1767" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="H1767" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1767" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1767" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1767">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1768" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B1768" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1768">
+        <v>4.7</v>
+      </c>
+      <c r="F1768">
+        <v>1</v>
+      </c>
+      <c r="G1768" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="H1768" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1768" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1768" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1768">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1769" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1769" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>3194</v>
+      </c>
+      <c r="E1769">
+        <v>1</v>
+      </c>
+      <c r="F1769">
+        <v>1</v>
+      </c>
+      <c r="G1769" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1769" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1769" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1769" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1769">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1770" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B1770" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E1770">
+        <v>0.9</v>
+      </c>
+      <c r="F1770">
+        <v>0</v>
+      </c>
+      <c r="G1770" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1770" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1770" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1770" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1770">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1771" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B1771" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E1771">
+        <v>5.4</v>
+      </c>
+      <c r="F1771">
+        <v>1</v>
+      </c>
+      <c r="G1771" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H1771" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1771" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1771" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1771">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1772" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B1772" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E1772">
+        <v>6.9</v>
+      </c>
+      <c r="F1772">
+        <v>1</v>
+      </c>
+      <c r="G1772" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="H1772" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1772" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1772" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1772">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1773" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B1773" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E1773">
+        <v>1.8</v>
+      </c>
+      <c r="F1773">
+        <v>1</v>
+      </c>
+      <c r="G1773" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H1773" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1773" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1773" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1773">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1774" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B1774" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>3204</v>
+      </c>
+      <c r="E1774">
+        <v>14.4</v>
+      </c>
+      <c r="F1774">
+        <v>1</v>
+      </c>
+      <c r="G1774" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="H1774" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1774" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1774" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1774">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1775" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B1775" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E1775">
+        <v>1</v>
+      </c>
+      <c r="F1775">
+        <v>1</v>
+      </c>
+      <c r="G1775" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1775" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1775" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1775" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1775">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1776" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1776" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>3210</v>
+      </c>
+      <c r="E1776">
+        <v>1.5</v>
+      </c>
+      <c r="F1776">
+        <v>1</v>
+      </c>
+      <c r="G1776" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H1776" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1776" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1776" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1776">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1777" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B1777" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E1777">
+        <v>0.9</v>
+      </c>
+      <c r="F1777">
+        <v>1</v>
+      </c>
+      <c r="G1777" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1777" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1777" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1777" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1777">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1778" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B1778" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E1778">
+        <v>0.9</v>
+      </c>
+      <c r="F1778">
+        <v>1</v>
+      </c>
+      <c r="G1778" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1778" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1778" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1778" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1778">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1779" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B1779" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E1779">
+        <v>12.6</v>
+      </c>
+      <c r="F1779">
+        <v>1</v>
+      </c>
+      <c r="G1779" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="H1779" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1779" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1779" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1779">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1780" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B1780" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1780">
+        <v>14.8</v>
+      </c>
+      <c r="F1780">
+        <v>1</v>
+      </c>
+      <c r="G1780" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="H1780" s="1">
+        <v>45553</v>
+      </c>
+      <c r="I1780" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1780" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1780">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1781" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B1781" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E1781">
+        <v>2.5</v>
+      </c>
+      <c r="F1781">
+        <v>0</v>
+      </c>
+      <c r="G1781" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1781" s="1">
+        <v>45554</v>
+      </c>
+      <c r="I1781" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1781" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1781">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1782" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B1782" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E1782">
+        <v>1</v>
+      </c>
+      <c r="F1782">
+        <v>1</v>
+      </c>
+      <c r="G1782" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1782" s="1">
+        <v>45554</v>
+      </c>
+      <c r="I1782" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1782" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1782">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1783" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B1783" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E1783">
+        <v>5.4</v>
+      </c>
+      <c r="F1783">
+        <v>0</v>
+      </c>
+      <c r="G1783" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1783" s="1">
+        <v>45554</v>
+      </c>
+      <c r="I1783" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1783" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1783">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1784" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B1784" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E1784">
+        <v>6.9</v>
+      </c>
+      <c r="F1784">
+        <v>0</v>
+      </c>
+      <c r="G1784" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1784" s="1">
+        <v>45554</v>
+      </c>
+      <c r="I1784" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1784" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1784">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1785" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B1785" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E1785">
+        <v>1.8</v>
+      </c>
+      <c r="F1785">
+        <v>1</v>
+      </c>
+      <c r="G1785" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H1785" s="1">
+        <v>45554</v>
+      </c>
+      <c r="I1785" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1785" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1785">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1786" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B1786" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>3204</v>
+      </c>
+      <c r="E1786">
+        <v>14.4</v>
+      </c>
+      <c r="F1786">
+        <v>0</v>
+      </c>
+      <c r="G1786" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1786" s="1">
+        <v>45554</v>
+      </c>
+      <c r="I1786" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1786" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1786">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1787" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B1787" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E1787">
+        <v>6</v>
+      </c>
+      <c r="F1787">
+        <v>1</v>
+      </c>
+      <c r="G1787" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1787" s="1">
+        <v>45555</v>
+      </c>
+      <c r="I1787" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1787" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1787">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1788" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B1788" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1788">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F1788">
+        <v>1</v>
+      </c>
+      <c r="G1788" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H1788" s="1">
+        <v>45555</v>
+      </c>
+      <c r="I1788" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1788" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1788">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1789" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1789" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E1789">
+        <v>5.3</v>
+      </c>
+      <c r="F1789">
+        <v>0</v>
+      </c>
+      <c r="G1789" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1789" s="1">
+        <v>45555</v>
+      </c>
+      <c r="I1789" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1789" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1789">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1790" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B1790" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>3204</v>
+      </c>
+      <c r="E1790">
+        <v>5.4</v>
+      </c>
+      <c r="F1790">
+        <v>1</v>
+      </c>
+      <c r="G1790" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H1790" s="1">
+        <v>45555</v>
+      </c>
+      <c r="I1790" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1790" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1790">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1791" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B1791" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>3235</v>
+      </c>
+      <c r="E1791">
+        <v>3.6</v>
+      </c>
+      <c r="F1791">
+        <v>1</v>
+      </c>
+      <c r="G1791" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H1791" s="1">
+        <v>45555</v>
+      </c>
+      <c r="I1791" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1791" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1791">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1792" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B1792" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>3238</v>
+      </c>
+      <c r="E1792">
+        <v>5</v>
+      </c>
+      <c r="F1792">
+        <v>0</v>
+      </c>
+      <c r="G1792" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1792" s="1">
+        <v>45556</v>
+      </c>
+      <c r="I1792" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1792" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1792">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1793" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B1793" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1793">
+        <v>7.2</v>
+      </c>
+      <c r="F1793">
+        <v>0</v>
+      </c>
+      <c r="G1793" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1793" s="1">
+        <v>45556</v>
+      </c>
+      <c r="I1793" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1793" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1793">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1794" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1794" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>2889</v>
+      </c>
+      <c r="E1794">
+        <v>1</v>
+      </c>
+      <c r="F1794">
+        <v>0</v>
+      </c>
+      <c r="G1794" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1794" s="1">
+        <v>45556</v>
+      </c>
+      <c r="I1794" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1794" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1794">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1795" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B1795" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>2889</v>
+      </c>
+      <c r="E1795">
+        <v>1</v>
+      </c>
+      <c r="F1795">
+        <v>0</v>
+      </c>
+      <c r="G1795" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1795" s="1">
+        <v>45556</v>
+      </c>
+      <c r="I1795" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1795" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1795">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1796" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B1796" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E1796">
+        <v>14.4</v>
+      </c>
+      <c r="F1796">
+        <v>0</v>
+      </c>
+      <c r="G1796" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1796" s="1">
+        <v>45556</v>
+      </c>
+      <c r="I1796" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1796" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1796">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/produccion.xlsx
+++ b/datasets/produccion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{079356F9-A836-49EE-A3A5-1BE6129B7483}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0625396C-6FA4-489D-B16B-E04D419C5282}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B4B7E62A-ACE4-488F-B31E-63058BE35439}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10414" uniqueCount="3246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10846" uniqueCount="3394">
   <si>
     <t>COD</t>
   </si>
@@ -9774,6 +9774,450 @@
   </si>
   <si>
     <t>x6 Barras</t>
+  </si>
+  <si>
+    <t>1;45558;Extras</t>
+  </si>
+  <si>
+    <t>VIALBA</t>
+  </si>
+  <si>
+    <t>2 Cubiertas</t>
+  </si>
+  <si>
+    <t>2;45558;Extras</t>
+  </si>
+  <si>
+    <t>3;45558;Extras</t>
+  </si>
+  <si>
+    <t>4;45558;Extras</t>
+  </si>
+  <si>
+    <t>5;45558;Extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABO SUR </t>
+  </si>
+  <si>
+    <t>2 Marcos</t>
+  </si>
+  <si>
+    <t>6;45558;Extras</t>
+  </si>
+  <si>
+    <t>7;45558;Extras</t>
+  </si>
+  <si>
+    <t>1 Cajon oculto</t>
+  </si>
+  <si>
+    <t>8;45558;Extras</t>
+  </si>
+  <si>
+    <t>VICKY OROZCO</t>
+  </si>
+  <si>
+    <t>1;45559;Entregables</t>
+  </si>
+  <si>
+    <t>2;45559;Entregables</t>
+  </si>
+  <si>
+    <t>HERCOM  301</t>
+  </si>
+  <si>
+    <t>3;45559;Entregables</t>
+  </si>
+  <si>
+    <t>Vest Rec Ppal.</t>
+  </si>
+  <si>
+    <t>4;45559;Entregables</t>
+  </si>
+  <si>
+    <t>2P Ppales</t>
+  </si>
+  <si>
+    <t>1;45559;Extras</t>
+  </si>
+  <si>
+    <t>2;45559;Extras</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>2 Mamparas</t>
+  </si>
+  <si>
+    <t>3;45559;Extras</t>
+  </si>
+  <si>
+    <t>2 Mascaras</t>
+  </si>
+  <si>
+    <t>4;45559;Extras</t>
+  </si>
+  <si>
+    <t>2 Bases</t>
+  </si>
+  <si>
+    <t>1;45560;Entregables</t>
+  </si>
+  <si>
+    <t>DEPTO INJESA</t>
+  </si>
+  <si>
+    <t>Cloet 02</t>
+  </si>
+  <si>
+    <t>2;45560;Entregables</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 007</t>
+  </si>
+  <si>
+    <t>ARYAN RESIDENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitchen </t>
+  </si>
+  <si>
+    <t>3;45560;Entregables</t>
+  </si>
+  <si>
+    <t>Prep Kitches</t>
+  </si>
+  <si>
+    <t>1;45561;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA BILBAO T.C. 4,5,6</t>
+  </si>
+  <si>
+    <t>2;45561;Entregables</t>
+  </si>
+  <si>
+    <t>3 Closet 01</t>
+  </si>
+  <si>
+    <t>3;45561;Entregables</t>
+  </si>
+  <si>
+    <t>3 Closet 02</t>
+  </si>
+  <si>
+    <t>4;45561;Entregables</t>
+  </si>
+  <si>
+    <t>5;45561;Entregables</t>
+  </si>
+  <si>
+    <t>JAVIER CEDEÑO</t>
+  </si>
+  <si>
+    <t>Cl. Archivero</t>
+  </si>
+  <si>
+    <t>6;45561;Entregables</t>
+  </si>
+  <si>
+    <t>Coffee Station</t>
+  </si>
+  <si>
+    <t>7;45561;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA BILBAO T.C. 1,2,3</t>
+  </si>
+  <si>
+    <t>3Barras Cocina</t>
+  </si>
+  <si>
+    <t>1;45562;Entregables</t>
+  </si>
+  <si>
+    <t>8PTAS INTER</t>
+  </si>
+  <si>
+    <t>2;45562;Entregables</t>
+  </si>
+  <si>
+    <t>1 PTA CORREDIZA</t>
+  </si>
+  <si>
+    <t>3;45562;Entregables</t>
+  </si>
+  <si>
+    <t>VIALBA T01-6/15</t>
+  </si>
+  <si>
+    <t>3 COCINAS</t>
+  </si>
+  <si>
+    <t>4;45562;Entregables</t>
+  </si>
+  <si>
+    <t>6CUBIERTAS</t>
+  </si>
+  <si>
+    <t>5;45562;Entregables</t>
+  </si>
+  <si>
+    <t>FRONT DESK</t>
+  </si>
+  <si>
+    <t>1;45563;Entregables</t>
+  </si>
+  <si>
+    <t>MEDA CASA VERONA</t>
+  </si>
+  <si>
+    <t>COCNA X4</t>
+  </si>
+  <si>
+    <t>2;45563;Entregables</t>
+  </si>
+  <si>
+    <t>CLOSET 01 X4</t>
+  </si>
+  <si>
+    <t>3;45563;Entregables</t>
+  </si>
+  <si>
+    <t>CLOSET 02 X4</t>
+  </si>
+  <si>
+    <t>4;45563;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA BILBAO 4,5,6</t>
+  </si>
+  <si>
+    <t>3 BARRAS COCINA</t>
+  </si>
+  <si>
+    <t>1;45565;Extras</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>LOMALTA 15</t>
+  </si>
+  <si>
+    <t>4P Inter</t>
+  </si>
+  <si>
+    <t>2;45565;Extras</t>
+  </si>
+  <si>
+    <t>6 Ajustes</t>
+  </si>
+  <si>
+    <t>3;45565;Extras</t>
+  </si>
+  <si>
+    <t>2Piernas</t>
+  </si>
+  <si>
+    <t>4;45565;Extras</t>
+  </si>
+  <si>
+    <t>INJESA</t>
+  </si>
+  <si>
+    <t>5;45565;Extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formaicas </t>
+  </si>
+  <si>
+    <t>1;45565;Retrabajos</t>
+  </si>
+  <si>
+    <t>CANTALAGUA</t>
+  </si>
+  <si>
+    <t>2;45565;Retrabajos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIST VERDE </t>
+  </si>
+  <si>
+    <t>Puertas</t>
+  </si>
+  <si>
+    <t>3;45565;Retrabajos</t>
+  </si>
+  <si>
+    <t>1;45566;Extras</t>
+  </si>
+  <si>
+    <t>PUERTA SUR</t>
+  </si>
+  <si>
+    <t>2;45566;Extras</t>
+  </si>
+  <si>
+    <t>3;45566;Extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISTA VERDE </t>
+  </si>
+  <si>
+    <t>4;45566;Extras</t>
+  </si>
+  <si>
+    <t>VERONESA C5</t>
+  </si>
+  <si>
+    <t>5;45566;Extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cab Rec Sec </t>
+  </si>
+  <si>
+    <t>1;45566;Retrabajos</t>
+  </si>
+  <si>
+    <t>1P Planta Baja</t>
+  </si>
+  <si>
+    <t>1;45567;Entregables</t>
+  </si>
+  <si>
+    <t>Coffe Station</t>
+  </si>
+  <si>
+    <t>2;45567;Entregables</t>
+  </si>
+  <si>
+    <t>DEESA BILBAO 4, 5, 6</t>
+  </si>
+  <si>
+    <t>x3 Barras</t>
+  </si>
+  <si>
+    <t>3;45567;Entregables</t>
+  </si>
+  <si>
+    <t>x3 juegos Cl 01</t>
+  </si>
+  <si>
+    <t>4;45567;Entregables</t>
+  </si>
+  <si>
+    <t>x3 juegos Cl 02</t>
+  </si>
+  <si>
+    <t>5;45567;Entregables</t>
+  </si>
+  <si>
+    <t>VIALBA 9/15</t>
+  </si>
+  <si>
+    <t>6;45567;Entregables</t>
+  </si>
+  <si>
+    <t>1;45568;Entregables</t>
+  </si>
+  <si>
+    <t>VILLAS DEL SUR 3/5</t>
+  </si>
+  <si>
+    <t>2;45568;Entregables</t>
+  </si>
+  <si>
+    <t>3;45568;Entregables</t>
+  </si>
+  <si>
+    <t>Lobby Area 1</t>
+  </si>
+  <si>
+    <t>4;45568;Entregables</t>
+  </si>
+  <si>
+    <t>Lobby Area 2</t>
+  </si>
+  <si>
+    <t>5;45568;Entregables</t>
+  </si>
+  <si>
+    <t>HOTEL CANTALAGUA</t>
+  </si>
+  <si>
+    <t>3P Inter</t>
+  </si>
+  <si>
+    <t>1;45569;Entregables</t>
+  </si>
+  <si>
+    <t>2P Int. A1</t>
+  </si>
+  <si>
+    <t>2;45569;Entregables</t>
+  </si>
+  <si>
+    <t>1P Int. A2</t>
+  </si>
+  <si>
+    <t>3;45569;Entregables</t>
+  </si>
+  <si>
+    <t>P Corred +Esp</t>
+  </si>
+  <si>
+    <t>4;45569;Entregables</t>
+  </si>
+  <si>
+    <t>Credenza Librero</t>
+  </si>
+  <si>
+    <t>5;45569;Entregables</t>
+  </si>
+  <si>
+    <t>7 Bancos</t>
+  </si>
+  <si>
+    <t>1;45570;Entregables</t>
+  </si>
+  <si>
+    <t>Librero L</t>
+  </si>
+  <si>
+    <t>2;45570;Entregables</t>
+  </si>
+  <si>
+    <t>Cl. Ppal PB</t>
+  </si>
+  <si>
+    <t>3;45570;Entregables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vest. Ppal P.B. </t>
+  </si>
+  <si>
+    <t>4;45570;Entregables</t>
+  </si>
+  <si>
+    <t>Cl. Ppal PA</t>
+  </si>
+  <si>
+    <t>5;45570;Entregables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vest. Ppal P.A. </t>
+  </si>
+  <si>
+    <t>6;45570;Entregables</t>
+  </si>
+  <si>
+    <t>Muro Div Rec 4.6</t>
+  </si>
+  <si>
+    <t>7;45570;Entregables</t>
   </si>
 </sst>
 </file>
@@ -9845,8 +10289,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1796" totalsRowShown="0">
-  <autoFilter ref="A1:K1796" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}" name="Tabla1" displayName="Tabla1" ref="A1:K1868" totalsRowShown="0">
+  <autoFilter ref="A1:K1868" xr:uid="{A02BC692-0D78-4DFA-B728-8138C44CDB02}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B6ECC9CA-BE29-4C5B-9606-01CFB697A054}" name="COD"/>
     <tableColumn id="2" xr3:uid="{C7D7DD62-79C4-4423-B87E-1408D1237598}" name="CTVV" dataDxfId="2"/>
@@ -10181,10 +10625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEF2190-C283-43C9-B0E2-E2F3DD6D60C6}">
-  <dimension ref="A1:K1796"/>
+  <dimension ref="A1:K1868"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1765" workbookViewId="0">
-      <selection activeCell="A1757" sqref="A1757:K1796"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1847" workbookViewId="0">
+      <selection activeCell="A1797" sqref="A1797:K1868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -70950,7 +71394,7 @@
       <c r="A1757" t="s">
         <v>3169</v>
       </c>
-      <c r="B1757" s="2" t="s">
+      <c r="B1757" t="s">
         <v>550</v>
       </c>
       <c r="C1757" t="s">
@@ -70965,7 +71409,7 @@
       <c r="F1757">
         <v>0</v>
       </c>
-      <c r="G1757" s="2">
+      <c r="G1757">
         <v>0</v>
       </c>
       <c r="H1757" s="1">
@@ -70985,7 +71429,7 @@
       <c r="A1758" t="s">
         <v>3171</v>
       </c>
-      <c r="B1758" s="2" t="s">
+      <c r="B1758" t="s">
         <v>550</v>
       </c>
       <c r="C1758" t="s">
@@ -71000,7 +71444,7 @@
       <c r="F1758">
         <v>0</v>
       </c>
-      <c r="G1758" s="2">
+      <c r="G1758">
         <v>0</v>
       </c>
       <c r="H1758" s="1">
@@ -71020,7 +71464,7 @@
       <c r="A1759" t="s">
         <v>3172</v>
       </c>
-      <c r="B1759" s="2" t="s">
+      <c r="B1759" t="s">
         <v>550</v>
       </c>
       <c r="C1759" t="s">
@@ -71035,7 +71479,7 @@
       <c r="F1759">
         <v>1</v>
       </c>
-      <c r="G1759" s="2">
+      <c r="G1759">
         <v>1.5</v>
       </c>
       <c r="H1759" s="1">
@@ -71055,7 +71499,7 @@
       <c r="A1760" t="s">
         <v>3174</v>
       </c>
-      <c r="B1760" s="2" t="s">
+      <c r="B1760" t="s">
         <v>550</v>
       </c>
       <c r="C1760" t="s">
@@ -71070,7 +71514,7 @@
       <c r="F1760">
         <v>1</v>
       </c>
-      <c r="G1760" s="2">
+      <c r="G1760">
         <v>2</v>
       </c>
       <c r="H1760" s="1">
@@ -71090,7 +71534,7 @@
       <c r="A1761" t="s">
         <v>3176</v>
       </c>
-      <c r="B1761" s="2" t="s">
+      <c r="B1761" t="s">
         <v>550</v>
       </c>
       <c r="C1761" t="s">
@@ -71105,7 +71549,7 @@
       <c r="F1761">
         <v>1</v>
       </c>
-      <c r="G1761" s="2">
+      <c r="G1761">
         <v>1</v>
       </c>
       <c r="H1761" s="1">
@@ -71125,7 +71569,7 @@
       <c r="A1762" t="s">
         <v>3178</v>
       </c>
-      <c r="B1762" s="2" t="s">
+      <c r="B1762" t="s">
         <v>550</v>
       </c>
       <c r="C1762" t="s">
@@ -71140,7 +71584,7 @@
       <c r="F1762">
         <v>1</v>
       </c>
-      <c r="G1762" s="2">
+      <c r="G1762">
         <v>0.9</v>
       </c>
       <c r="H1762" s="1">
@@ -71160,7 +71604,7 @@
       <c r="A1763" t="s">
         <v>3180</v>
       </c>
-      <c r="B1763" s="2" t="s">
+      <c r="B1763" t="s">
         <v>550</v>
       </c>
       <c r="C1763" t="s">
@@ -71175,7 +71619,7 @@
       <c r="F1763">
         <v>1</v>
       </c>
-      <c r="G1763" s="2">
+      <c r="G1763">
         <v>1</v>
       </c>
       <c r="H1763" s="1">
@@ -71195,7 +71639,7 @@
       <c r="A1764" t="s">
         <v>3182</v>
       </c>
-      <c r="B1764" s="2" t="s">
+      <c r="B1764" t="s">
         <v>550</v>
       </c>
       <c r="C1764" t="s">
@@ -71210,7 +71654,7 @@
       <c r="F1764">
         <v>1</v>
       </c>
-      <c r="G1764" s="2">
+      <c r="G1764">
         <v>1</v>
       </c>
       <c r="H1764" s="1">
@@ -71230,7 +71674,7 @@
       <c r="A1765" t="s">
         <v>3184</v>
       </c>
-      <c r="B1765" s="2" t="s">
+      <c r="B1765" t="s">
         <v>550</v>
       </c>
       <c r="C1765" t="s">
@@ -71245,7 +71689,7 @@
       <c r="F1765">
         <v>1</v>
       </c>
-      <c r="G1765" s="2">
+      <c r="G1765">
         <v>1</v>
       </c>
       <c r="H1765" s="1">
@@ -71265,7 +71709,7 @@
       <c r="A1766" t="s">
         <v>3186</v>
       </c>
-      <c r="B1766" s="2" t="s">
+      <c r="B1766" t="s">
         <v>550</v>
       </c>
       <c r="C1766" t="s">
@@ -71280,7 +71724,7 @@
       <c r="F1766">
         <v>1</v>
       </c>
-      <c r="G1766" s="2">
+      <c r="G1766">
         <v>0.7</v>
       </c>
       <c r="H1766" s="1">
@@ -71300,7 +71744,7 @@
       <c r="A1767" t="s">
         <v>3189</v>
       </c>
-      <c r="B1767" s="2" t="s">
+      <c r="B1767" t="s">
         <v>550</v>
       </c>
       <c r="C1767" t="s">
@@ -71315,7 +71759,7 @@
       <c r="F1767">
         <v>1</v>
       </c>
-      <c r="G1767" s="2">
+      <c r="G1767">
         <v>12.7</v>
       </c>
       <c r="H1767" s="1">
@@ -71335,7 +71779,7 @@
       <c r="A1768" t="s">
         <v>3191</v>
       </c>
-      <c r="B1768" s="2" t="s">
+      <c r="B1768" t="s">
         <v>550</v>
       </c>
       <c r="C1768" t="s">
@@ -71350,7 +71794,7 @@
       <c r="F1768">
         <v>1</v>
       </c>
-      <c r="G1768" s="2">
+      <c r="G1768">
         <v>4.7</v>
       </c>
       <c r="H1768" s="1">
@@ -71370,7 +71814,7 @@
       <c r="A1769" t="s">
         <v>3193</v>
       </c>
-      <c r="B1769" s="2" t="s">
+      <c r="B1769" t="s">
         <v>550</v>
       </c>
       <c r="C1769" t="s">
@@ -71385,7 +71829,7 @@
       <c r="F1769">
         <v>1</v>
       </c>
-      <c r="G1769" s="2">
+      <c r="G1769">
         <v>1</v>
       </c>
       <c r="H1769" s="1">
@@ -71405,7 +71849,7 @@
       <c r="A1770" t="s">
         <v>3195</v>
       </c>
-      <c r="B1770" s="2" t="s">
+      <c r="B1770" t="s">
         <v>550</v>
       </c>
       <c r="C1770" t="s">
@@ -71420,7 +71864,7 @@
       <c r="F1770">
         <v>0</v>
       </c>
-      <c r="G1770" s="2">
+      <c r="G1770">
         <v>0</v>
       </c>
       <c r="H1770" s="1">
@@ -71440,7 +71884,7 @@
       <c r="A1771" t="s">
         <v>3196</v>
       </c>
-      <c r="B1771" s="2" t="s">
+      <c r="B1771" t="s">
         <v>550</v>
       </c>
       <c r="C1771" t="s">
@@ -71455,7 +71899,7 @@
       <c r="F1771">
         <v>1</v>
       </c>
-      <c r="G1771" s="2">
+      <c r="G1771">
         <v>5.4</v>
       </c>
       <c r="H1771" s="1">
@@ -71475,7 +71919,7 @@
       <c r="A1772" t="s">
         <v>3199</v>
       </c>
-      <c r="B1772" s="2" t="s">
+      <c r="B1772" t="s">
         <v>550</v>
       </c>
       <c r="C1772" t="s">
@@ -71490,7 +71934,7 @@
       <c r="F1772">
         <v>1</v>
       </c>
-      <c r="G1772" s="2">
+      <c r="G1772">
         <v>6.9</v>
       </c>
       <c r="H1772" s="1">
@@ -71510,7 +71954,7 @@
       <c r="A1773" t="s">
         <v>3201</v>
       </c>
-      <c r="B1773" s="2" t="s">
+      <c r="B1773" t="s">
         <v>550</v>
       </c>
       <c r="C1773" t="s">
@@ -71525,7 +71969,7 @@
       <c r="F1773">
         <v>1</v>
       </c>
-      <c r="G1773" s="2">
+      <c r="G1773">
         <v>1.8</v>
       </c>
       <c r="H1773" s="1">
@@ -71545,7 +71989,7 @@
       <c r="A1774" t="s">
         <v>3203</v>
       </c>
-      <c r="B1774" s="2" t="s">
+      <c r="B1774" t="s">
         <v>550</v>
       </c>
       <c r="C1774" t="s">
@@ -71560,7 +72004,7 @@
       <c r="F1774">
         <v>1</v>
       </c>
-      <c r="G1774" s="2">
+      <c r="G1774">
         <v>14.4</v>
       </c>
       <c r="H1774" s="1">
@@ -71580,7 +72024,7 @@
       <c r="A1775" t="s">
         <v>3205</v>
       </c>
-      <c r="B1775" s="2" t="s">
+      <c r="B1775" t="s">
         <v>550</v>
       </c>
       <c r="C1775" t="s">
@@ -71595,7 +72039,7 @@
       <c r="F1775">
         <v>1</v>
       </c>
-      <c r="G1775" s="2">
+      <c r="G1775">
         <v>1</v>
       </c>
       <c r="H1775" s="1">
@@ -71615,7 +72059,7 @@
       <c r="A1776" t="s">
         <v>3208</v>
       </c>
-      <c r="B1776" s="2" t="s">
+      <c r="B1776" t="s">
         <v>550</v>
       </c>
       <c r="C1776" t="s">
@@ -71630,7 +72074,7 @@
       <c r="F1776">
         <v>1</v>
       </c>
-      <c r="G1776" s="2">
+      <c r="G1776">
         <v>1.5</v>
       </c>
       <c r="H1776" s="1">
@@ -71650,7 +72094,7 @@
       <c r="A1777" t="s">
         <v>3211</v>
       </c>
-      <c r="B1777" s="2" t="s">
+      <c r="B1777" t="s">
         <v>550</v>
       </c>
       <c r="C1777" t="s">
@@ -71665,7 +72109,7 @@
       <c r="F1777">
         <v>1</v>
       </c>
-      <c r="G1777" s="2">
+      <c r="G1777">
         <v>0.9</v>
       </c>
       <c r="H1777" s="1">
@@ -71685,7 +72129,7 @@
       <c r="A1778" t="s">
         <v>3213</v>
       </c>
-      <c r="B1778" s="2" t="s">
+      <c r="B1778" t="s">
         <v>550</v>
       </c>
       <c r="C1778" t="s">
@@ -71700,7 +72144,7 @@
       <c r="F1778">
         <v>1</v>
       </c>
-      <c r="G1778" s="2">
+      <c r="G1778">
         <v>0.9</v>
       </c>
       <c r="H1778" s="1">
@@ -71720,7 +72164,7 @@
       <c r="A1779" t="s">
         <v>3216</v>
       </c>
-      <c r="B1779" s="2" t="s">
+      <c r="B1779" t="s">
         <v>550</v>
       </c>
       <c r="C1779" t="s">
@@ -71735,7 +72179,7 @@
       <c r="F1779">
         <v>1</v>
       </c>
-      <c r="G1779" s="2">
+      <c r="G1779">
         <v>12.6</v>
       </c>
       <c r="H1779" s="1">
@@ -71755,7 +72199,7 @@
       <c r="A1780" t="s">
         <v>3219</v>
       </c>
-      <c r="B1780" s="2" t="s">
+      <c r="B1780" t="s">
         <v>550</v>
       </c>
       <c r="C1780" t="s">
@@ -71770,7 +72214,7 @@
       <c r="F1780">
         <v>1</v>
       </c>
-      <c r="G1780" s="2">
+      <c r="G1780">
         <v>14.8</v>
       </c>
       <c r="H1780" s="1">
@@ -71790,7 +72234,7 @@
       <c r="A1781" t="s">
         <v>3220</v>
       </c>
-      <c r="B1781" s="2" t="s">
+      <c r="B1781" t="s">
         <v>550</v>
       </c>
       <c r="C1781" t="s">
@@ -71805,7 +72249,7 @@
       <c r="F1781">
         <v>0</v>
       </c>
-      <c r="G1781" s="2">
+      <c r="G1781">
         <v>0</v>
       </c>
       <c r="H1781" s="1">
@@ -71825,7 +72269,7 @@
       <c r="A1782" t="s">
         <v>3222</v>
       </c>
-      <c r="B1782" s="2" t="s">
+      <c r="B1782" t="s">
         <v>550</v>
       </c>
       <c r="C1782" t="s">
@@ -71840,7 +72284,7 @@
       <c r="F1782">
         <v>1</v>
       </c>
-      <c r="G1782" s="2">
+      <c r="G1782">
         <v>1</v>
       </c>
       <c r="H1782" s="1">
@@ -71860,7 +72304,7 @@
       <c r="A1783" t="s">
         <v>3224</v>
       </c>
-      <c r="B1783" s="2" t="s">
+      <c r="B1783" t="s">
         <v>550</v>
       </c>
       <c r="C1783" t="s">
@@ -71875,7 +72319,7 @@
       <c r="F1783">
         <v>0</v>
       </c>
-      <c r="G1783" s="2">
+      <c r="G1783">
         <v>0</v>
       </c>
       <c r="H1783" s="1">
@@ -71895,7 +72339,7 @@
       <c r="A1784" t="s">
         <v>3226</v>
       </c>
-      <c r="B1784" s="2" t="s">
+      <c r="B1784" t="s">
         <v>550</v>
       </c>
       <c r="C1784" t="s">
@@ -71910,7 +72354,7 @@
       <c r="F1784">
         <v>0</v>
       </c>
-      <c r="G1784" s="2">
+      <c r="G1784">
         <v>0</v>
       </c>
       <c r="H1784" s="1">
@@ -71930,7 +72374,7 @@
       <c r="A1785" t="s">
         <v>3227</v>
       </c>
-      <c r="B1785" s="2" t="s">
+      <c r="B1785" t="s">
         <v>550</v>
       </c>
       <c r="C1785" t="s">
@@ -71945,7 +72389,7 @@
       <c r="F1785">
         <v>1</v>
       </c>
-      <c r="G1785" s="2">
+      <c r="G1785">
         <v>1.8</v>
       </c>
       <c r="H1785" s="1">
@@ -71965,7 +72409,7 @@
       <c r="A1786" t="s">
         <v>3228</v>
       </c>
-      <c r="B1786" s="2" t="s">
+      <c r="B1786" t="s">
         <v>550</v>
       </c>
       <c r="C1786" t="s">
@@ -71980,7 +72424,7 @@
       <c r="F1786">
         <v>0</v>
       </c>
-      <c r="G1786" s="2">
+      <c r="G1786">
         <v>0</v>
       </c>
       <c r="H1786" s="1">
@@ -72000,7 +72444,7 @@
       <c r="A1787" t="s">
         <v>3229</v>
       </c>
-      <c r="B1787" s="2" t="s">
+      <c r="B1787" t="s">
         <v>550</v>
       </c>
       <c r="C1787" t="s">
@@ -72015,7 +72459,7 @@
       <c r="F1787">
         <v>1</v>
       </c>
-      <c r="G1787" s="2">
+      <c r="G1787">
         <v>6</v>
       </c>
       <c r="H1787" s="1">
@@ -72035,7 +72479,7 @@
       <c r="A1788" t="s">
         <v>3230</v>
       </c>
-      <c r="B1788" s="2" t="s">
+      <c r="B1788" t="s">
         <v>550</v>
       </c>
       <c r="C1788" t="s">
@@ -72050,7 +72494,7 @@
       <c r="F1788">
         <v>1</v>
       </c>
-      <c r="G1788" s="2">
+      <c r="G1788">
         <v>4.4000000000000004</v>
       </c>
       <c r="H1788" s="1">
@@ -72070,7 +72514,7 @@
       <c r="A1789" t="s">
         <v>3231</v>
       </c>
-      <c r="B1789" s="2" t="s">
+      <c r="B1789" t="s">
         <v>550</v>
       </c>
       <c r="C1789" t="s">
@@ -72085,7 +72529,7 @@
       <c r="F1789">
         <v>0</v>
       </c>
-      <c r="G1789" s="2">
+      <c r="G1789">
         <v>0</v>
       </c>
       <c r="H1789" s="1">
@@ -72105,7 +72549,7 @@
       <c r="A1790" t="s">
         <v>3232</v>
       </c>
-      <c r="B1790" s="2" t="s">
+      <c r="B1790" t="s">
         <v>550</v>
       </c>
       <c r="C1790" t="s">
@@ -72120,7 +72564,7 @@
       <c r="F1790">
         <v>1</v>
       </c>
-      <c r="G1790" s="2">
+      <c r="G1790">
         <v>5.4</v>
       </c>
       <c r="H1790" s="1">
@@ -72140,7 +72584,7 @@
       <c r="A1791" t="s">
         <v>3234</v>
       </c>
-      <c r="B1791" s="2" t="s">
+      <c r="B1791" t="s">
         <v>550</v>
       </c>
       <c r="C1791" t="s">
@@ -72155,7 +72599,7 @@
       <c r="F1791">
         <v>1</v>
       </c>
-      <c r="G1791" s="2">
+      <c r="G1791">
         <v>3.6</v>
       </c>
       <c r="H1791" s="1">
@@ -72175,7 +72619,7 @@
       <c r="A1792" t="s">
         <v>3236</v>
       </c>
-      <c r="B1792" s="2" t="s">
+      <c r="B1792" t="s">
         <v>550</v>
       </c>
       <c r="C1792" t="s">
@@ -72190,7 +72634,7 @@
       <c r="F1792">
         <v>0</v>
       </c>
-      <c r="G1792" s="2">
+      <c r="G1792">
         <v>0</v>
       </c>
       <c r="H1792" s="1">
@@ -72210,7 +72654,7 @@
       <c r="A1793" t="s">
         <v>3239</v>
       </c>
-      <c r="B1793" s="2" t="s">
+      <c r="B1793" t="s">
         <v>550</v>
       </c>
       <c r="C1793" t="s">
@@ -72225,7 +72669,7 @@
       <c r="F1793">
         <v>0</v>
       </c>
-      <c r="G1793" s="2">
+      <c r="G1793">
         <v>0</v>
       </c>
       <c r="H1793" s="1">
@@ -72245,7 +72689,7 @@
       <c r="A1794" t="s">
         <v>3241</v>
       </c>
-      <c r="B1794" s="2" t="s">
+      <c r="B1794" t="s">
         <v>550</v>
       </c>
       <c r="C1794" t="s">
@@ -72260,7 +72704,7 @@
       <c r="F1794">
         <v>0</v>
       </c>
-      <c r="G1794" s="2">
+      <c r="G1794">
         <v>0</v>
       </c>
       <c r="H1794" s="1">
@@ -72280,7 +72724,7 @@
       <c r="A1795" t="s">
         <v>3242</v>
       </c>
-      <c r="B1795" s="2" t="s">
+      <c r="B1795" t="s">
         <v>550</v>
       </c>
       <c r="C1795" t="s">
@@ -72295,7 +72739,7 @@
       <c r="F1795">
         <v>0</v>
       </c>
-      <c r="G1795" s="2">
+      <c r="G1795">
         <v>0</v>
       </c>
       <c r="H1795" s="1">
@@ -72315,7 +72759,7 @@
       <c r="A1796" t="s">
         <v>3243</v>
       </c>
-      <c r="B1796" s="2" t="s">
+      <c r="B1796" t="s">
         <v>550</v>
       </c>
       <c r="C1796" t="s">
@@ -72330,7 +72774,7 @@
       <c r="F1796">
         <v>0</v>
       </c>
-      <c r="G1796" s="2">
+      <c r="G1796">
         <v>0</v>
       </c>
       <c r="H1796" s="1">
@@ -72344,6 +72788,2520 @@
       </c>
       <c r="K1796">
         <v>38</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1797" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B1797" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E1797">
+        <v>1.4</v>
+      </c>
+      <c r="F1797">
+        <v>1</v>
+      </c>
+      <c r="G1797" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H1797" s="1">
+        <v>45558</v>
+      </c>
+      <c r="I1797" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1797" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1797">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1798" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B1798" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E1798">
+        <v>1.2</v>
+      </c>
+      <c r="F1798">
+        <v>1</v>
+      </c>
+      <c r="G1798" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H1798" s="1">
+        <v>45558</v>
+      </c>
+      <c r="I1798" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1798" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1798">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1799" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B1799" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E1799">
+        <v>9.5</v>
+      </c>
+      <c r="F1799">
+        <v>1</v>
+      </c>
+      <c r="G1799" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="H1799" s="1">
+        <v>45558</v>
+      </c>
+      <c r="I1799" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1799" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1799">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1800" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B1800" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1800">
+        <v>2.5</v>
+      </c>
+      <c r="F1800">
+        <v>1</v>
+      </c>
+      <c r="G1800" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H1800" s="1">
+        <v>45558</v>
+      </c>
+      <c r="I1800" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1800" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1800">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1801" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B1801" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>3253</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E1801">
+        <v>0.5</v>
+      </c>
+      <c r="F1801">
+        <v>1</v>
+      </c>
+      <c r="G1801" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1801" s="1">
+        <v>45558</v>
+      </c>
+      <c r="I1801" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1801" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1801">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1802" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1802" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>3253</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E1802">
+        <v>0.9</v>
+      </c>
+      <c r="F1802">
+        <v>1</v>
+      </c>
+      <c r="G1802" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1802" s="1">
+        <v>45558</v>
+      </c>
+      <c r="I1802" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1802" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1802">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1803" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B1803" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>3257</v>
+      </c>
+      <c r="E1803">
+        <v>0.5</v>
+      </c>
+      <c r="F1803">
+        <v>1</v>
+      </c>
+      <c r="G1803" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1803" s="1">
+        <v>45558</v>
+      </c>
+      <c r="I1803" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1803" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1803">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1804" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B1804" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1804">
+        <v>1</v>
+      </c>
+      <c r="F1804">
+        <v>1</v>
+      </c>
+      <c r="G1804" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1804" s="1">
+        <v>45558</v>
+      </c>
+      <c r="I1804" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1804" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1804">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1805" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B1805" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E1805">
+        <v>0.9</v>
+      </c>
+      <c r="F1805">
+        <v>1</v>
+      </c>
+      <c r="G1805" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1805" s="1">
+        <v>45559</v>
+      </c>
+      <c r="I1805" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1805" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1805">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1806" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B1806" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1806">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F1806">
+        <v>1</v>
+      </c>
+      <c r="G1806" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H1806" s="1">
+        <v>45559</v>
+      </c>
+      <c r="I1806" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1806" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1806">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1807" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B1807" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>3264</v>
+      </c>
+      <c r="E1807">
+        <v>5.3</v>
+      </c>
+      <c r="F1807">
+        <v>1</v>
+      </c>
+      <c r="G1807" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="H1807" s="1">
+        <v>45559</v>
+      </c>
+      <c r="I1807" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1807" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1807">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1808" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1808" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E1808">
+        <v>5</v>
+      </c>
+      <c r="F1808">
+        <v>1</v>
+      </c>
+      <c r="G1808" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1808" s="1">
+        <v>45559</v>
+      </c>
+      <c r="I1808" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1808" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1808">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1809" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1809" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E1809">
+        <v>0.9</v>
+      </c>
+      <c r="F1809">
+        <v>1</v>
+      </c>
+      <c r="G1809" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1809" s="1">
+        <v>45559</v>
+      </c>
+      <c r="I1809" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1809" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1809">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1810" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B1810" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>3270</v>
+      </c>
+      <c r="E1810">
+        <v>3</v>
+      </c>
+      <c r="F1810">
+        <v>1</v>
+      </c>
+      <c r="G1810" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1810" s="1">
+        <v>45559</v>
+      </c>
+      <c r="I1810" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1810" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1810">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1811" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B1811" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>3272</v>
+      </c>
+      <c r="E1811">
+        <v>2</v>
+      </c>
+      <c r="F1811">
+        <v>1</v>
+      </c>
+      <c r="G1811" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1811" s="1">
+        <v>45559</v>
+      </c>
+      <c r="I1811" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1811" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1811">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1812" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B1812" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>3274</v>
+      </c>
+      <c r="G1812" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1812" s="1">
+        <v>45559</v>
+      </c>
+      <c r="I1812" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1812" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1812">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1813" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B1813" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>3277</v>
+      </c>
+      <c r="E1813">
+        <v>2.5</v>
+      </c>
+      <c r="F1813">
+        <v>1</v>
+      </c>
+      <c r="G1813" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H1813" s="1">
+        <v>45560</v>
+      </c>
+      <c r="I1813" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1813" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1813">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1814" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1814" s="2" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>3281</v>
+      </c>
+      <c r="E1814">
+        <v>14</v>
+      </c>
+      <c r="F1814">
+        <v>1</v>
+      </c>
+      <c r="G1814" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1814" s="1">
+        <v>45560</v>
+      </c>
+      <c r="I1814" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1814" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1814">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1815" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B1815" s="2" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E1815">
+        <v>10.7</v>
+      </c>
+      <c r="F1815">
+        <v>1</v>
+      </c>
+      <c r="G1815" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H1815" s="1">
+        <v>45560</v>
+      </c>
+      <c r="I1815" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1815" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1815">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1816" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B1816" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1816">
+        <v>14.4</v>
+      </c>
+      <c r="F1816">
+        <v>1</v>
+      </c>
+      <c r="G1816" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="H1816" s="1">
+        <v>45561</v>
+      </c>
+      <c r="I1816" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1816" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1816">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1817" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1817" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E1817">
+        <v>5.4</v>
+      </c>
+      <c r="F1817">
+        <v>1</v>
+      </c>
+      <c r="G1817" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H1817" s="1">
+        <v>45561</v>
+      </c>
+      <c r="I1817" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1817" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1817">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1818" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B1818" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>3289</v>
+      </c>
+      <c r="E1818">
+        <v>6.9</v>
+      </c>
+      <c r="F1818">
+        <v>1</v>
+      </c>
+      <c r="G1818" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="H1818" s="1">
+        <v>45561</v>
+      </c>
+      <c r="I1818" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1818" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1818">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1819" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B1819" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>2889</v>
+      </c>
+      <c r="E1819">
+        <v>2</v>
+      </c>
+      <c r="F1819">
+        <v>1</v>
+      </c>
+      <c r="G1819" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1819" s="1">
+        <v>45561</v>
+      </c>
+      <c r="I1819" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1819" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1819">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1820" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B1820" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E1820">
+        <v>4.5</v>
+      </c>
+      <c r="F1820">
+        <v>1</v>
+      </c>
+      <c r="G1820" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H1820" s="1">
+        <v>45561</v>
+      </c>
+      <c r="I1820" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1820" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1820">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1821" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B1821" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>3295</v>
+      </c>
+      <c r="E1821">
+        <v>2</v>
+      </c>
+      <c r="F1821">
+        <v>0</v>
+      </c>
+      <c r="G1821" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1821" s="1">
+        <v>45561</v>
+      </c>
+      <c r="I1821" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1821" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1821">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1822" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B1822" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E1822">
+        <v>7.2</v>
+      </c>
+      <c r="F1822">
+        <v>1</v>
+      </c>
+      <c r="G1822" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H1822" s="1">
+        <v>45561</v>
+      </c>
+      <c r="I1822" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1822" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1822">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1823" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B1823" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>3300</v>
+      </c>
+      <c r="E1823">
+        <v>7.2</v>
+      </c>
+      <c r="F1823">
+        <v>1</v>
+      </c>
+      <c r="G1823" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H1823" s="1">
+        <v>45562</v>
+      </c>
+      <c r="I1823" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1823" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1823">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1824" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B1824" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>3302</v>
+      </c>
+      <c r="E1824">
+        <v>0.9</v>
+      </c>
+      <c r="F1824">
+        <v>1</v>
+      </c>
+      <c r="G1824" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H1824" s="1">
+        <v>45562</v>
+      </c>
+      <c r="I1824" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1824" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1824">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1825" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B1825" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E1825">
+        <v>5.4</v>
+      </c>
+      <c r="F1825">
+        <v>1</v>
+      </c>
+      <c r="G1825" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H1825" s="1">
+        <v>45562</v>
+      </c>
+      <c r="I1825" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1825" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1825">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1826" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B1826" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>3307</v>
+      </c>
+      <c r="E1826">
+        <v>3.6</v>
+      </c>
+      <c r="F1826">
+        <v>1</v>
+      </c>
+      <c r="G1826" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H1826" s="1">
+        <v>45562</v>
+      </c>
+      <c r="I1826" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1826" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1826">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1827" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B1827" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>3309</v>
+      </c>
+      <c r="E1827">
+        <v>2.5</v>
+      </c>
+      <c r="F1827">
+        <v>1</v>
+      </c>
+      <c r="G1827" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H1827" s="1">
+        <v>45562</v>
+      </c>
+      <c r="I1827" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1827" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1827">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1828" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B1828" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E1828">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F1828">
+        <v>1</v>
+      </c>
+      <c r="G1828" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H1828" s="1">
+        <v>45563</v>
+      </c>
+      <c r="I1828" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1828" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1828">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1829" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B1829" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E1829">
+        <v>8.4</v>
+      </c>
+      <c r="F1829">
+        <v>1</v>
+      </c>
+      <c r="G1829" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="H1829" s="1">
+        <v>45563</v>
+      </c>
+      <c r="I1829" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1829" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1829">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1830" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B1830" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E1830">
+        <v>8.4</v>
+      </c>
+      <c r="F1830">
+        <v>1</v>
+      </c>
+      <c r="G1830" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="H1830" s="1">
+        <v>45563</v>
+      </c>
+      <c r="I1830" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1830" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1830">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1831" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B1831" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E1831">
+        <v>7.2</v>
+      </c>
+      <c r="F1831">
+        <v>0</v>
+      </c>
+      <c r="G1831" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1831" s="1">
+        <v>45563</v>
+      </c>
+      <c r="I1831" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1831" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1831">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1832" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B1832" s="2" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E1832">
+        <v>3.6</v>
+      </c>
+      <c r="F1832">
+        <v>2</v>
+      </c>
+      <c r="G1832" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H1832" s="1">
+        <v>45565</v>
+      </c>
+      <c r="I1832" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1832" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1832">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1833" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B1833" s="2" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>3325</v>
+      </c>
+      <c r="E1833">
+        <v>1</v>
+      </c>
+      <c r="F1833">
+        <v>1</v>
+      </c>
+      <c r="G1833" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1833" s="1">
+        <v>45565</v>
+      </c>
+      <c r="I1833" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1833" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1833">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1834" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B1834" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>3327</v>
+      </c>
+      <c r="E1834">
+        <v>0.5</v>
+      </c>
+      <c r="F1834">
+        <v>1</v>
+      </c>
+      <c r="G1834" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1834" s="1">
+        <v>45565</v>
+      </c>
+      <c r="I1834" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1834" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1834">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1835" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B1835" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1835">
+        <v>1</v>
+      </c>
+      <c r="F1835">
+        <v>1</v>
+      </c>
+      <c r="G1835" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1835" s="1">
+        <v>45565</v>
+      </c>
+      <c r="I1835" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1835" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1835">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1836" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1836" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>3331</v>
+      </c>
+      <c r="E1836">
+        <v>1</v>
+      </c>
+      <c r="F1836">
+        <v>1</v>
+      </c>
+      <c r="G1836" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1836" s="1">
+        <v>45565</v>
+      </c>
+      <c r="I1836" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1836" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1836">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1837" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1837" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E1837">
+        <v>1.8</v>
+      </c>
+      <c r="F1837">
+        <v>1</v>
+      </c>
+      <c r="G1837" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H1837" s="1">
+        <v>45565</v>
+      </c>
+      <c r="I1837" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1837" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1837">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1838" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B1838" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>3336</v>
+      </c>
+      <c r="E1838">
+        <v>1</v>
+      </c>
+      <c r="F1838">
+        <v>1</v>
+      </c>
+      <c r="G1838" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1838" s="1">
+        <v>45565</v>
+      </c>
+      <c r="I1838" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1838" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1838">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1839" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B1839" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1839">
+        <v>1</v>
+      </c>
+      <c r="F1839">
+        <v>1</v>
+      </c>
+      <c r="G1839" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1839" s="1">
+        <v>45565</v>
+      </c>
+      <c r="I1839" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1839" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1839">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1840" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B1840" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1840">
+        <v>1</v>
+      </c>
+      <c r="F1840">
+        <v>1</v>
+      </c>
+      <c r="G1840" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1840" s="1">
+        <v>45566</v>
+      </c>
+      <c r="I1840" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1840" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1840">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1841" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1841" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E1841">
+        <v>1</v>
+      </c>
+      <c r="F1841">
+        <v>2</v>
+      </c>
+      <c r="G1841" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1841" s="1">
+        <v>45566</v>
+      </c>
+      <c r="I1841" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1841" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1841">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1842" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B1842" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1842">
+        <v>1</v>
+      </c>
+      <c r="F1842">
+        <v>1</v>
+      </c>
+      <c r="G1842" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1842" s="1">
+        <v>45566</v>
+      </c>
+      <c r="I1842" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1842" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1842">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1843" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B1843" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1843">
+        <v>1</v>
+      </c>
+      <c r="F1843">
+        <v>1</v>
+      </c>
+      <c r="G1843" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1843" s="1">
+        <v>45566</v>
+      </c>
+      <c r="I1843" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1843" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1843">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1844" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1844" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1844">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F1844">
+        <v>1</v>
+      </c>
+      <c r="G1844" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H1844" s="1">
+        <v>45566</v>
+      </c>
+      <c r="I1844" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1844" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1844">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1845" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B1845" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E1845">
+        <v>1</v>
+      </c>
+      <c r="F1845">
+        <v>1</v>
+      </c>
+      <c r="G1845" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1845" s="1">
+        <v>45566</v>
+      </c>
+      <c r="I1845" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1845" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1845">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1846" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B1846" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>3350</v>
+      </c>
+      <c r="E1846">
+        <v>2</v>
+      </c>
+      <c r="F1846">
+        <v>0</v>
+      </c>
+      <c r="G1846" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1846" s="1">
+        <v>45567</v>
+      </c>
+      <c r="I1846" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1846" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1846">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1847" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B1847" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E1847">
+        <v>7.2</v>
+      </c>
+      <c r="F1847">
+        <v>1</v>
+      </c>
+      <c r="G1847" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H1847" s="1">
+        <v>45567</v>
+      </c>
+      <c r="I1847" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1847" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1847">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1848" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B1848" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E1848">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F1848">
+        <v>1</v>
+      </c>
+      <c r="G1848" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H1848" s="1">
+        <v>45567</v>
+      </c>
+      <c r="I1848" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1848" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1848">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1849" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B1849" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>3357</v>
+      </c>
+      <c r="E1849">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F1849">
+        <v>1</v>
+      </c>
+      <c r="G1849" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H1849" s="1">
+        <v>45567</v>
+      </c>
+      <c r="I1849" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1849" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1849">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1850" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B1850" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>3359</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>3204</v>
+      </c>
+      <c r="E1850">
+        <v>5.4</v>
+      </c>
+      <c r="F1850">
+        <v>1</v>
+      </c>
+      <c r="G1850" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H1850" s="1">
+        <v>45567</v>
+      </c>
+      <c r="I1850" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1850" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1850">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1851" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1851" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>3359</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>2711</v>
+      </c>
+      <c r="E1851">
+        <v>3.6</v>
+      </c>
+      <c r="F1851">
+        <v>1</v>
+      </c>
+      <c r="G1851" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H1851" s="1">
+        <v>45567</v>
+      </c>
+      <c r="I1851" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1851" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1851">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1852" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B1852" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>3204</v>
+      </c>
+      <c r="E1852">
+        <v>5.4</v>
+      </c>
+      <c r="F1852">
+        <v>1</v>
+      </c>
+      <c r="G1852" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H1852" s="1">
+        <v>45568</v>
+      </c>
+      <c r="I1852" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1852" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1852">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1853" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1853" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>2711</v>
+      </c>
+      <c r="E1853">
+        <v>3.6</v>
+      </c>
+      <c r="F1853">
+        <v>1</v>
+      </c>
+      <c r="G1853" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H1853" s="1">
+        <v>45568</v>
+      </c>
+      <c r="I1853" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1853" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1853">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1854" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B1854" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E1854">
+        <v>1.7</v>
+      </c>
+      <c r="F1854">
+        <v>0</v>
+      </c>
+      <c r="G1854" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1854" s="1">
+        <v>45568</v>
+      </c>
+      <c r="I1854" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1854" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1854">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1855" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B1855" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>3367</v>
+      </c>
+      <c r="E1855">
+        <v>3.9</v>
+      </c>
+      <c r="F1855">
+        <v>0</v>
+      </c>
+      <c r="G1855" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1855" s="1">
+        <v>45568</v>
+      </c>
+      <c r="I1855" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1855" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1855">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1856" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B1856" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>3370</v>
+      </c>
+      <c r="E1856">
+        <v>2.7</v>
+      </c>
+      <c r="F1856">
+        <v>1</v>
+      </c>
+      <c r="G1856" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="H1856" s="1">
+        <v>45568</v>
+      </c>
+      <c r="I1856" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1856" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1856">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1857" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B1857" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E1857">
+        <v>2</v>
+      </c>
+      <c r="F1857">
+        <v>0</v>
+      </c>
+      <c r="G1857" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1857" s="1">
+        <v>45569</v>
+      </c>
+      <c r="I1857" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1857" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1857">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1858" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1858" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>3374</v>
+      </c>
+      <c r="E1858">
+        <v>1</v>
+      </c>
+      <c r="F1858">
+        <v>0</v>
+      </c>
+      <c r="G1858" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1858" s="1">
+        <v>45569</v>
+      </c>
+      <c r="I1858" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1858" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1858">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1859" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B1859" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E1859">
+        <v>1</v>
+      </c>
+      <c r="F1859">
+        <v>0</v>
+      </c>
+      <c r="G1859" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1859" s="1">
+        <v>45569</v>
+      </c>
+      <c r="I1859" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1859" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1859">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1860" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B1860" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E1860">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F1860">
+        <v>1</v>
+      </c>
+      <c r="G1860" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H1860" s="1">
+        <v>45569</v>
+      </c>
+      <c r="I1860" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1860" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1860">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1861" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B1861" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>3380</v>
+      </c>
+      <c r="E1861">
+        <v>7</v>
+      </c>
+      <c r="F1861">
+        <v>0</v>
+      </c>
+      <c r="G1861" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1861" s="1">
+        <v>45569</v>
+      </c>
+      <c r="I1861" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1861" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1861">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1862" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1862" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>3382</v>
+      </c>
+      <c r="E1862">
+        <v>3.9</v>
+      </c>
+      <c r="F1862">
+        <v>0</v>
+      </c>
+      <c r="G1862" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1862" s="1">
+        <v>45570</v>
+      </c>
+      <c r="I1862" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1862" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1862">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1863" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B1863" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E1863">
+        <v>3.1</v>
+      </c>
+      <c r="F1863">
+        <v>0</v>
+      </c>
+      <c r="G1863" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1863" s="1">
+        <v>45570</v>
+      </c>
+      <c r="I1863" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1863">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1864" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1864" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1864">
+        <v>4.7</v>
+      </c>
+      <c r="F1864">
+        <v>0</v>
+      </c>
+      <c r="G1864" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1864" s="1">
+        <v>45570</v>
+      </c>
+      <c r="I1864" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1864" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1864">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1865" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B1865" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E1865">
+        <v>3.2</v>
+      </c>
+      <c r="F1865">
+        <v>0</v>
+      </c>
+      <c r="G1865" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1865" s="1">
+        <v>45570</v>
+      </c>
+      <c r="I1865" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1865" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1865">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1866" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B1866" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>3390</v>
+      </c>
+      <c r="E1866">
+        <v>4.7</v>
+      </c>
+      <c r="F1866">
+        <v>0</v>
+      </c>
+      <c r="G1866" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1866" s="1">
+        <v>45570</v>
+      </c>
+      <c r="I1866" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1866" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1866">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1867" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B1867" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>3392</v>
+      </c>
+      <c r="E1867">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F1867">
+        <v>0</v>
+      </c>
+      <c r="G1867" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1867" s="1">
+        <v>45570</v>
+      </c>
+      <c r="I1867" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1867" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1867">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1868" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B1868" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>702</v>
+      </c>
+      <c r="E1868">
+        <v>1.5</v>
+      </c>
+      <c r="F1868">
+        <v>0</v>
+      </c>
+      <c r="G1868" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1868" s="1">
+        <v>45570</v>
+      </c>
+      <c r="I1868" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1868" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1868">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/produccion.xlsx
+++ b/datasets/produccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0625396C-6FA4-489D-B16B-E04D419C5282}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{58B8D813-9255-4857-99A0-53D4B4D031FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC3FA922-FF6C-4EF7-BFD1-6CDAD9D91917}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B4B7E62A-ACE4-488F-B31E-63058BE35439}"/>
   </bookViews>
@@ -10253,10 +10253,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10627,8 +10626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEF2190-C283-43C9-B0E2-E2F3DD6D60C6}">
   <dimension ref="A1:K1868"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1847" workbookViewId="0">
-      <selection activeCell="A1797" sqref="A1797:K1868"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H516" sqref="H516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -72794,7 +72793,7 @@
       <c r="A1797" t="s">
         <v>3246</v>
       </c>
-      <c r="B1797" s="2" t="s">
+      <c r="B1797" t="s">
         <v>550</v>
       </c>
       <c r="C1797" t="s">
@@ -72809,7 +72808,7 @@
       <c r="F1797">
         <v>1</v>
       </c>
-      <c r="G1797" s="2">
+      <c r="G1797">
         <v>1.4</v>
       </c>
       <c r="H1797" s="1">
@@ -72829,7 +72828,7 @@
       <c r="A1798" t="s">
         <v>3249</v>
       </c>
-      <c r="B1798" s="2" t="s">
+      <c r="B1798" t="s">
         <v>550</v>
       </c>
       <c r="C1798" t="s">
@@ -72844,7 +72843,7 @@
       <c r="F1798">
         <v>1</v>
       </c>
-      <c r="G1798" s="2">
+      <c r="G1798">
         <v>1.2</v>
       </c>
       <c r="H1798" s="1">
@@ -72864,7 +72863,7 @@
       <c r="A1799" t="s">
         <v>3250</v>
       </c>
-      <c r="B1799" s="2" t="s">
+      <c r="B1799" t="s">
         <v>550</v>
       </c>
       <c r="C1799" t="s">
@@ -72879,7 +72878,7 @@
       <c r="F1799">
         <v>1</v>
       </c>
-      <c r="G1799" s="2">
+      <c r="G1799">
         <v>9.5</v>
       </c>
       <c r="H1799" s="1">
@@ -72899,7 +72898,7 @@
       <c r="A1800" t="s">
         <v>3251</v>
       </c>
-      <c r="B1800" s="2" t="s">
+      <c r="B1800" t="s">
         <v>550</v>
       </c>
       <c r="C1800" t="s">
@@ -72914,7 +72913,7 @@
       <c r="F1800">
         <v>1</v>
       </c>
-      <c r="G1800" s="2">
+      <c r="G1800">
         <v>2.5</v>
       </c>
       <c r="H1800" s="1">
@@ -72934,7 +72933,7 @@
       <c r="A1801" t="s">
         <v>3252</v>
       </c>
-      <c r="B1801" s="2" t="s">
+      <c r="B1801" t="s">
         <v>550</v>
       </c>
       <c r="C1801" t="s">
@@ -72949,7 +72948,7 @@
       <c r="F1801">
         <v>1</v>
       </c>
-      <c r="G1801" s="2">
+      <c r="G1801">
         <v>0.5</v>
       </c>
       <c r="H1801" s="1">
@@ -72969,7 +72968,7 @@
       <c r="A1802" t="s">
         <v>3255</v>
       </c>
-      <c r="B1802" s="2" t="s">
+      <c r="B1802" t="s">
         <v>550</v>
       </c>
       <c r="C1802" t="s">
@@ -72984,7 +72983,7 @@
       <c r="F1802">
         <v>1</v>
       </c>
-      <c r="G1802" s="2">
+      <c r="G1802">
         <v>0.9</v>
       </c>
       <c r="H1802" s="1">
@@ -73004,7 +73003,7 @@
       <c r="A1803" t="s">
         <v>3256</v>
       </c>
-      <c r="B1803" s="2" t="s">
+      <c r="B1803" t="s">
         <v>550</v>
       </c>
       <c r="C1803" t="s">
@@ -73019,7 +73018,7 @@
       <c r="F1803">
         <v>1</v>
       </c>
-      <c r="G1803" s="2">
+      <c r="G1803">
         <v>0.5</v>
       </c>
       <c r="H1803" s="1">
@@ -73039,7 +73038,7 @@
       <c r="A1804" t="s">
         <v>3258</v>
       </c>
-      <c r="B1804" s="2" t="s">
+      <c r="B1804" t="s">
         <v>550</v>
       </c>
       <c r="C1804" t="s">
@@ -73054,7 +73053,7 @@
       <c r="F1804">
         <v>1</v>
       </c>
-      <c r="G1804" s="2">
+      <c r="G1804">
         <v>1</v>
       </c>
       <c r="H1804" s="1">
@@ -73074,7 +73073,7 @@
       <c r="A1805" t="s">
         <v>3260</v>
       </c>
-      <c r="B1805" s="2" t="s">
+      <c r="B1805" t="s">
         <v>550</v>
       </c>
       <c r="C1805" t="s">
@@ -73089,7 +73088,7 @@
       <c r="F1805">
         <v>1</v>
       </c>
-      <c r="G1805" s="2">
+      <c r="G1805">
         <v>0.9</v>
       </c>
       <c r="H1805" s="1">
@@ -73109,7 +73108,7 @@
       <c r="A1806" t="s">
         <v>3261</v>
       </c>
-      <c r="B1806" s="2" t="s">
+      <c r="B1806" t="s">
         <v>550</v>
       </c>
       <c r="C1806" t="s">
@@ -73124,7 +73123,7 @@
       <c r="F1806">
         <v>1</v>
       </c>
-      <c r="G1806" s="2">
+      <c r="G1806">
         <v>4.4000000000000004</v>
       </c>
       <c r="H1806" s="1">
@@ -73144,7 +73143,7 @@
       <c r="A1807" t="s">
         <v>3263</v>
       </c>
-      <c r="B1807" s="2" t="s">
+      <c r="B1807" t="s">
         <v>550</v>
       </c>
       <c r="C1807" t="s">
@@ -73159,7 +73158,7 @@
       <c r="F1807">
         <v>1</v>
       </c>
-      <c r="G1807" s="2">
+      <c r="G1807">
         <v>5.3</v>
       </c>
       <c r="H1807" s="1">
@@ -73179,7 +73178,7 @@
       <c r="A1808" t="s">
         <v>3265</v>
       </c>
-      <c r="B1808" s="2" t="s">
+      <c r="B1808" t="s">
         <v>550</v>
       </c>
       <c r="C1808" t="s">
@@ -73194,7 +73193,7 @@
       <c r="F1808">
         <v>1</v>
       </c>
-      <c r="G1808" s="2">
+      <c r="G1808">
         <v>5</v>
       </c>
       <c r="H1808" s="1">
@@ -73214,7 +73213,7 @@
       <c r="A1809" t="s">
         <v>3267</v>
       </c>
-      <c r="B1809" s="2" t="s">
+      <c r="B1809" t="s">
         <v>550</v>
       </c>
       <c r="C1809" t="s">
@@ -73229,7 +73228,7 @@
       <c r="F1809">
         <v>1</v>
       </c>
-      <c r="G1809" s="2">
+      <c r="G1809">
         <v>0.9</v>
       </c>
       <c r="H1809" s="1">
@@ -73249,7 +73248,7 @@
       <c r="A1810" t="s">
         <v>3268</v>
       </c>
-      <c r="B1810" s="2" t="s">
+      <c r="B1810" t="s">
         <v>550</v>
       </c>
       <c r="C1810" t="s">
@@ -73264,7 +73263,7 @@
       <c r="F1810">
         <v>1</v>
       </c>
-      <c r="G1810" s="2">
+      <c r="G1810">
         <v>3</v>
       </c>
       <c r="H1810" s="1">
@@ -73284,7 +73283,7 @@
       <c r="A1811" t="s">
         <v>3271</v>
       </c>
-      <c r="B1811" s="2" t="s">
+      <c r="B1811" t="s">
         <v>550</v>
       </c>
       <c r="C1811" t="s">
@@ -73299,7 +73298,7 @@
       <c r="F1811">
         <v>1</v>
       </c>
-      <c r="G1811" s="2">
+      <c r="G1811">
         <v>2</v>
       </c>
       <c r="H1811" s="1">
@@ -73319,7 +73318,7 @@
       <c r="A1812" t="s">
         <v>3273</v>
       </c>
-      <c r="B1812" s="2" t="s">
+      <c r="B1812" t="s">
         <v>550</v>
       </c>
       <c r="C1812" t="s">
@@ -73328,7 +73327,7 @@
       <c r="D1812" t="s">
         <v>3274</v>
       </c>
-      <c r="G1812" s="2">
+      <c r="G1812">
         <v>0</v>
       </c>
       <c r="H1812" s="1">
@@ -73348,7 +73347,7 @@
       <c r="A1813" t="s">
         <v>3275</v>
       </c>
-      <c r="B1813" s="2" t="s">
+      <c r="B1813" t="s">
         <v>550</v>
       </c>
       <c r="C1813" t="s">
@@ -73363,7 +73362,7 @@
       <c r="F1813">
         <v>1</v>
       </c>
-      <c r="G1813" s="2">
+      <c r="G1813">
         <v>2.5</v>
       </c>
       <c r="H1813" s="1">
@@ -73383,7 +73382,7 @@
       <c r="A1814" t="s">
         <v>3278</v>
       </c>
-      <c r="B1814" s="2" t="s">
+      <c r="B1814" t="s">
         <v>3279</v>
       </c>
       <c r="C1814" t="s">
@@ -73398,7 +73397,7 @@
       <c r="F1814">
         <v>1</v>
       </c>
-      <c r="G1814" s="2">
+      <c r="G1814">
         <v>14</v>
       </c>
       <c r="H1814" s="1">
@@ -73418,7 +73417,7 @@
       <c r="A1815" t="s">
         <v>3282</v>
       </c>
-      <c r="B1815" s="2" t="s">
+      <c r="B1815" t="s">
         <v>3279</v>
       </c>
       <c r="C1815" t="s">
@@ -73433,7 +73432,7 @@
       <c r="F1815">
         <v>1</v>
       </c>
-      <c r="G1815" s="2">
+      <c r="G1815">
         <v>10.7</v>
       </c>
       <c r="H1815" s="1">
@@ -73453,7 +73452,7 @@
       <c r="A1816" t="s">
         <v>3284</v>
       </c>
-      <c r="B1816" s="2" t="s">
+      <c r="B1816" t="s">
         <v>550</v>
       </c>
       <c r="C1816" t="s">
@@ -73468,7 +73467,7 @@
       <c r="F1816">
         <v>1</v>
       </c>
-      <c r="G1816" s="2">
+      <c r="G1816">
         <v>14.4</v>
       </c>
       <c r="H1816" s="1">
@@ -73488,7 +73487,7 @@
       <c r="A1817" t="s">
         <v>3286</v>
       </c>
-      <c r="B1817" s="2" t="s">
+      <c r="B1817" t="s">
         <v>550</v>
       </c>
       <c r="C1817" t="s">
@@ -73503,7 +73502,7 @@
       <c r="F1817">
         <v>1</v>
       </c>
-      <c r="G1817" s="2">
+      <c r="G1817">
         <v>5.4</v>
       </c>
       <c r="H1817" s="1">
@@ -73523,7 +73522,7 @@
       <c r="A1818" t="s">
         <v>3288</v>
       </c>
-      <c r="B1818" s="2" t="s">
+      <c r="B1818" t="s">
         <v>550</v>
       </c>
       <c r="C1818" t="s">
@@ -73538,7 +73537,7 @@
       <c r="F1818">
         <v>1</v>
       </c>
-      <c r="G1818" s="2">
+      <c r="G1818">
         <v>6.9</v>
       </c>
       <c r="H1818" s="1">
@@ -73558,7 +73557,7 @@
       <c r="A1819" t="s">
         <v>3290</v>
       </c>
-      <c r="B1819" s="2" t="s">
+      <c r="B1819" t="s">
         <v>550</v>
       </c>
       <c r="C1819" t="s">
@@ -73573,7 +73572,7 @@
       <c r="F1819">
         <v>1</v>
       </c>
-      <c r="G1819" s="2">
+      <c r="G1819">
         <v>2</v>
       </c>
       <c r="H1819" s="1">
@@ -73593,7 +73592,7 @@
       <c r="A1820" t="s">
         <v>3291</v>
       </c>
-      <c r="B1820" s="2" t="s">
+      <c r="B1820" t="s">
         <v>550</v>
       </c>
       <c r="C1820" t="s">
@@ -73608,7 +73607,7 @@
       <c r="F1820">
         <v>1</v>
       </c>
-      <c r="G1820" s="2">
+      <c r="G1820">
         <v>4.5</v>
       </c>
       <c r="H1820" s="1">
@@ -73628,7 +73627,7 @@
       <c r="A1821" t="s">
         <v>3294</v>
       </c>
-      <c r="B1821" s="2" t="s">
+      <c r="B1821" t="s">
         <v>550</v>
       </c>
       <c r="C1821" t="s">
@@ -73643,7 +73642,7 @@
       <c r="F1821">
         <v>0</v>
       </c>
-      <c r="G1821" s="2">
+      <c r="G1821">
         <v>0</v>
       </c>
       <c r="H1821" s="1">
@@ -73663,7 +73662,7 @@
       <c r="A1822" t="s">
         <v>3296</v>
       </c>
-      <c r="B1822" s="2" t="s">
+      <c r="B1822" t="s">
         <v>550</v>
       </c>
       <c r="C1822" t="s">
@@ -73678,7 +73677,7 @@
       <c r="F1822">
         <v>1</v>
       </c>
-      <c r="G1822" s="2">
+      <c r="G1822">
         <v>7.2</v>
       </c>
       <c r="H1822" s="1">
@@ -73698,7 +73697,7 @@
       <c r="A1823" t="s">
         <v>3299</v>
       </c>
-      <c r="B1823" s="2" t="s">
+      <c r="B1823" t="s">
         <v>550</v>
       </c>
       <c r="C1823" t="s">
@@ -73713,7 +73712,7 @@
       <c r="F1823">
         <v>1</v>
       </c>
-      <c r="G1823" s="2">
+      <c r="G1823">
         <v>7.2</v>
       </c>
       <c r="H1823" s="1">
@@ -73733,7 +73732,7 @@
       <c r="A1824" t="s">
         <v>3301</v>
       </c>
-      <c r="B1824" s="2" t="s">
+      <c r="B1824" t="s">
         <v>550</v>
       </c>
       <c r="C1824" t="s">
@@ -73748,7 +73747,7 @@
       <c r="F1824">
         <v>1</v>
       </c>
-      <c r="G1824" s="2">
+      <c r="G1824">
         <v>0.9</v>
       </c>
       <c r="H1824" s="1">
@@ -73768,7 +73767,7 @@
       <c r="A1825" t="s">
         <v>3303</v>
       </c>
-      <c r="B1825" s="2" t="s">
+      <c r="B1825" t="s">
         <v>550</v>
       </c>
       <c r="C1825" t="s">
@@ -73783,7 +73782,7 @@
       <c r="F1825">
         <v>1</v>
       </c>
-      <c r="G1825" s="2">
+      <c r="G1825">
         <v>5.4</v>
       </c>
       <c r="H1825" s="1">
@@ -73803,7 +73802,7 @@
       <c r="A1826" t="s">
         <v>3306</v>
       </c>
-      <c r="B1826" s="2" t="s">
+      <c r="B1826" t="s">
         <v>550</v>
       </c>
       <c r="C1826" t="s">
@@ -73818,7 +73817,7 @@
       <c r="F1826">
         <v>1</v>
       </c>
-      <c r="G1826" s="2">
+      <c r="G1826">
         <v>3.6</v>
       </c>
       <c r="H1826" s="1">
@@ -73838,7 +73837,7 @@
       <c r="A1827" t="s">
         <v>3308</v>
       </c>
-      <c r="B1827" s="2" t="s">
+      <c r="B1827" t="s">
         <v>550</v>
       </c>
       <c r="C1827" t="s">
@@ -73853,7 +73852,7 @@
       <c r="F1827">
         <v>1</v>
       </c>
-      <c r="G1827" s="2">
+      <c r="G1827">
         <v>2.5</v>
       </c>
       <c r="H1827" s="1">
@@ -73873,7 +73872,7 @@
       <c r="A1828" t="s">
         <v>3310</v>
       </c>
-      <c r="B1828" s="2" t="s">
+      <c r="B1828" t="s">
         <v>550</v>
       </c>
       <c r="C1828" t="s">
@@ -73888,7 +73887,7 @@
       <c r="F1828">
         <v>1</v>
       </c>
-      <c r="G1828" s="2">
+      <c r="G1828">
         <v>19.600000000000001</v>
       </c>
       <c r="H1828" s="1">
@@ -73908,7 +73907,7 @@
       <c r="A1829" t="s">
         <v>3313</v>
       </c>
-      <c r="B1829" s="2" t="s">
+      <c r="B1829" t="s">
         <v>550</v>
       </c>
       <c r="C1829" t="s">
@@ -73923,7 +73922,7 @@
       <c r="F1829">
         <v>1</v>
       </c>
-      <c r="G1829" s="2">
+      <c r="G1829">
         <v>8.4</v>
       </c>
       <c r="H1829" s="1">
@@ -73943,7 +73942,7 @@
       <c r="A1830" t="s">
         <v>3315</v>
       </c>
-      <c r="B1830" s="2" t="s">
+      <c r="B1830" t="s">
         <v>550</v>
       </c>
       <c r="C1830" t="s">
@@ -73958,7 +73957,7 @@
       <c r="F1830">
         <v>1</v>
       </c>
-      <c r="G1830" s="2">
+      <c r="G1830">
         <v>8.4</v>
       </c>
       <c r="H1830" s="1">
@@ -73978,7 +73977,7 @@
       <c r="A1831" t="s">
         <v>3317</v>
       </c>
-      <c r="B1831" s="2" t="s">
+      <c r="B1831" t="s">
         <v>550</v>
       </c>
       <c r="C1831" t="s">
@@ -73993,7 +73992,7 @@
       <c r="F1831">
         <v>0</v>
       </c>
-      <c r="G1831" s="2">
+      <c r="G1831">
         <v>0</v>
       </c>
       <c r="H1831" s="1">
@@ -74013,7 +74012,7 @@
       <c r="A1832" t="s">
         <v>3320</v>
       </c>
-      <c r="B1832" s="2" t="s">
+      <c r="B1832" t="s">
         <v>3321</v>
       </c>
       <c r="C1832" t="s">
@@ -74028,7 +74027,7 @@
       <c r="F1832">
         <v>2</v>
       </c>
-      <c r="G1832" s="2">
+      <c r="G1832">
         <v>3.6</v>
       </c>
       <c r="H1832" s="1">
@@ -74048,7 +74047,7 @@
       <c r="A1833" t="s">
         <v>3324</v>
       </c>
-      <c r="B1833" s="2" t="s">
+      <c r="B1833" t="s">
         <v>3321</v>
       </c>
       <c r="C1833" t="s">
@@ -74063,7 +74062,7 @@
       <c r="F1833">
         <v>1</v>
       </c>
-      <c r="G1833" s="2">
+      <c r="G1833">
         <v>1</v>
       </c>
       <c r="H1833" s="1">
@@ -74083,7 +74082,7 @@
       <c r="A1834" t="s">
         <v>3326</v>
       </c>
-      <c r="B1834" s="2" t="s">
+      <c r="B1834" t="s">
         <v>550</v>
       </c>
       <c r="C1834" t="s">
@@ -74098,7 +74097,7 @@
       <c r="F1834">
         <v>1</v>
       </c>
-      <c r="G1834" s="2">
+      <c r="G1834">
         <v>0.5</v>
       </c>
       <c r="H1834" s="1">
@@ -74118,7 +74117,7 @@
       <c r="A1835" t="s">
         <v>3328</v>
       </c>
-      <c r="B1835" s="2" t="s">
+      <c r="B1835" t="s">
         <v>550</v>
       </c>
       <c r="C1835" t="s">
@@ -74133,7 +74132,7 @@
       <c r="F1835">
         <v>1</v>
       </c>
-      <c r="G1835" s="2">
+      <c r="G1835">
         <v>1</v>
       </c>
       <c r="H1835" s="1">
@@ -74153,7 +74152,7 @@
       <c r="A1836" t="s">
         <v>3330</v>
       </c>
-      <c r="B1836" s="2" t="s">
+      <c r="B1836" t="s">
         <v>550</v>
       </c>
       <c r="C1836" t="s">
@@ -74168,7 +74167,7 @@
       <c r="F1836">
         <v>1</v>
       </c>
-      <c r="G1836" s="2">
+      <c r="G1836">
         <v>1</v>
       </c>
       <c r="H1836" s="1">
@@ -74188,7 +74187,7 @@
       <c r="A1837" t="s">
         <v>3332</v>
       </c>
-      <c r="B1837" s="2" t="s">
+      <c r="B1837" t="s">
         <v>550</v>
       </c>
       <c r="C1837" t="s">
@@ -74203,7 +74202,7 @@
       <c r="F1837">
         <v>1</v>
       </c>
-      <c r="G1837" s="2">
+      <c r="G1837">
         <v>1.8</v>
       </c>
       <c r="H1837" s="1">
@@ -74223,7 +74222,7 @@
       <c r="A1838" t="s">
         <v>3334</v>
       </c>
-      <c r="B1838" s="2" t="s">
+      <c r="B1838" t="s">
         <v>550</v>
       </c>
       <c r="C1838" t="s">
@@ -74238,7 +74237,7 @@
       <c r="F1838">
         <v>1</v>
       </c>
-      <c r="G1838" s="2">
+      <c r="G1838">
         <v>1</v>
       </c>
       <c r="H1838" s="1">
@@ -74258,7 +74257,7 @@
       <c r="A1839" t="s">
         <v>3337</v>
       </c>
-      <c r="B1839" s="2" t="s">
+      <c r="B1839" t="s">
         <v>550</v>
       </c>
       <c r="C1839" t="s">
@@ -74273,7 +74272,7 @@
       <c r="F1839">
         <v>1</v>
       </c>
-      <c r="G1839" s="2">
+      <c r="G1839">
         <v>1</v>
       </c>
       <c r="H1839" s="1">
@@ -74293,7 +74292,7 @@
       <c r="A1840" t="s">
         <v>3338</v>
       </c>
-      <c r="B1840" s="2" t="s">
+      <c r="B1840" t="s">
         <v>550</v>
       </c>
       <c r="C1840" t="s">
@@ -74308,7 +74307,7 @@
       <c r="F1840">
         <v>1</v>
       </c>
-      <c r="G1840" s="2">
+      <c r="G1840">
         <v>1</v>
       </c>
       <c r="H1840" s="1">
@@ -74328,7 +74327,7 @@
       <c r="A1841" t="s">
         <v>3340</v>
       </c>
-      <c r="B1841" s="2" t="s">
+      <c r="B1841" t="s">
         <v>550</v>
       </c>
       <c r="C1841" t="s">
@@ -74343,7 +74342,7 @@
       <c r="F1841">
         <v>2</v>
       </c>
-      <c r="G1841" s="2">
+      <c r="G1841">
         <v>1</v>
       </c>
       <c r="H1841" s="1">
@@ -74363,7 +74362,7 @@
       <c r="A1842" t="s">
         <v>3341</v>
       </c>
-      <c r="B1842" s="2" t="s">
+      <c r="B1842" t="s">
         <v>550</v>
       </c>
       <c r="C1842" t="s">
@@ -74378,7 +74377,7 @@
       <c r="F1842">
         <v>1</v>
       </c>
-      <c r="G1842" s="2">
+      <c r="G1842">
         <v>1</v>
       </c>
       <c r="H1842" s="1">
@@ -74398,7 +74397,7 @@
       <c r="A1843" t="s">
         <v>3343</v>
       </c>
-      <c r="B1843" s="2" t="s">
+      <c r="B1843" t="s">
         <v>550</v>
       </c>
       <c r="C1843" t="s">
@@ -74413,7 +74412,7 @@
       <c r="F1843">
         <v>1</v>
       </c>
-      <c r="G1843" s="2">
+      <c r="G1843">
         <v>1</v>
       </c>
       <c r="H1843" s="1">
@@ -74433,7 +74432,7 @@
       <c r="A1844" t="s">
         <v>3345</v>
       </c>
-      <c r="B1844" s="2" t="s">
+      <c r="B1844" t="s">
         <v>550</v>
       </c>
       <c r="C1844" t="s">
@@ -74448,7 +74447,7 @@
       <c r="F1844">
         <v>1</v>
       </c>
-      <c r="G1844" s="2">
+      <c r="G1844">
         <v>2.2000000000000002</v>
       </c>
       <c r="H1844" s="1">
@@ -74468,7 +74467,7 @@
       <c r="A1845" t="s">
         <v>3347</v>
       </c>
-      <c r="B1845" s="2" t="s">
+      <c r="B1845" t="s">
         <v>550</v>
       </c>
       <c r="C1845" t="s">
@@ -74483,7 +74482,7 @@
       <c r="F1845">
         <v>1</v>
       </c>
-      <c r="G1845" s="2">
+      <c r="G1845">
         <v>1</v>
       </c>
       <c r="H1845" s="1">
@@ -74503,7 +74502,7 @@
       <c r="A1846" t="s">
         <v>3349</v>
       </c>
-      <c r="B1846" s="2" t="s">
+      <c r="B1846" t="s">
         <v>550</v>
       </c>
       <c r="C1846" t="s">
@@ -74518,7 +74517,7 @@
       <c r="F1846">
         <v>0</v>
       </c>
-      <c r="G1846" s="2">
+      <c r="G1846">
         <v>0</v>
       </c>
       <c r="H1846" s="1">
@@ -74538,7 +74537,7 @@
       <c r="A1847" t="s">
         <v>3351</v>
       </c>
-      <c r="B1847" s="2" t="s">
+      <c r="B1847" t="s">
         <v>550</v>
       </c>
       <c r="C1847" t="s">
@@ -74553,7 +74552,7 @@
       <c r="F1847">
         <v>1</v>
       </c>
-      <c r="G1847" s="2">
+      <c r="G1847">
         <v>7.2</v>
       </c>
       <c r="H1847" s="1">
@@ -74573,7 +74572,7 @@
       <c r="A1848" t="s">
         <v>3354</v>
       </c>
-      <c r="B1848" s="2" t="s">
+      <c r="B1848" t="s">
         <v>550</v>
       </c>
       <c r="C1848" t="s">
@@ -74588,7 +74587,7 @@
       <c r="F1848">
         <v>1</v>
       </c>
-      <c r="G1848" s="2">
+      <c r="G1848">
         <v>9.1999999999999993</v>
       </c>
       <c r="H1848" s="1">
@@ -74608,7 +74607,7 @@
       <c r="A1849" t="s">
         <v>3356</v>
       </c>
-      <c r="B1849" s="2" t="s">
+      <c r="B1849" t="s">
         <v>550</v>
       </c>
       <c r="C1849" t="s">
@@ -74623,7 +74622,7 @@
       <c r="F1849">
         <v>1</v>
       </c>
-      <c r="G1849" s="2">
+      <c r="G1849">
         <v>9.1999999999999993</v>
       </c>
       <c r="H1849" s="1">
@@ -74643,7 +74642,7 @@
       <c r="A1850" t="s">
         <v>3358</v>
       </c>
-      <c r="B1850" s="2" t="s">
+      <c r="B1850" t="s">
         <v>550</v>
       </c>
       <c r="C1850" t="s">
@@ -74658,7 +74657,7 @@
       <c r="F1850">
         <v>1</v>
       </c>
-      <c r="G1850" s="2">
+      <c r="G1850">
         <v>5.4</v>
       </c>
       <c r="H1850" s="1">
@@ -74678,7 +74677,7 @@
       <c r="A1851" t="s">
         <v>3360</v>
       </c>
-      <c r="B1851" s="2" t="s">
+      <c r="B1851" t="s">
         <v>550</v>
       </c>
       <c r="C1851" t="s">
@@ -74693,7 +74692,7 @@
       <c r="F1851">
         <v>1</v>
       </c>
-      <c r="G1851" s="2">
+      <c r="G1851">
         <v>3.6</v>
       </c>
       <c r="H1851" s="1">
@@ -74713,7 +74712,7 @@
       <c r="A1852" t="s">
         <v>3361</v>
       </c>
-      <c r="B1852" s="2" t="s">
+      <c r="B1852" t="s">
         <v>550</v>
       </c>
       <c r="C1852" t="s">
@@ -74728,7 +74727,7 @@
       <c r="F1852">
         <v>1</v>
       </c>
-      <c r="G1852" s="2">
+      <c r="G1852">
         <v>5.4</v>
       </c>
       <c r="H1852" s="1">
@@ -74748,7 +74747,7 @@
       <c r="A1853" t="s">
         <v>3363</v>
       </c>
-      <c r="B1853" s="2" t="s">
+      <c r="B1853" t="s">
         <v>550</v>
       </c>
       <c r="C1853" t="s">
@@ -74763,7 +74762,7 @@
       <c r="F1853">
         <v>1</v>
       </c>
-      <c r="G1853" s="2">
+      <c r="G1853">
         <v>3.6</v>
       </c>
       <c r="H1853" s="1">
@@ -74783,7 +74782,7 @@
       <c r="A1854" t="s">
         <v>3364</v>
       </c>
-      <c r="B1854" s="2" t="s">
+      <c r="B1854" t="s">
         <v>550</v>
       </c>
       <c r="C1854" t="s">
@@ -74798,7 +74797,7 @@
       <c r="F1854">
         <v>0</v>
       </c>
-      <c r="G1854" s="2">
+      <c r="G1854">
         <v>0</v>
       </c>
       <c r="H1854" s="1">
@@ -74818,7 +74817,7 @@
       <c r="A1855" t="s">
         <v>3366</v>
       </c>
-      <c r="B1855" s="2" t="s">
+      <c r="B1855" t="s">
         <v>550</v>
       </c>
       <c r="C1855" t="s">
@@ -74833,7 +74832,7 @@
       <c r="F1855">
         <v>0</v>
       </c>
-      <c r="G1855" s="2">
+      <c r="G1855">
         <v>0</v>
       </c>
       <c r="H1855" s="1">
@@ -74853,7 +74852,7 @@
       <c r="A1856" t="s">
         <v>3368</v>
       </c>
-      <c r="B1856" s="2" t="s">
+      <c r="B1856" t="s">
         <v>550</v>
       </c>
       <c r="C1856" t="s">
@@ -74868,7 +74867,7 @@
       <c r="F1856">
         <v>1</v>
       </c>
-      <c r="G1856" s="2">
+      <c r="G1856">
         <v>2.7</v>
       </c>
       <c r="H1856" s="1">
@@ -74888,7 +74887,7 @@
       <c r="A1857" t="s">
         <v>3371</v>
       </c>
-      <c r="B1857" s="2" t="s">
+      <c r="B1857" t="s">
         <v>550</v>
       </c>
       <c r="C1857" t="s">
@@ -74903,7 +74902,7 @@
       <c r="F1857">
         <v>0</v>
       </c>
-      <c r="G1857" s="2">
+      <c r="G1857">
         <v>0</v>
       </c>
       <c r="H1857" s="1">
@@ -74923,7 +74922,7 @@
       <c r="A1858" t="s">
         <v>3373</v>
       </c>
-      <c r="B1858" s="2" t="s">
+      <c r="B1858" t="s">
         <v>550</v>
       </c>
       <c r="C1858" t="s">
@@ -74938,7 +74937,7 @@
       <c r="F1858">
         <v>0</v>
       </c>
-      <c r="G1858" s="2">
+      <c r="G1858">
         <v>0</v>
       </c>
       <c r="H1858" s="1">
@@ -74958,7 +74957,7 @@
       <c r="A1859" t="s">
         <v>3375</v>
       </c>
-      <c r="B1859" s="2" t="s">
+      <c r="B1859" t="s">
         <v>550</v>
       </c>
       <c r="C1859" t="s">
@@ -74973,7 +74972,7 @@
       <c r="F1859">
         <v>0</v>
       </c>
-      <c r="G1859" s="2">
+      <c r="G1859">
         <v>0</v>
       </c>
       <c r="H1859" s="1">
@@ -74993,7 +74992,7 @@
       <c r="A1860" t="s">
         <v>3377</v>
       </c>
-      <c r="B1860" s="2" t="s">
+      <c r="B1860" t="s">
         <v>550</v>
       </c>
       <c r="C1860" t="s">
@@ -75008,7 +75007,7 @@
       <c r="F1860">
         <v>1</v>
       </c>
-      <c r="G1860" s="2">
+      <c r="G1860">
         <v>4.4000000000000004</v>
       </c>
       <c r="H1860" s="1">
@@ -75028,7 +75027,7 @@
       <c r="A1861" t="s">
         <v>3379</v>
       </c>
-      <c r="B1861" s="2" t="s">
+      <c r="B1861" t="s">
         <v>550</v>
       </c>
       <c r="C1861" t="s">
@@ -75043,7 +75042,7 @@
       <c r="F1861">
         <v>0</v>
       </c>
-      <c r="G1861" s="2">
+      <c r="G1861">
         <v>0</v>
       </c>
       <c r="H1861" s="1">
@@ -75063,7 +75062,7 @@
       <c r="A1862" t="s">
         <v>3381</v>
       </c>
-      <c r="B1862" s="2" t="s">
+      <c r="B1862" t="s">
         <v>550</v>
       </c>
       <c r="C1862" t="s">
@@ -75078,7 +75077,7 @@
       <c r="F1862">
         <v>0</v>
       </c>
-      <c r="G1862" s="2">
+      <c r="G1862">
         <v>0</v>
       </c>
       <c r="H1862" s="1">
@@ -75098,7 +75097,7 @@
       <c r="A1863" t="s">
         <v>3383</v>
       </c>
-      <c r="B1863" s="2" t="s">
+      <c r="B1863" t="s">
         <v>550</v>
       </c>
       <c r="C1863" t="s">
@@ -75113,7 +75112,7 @@
       <c r="F1863">
         <v>0</v>
       </c>
-      <c r="G1863" s="2">
+      <c r="G1863">
         <v>0</v>
       </c>
       <c r="H1863" s="1">
@@ -75133,7 +75132,7 @@
       <c r="A1864" t="s">
         <v>3385</v>
       </c>
-      <c r="B1864" s="2" t="s">
+      <c r="B1864" t="s">
         <v>550</v>
       </c>
       <c r="C1864" t="s">
@@ -75148,7 +75147,7 @@
       <c r="F1864">
         <v>0</v>
       </c>
-      <c r="G1864" s="2">
+      <c r="G1864">
         <v>0</v>
       </c>
       <c r="H1864" s="1">
@@ -75168,7 +75167,7 @@
       <c r="A1865" t="s">
         <v>3387</v>
       </c>
-      <c r="B1865" s="2" t="s">
+      <c r="B1865" t="s">
         <v>550</v>
       </c>
       <c r="C1865" t="s">
@@ -75183,7 +75182,7 @@
       <c r="F1865">
         <v>0</v>
       </c>
-      <c r="G1865" s="2">
+      <c r="G1865">
         <v>0</v>
       </c>
       <c r="H1865" s="1">
@@ -75203,7 +75202,7 @@
       <c r="A1866" t="s">
         <v>3389</v>
       </c>
-      <c r="B1866" s="2" t="s">
+      <c r="B1866" t="s">
         <v>550</v>
       </c>
       <c r="C1866" t="s">
@@ -75218,7 +75217,7 @@
       <c r="F1866">
         <v>0</v>
       </c>
-      <c r="G1866" s="2">
+      <c r="G1866">
         <v>0</v>
       </c>
       <c r="H1866" s="1">
@@ -75238,7 +75237,7 @@
       <c r="A1867" t="s">
         <v>3391</v>
       </c>
-      <c r="B1867" s="2" t="s">
+      <c r="B1867" t="s">
         <v>550</v>
       </c>
       <c r="C1867" t="s">
@@ -75253,7 +75252,7 @@
       <c r="F1867">
         <v>0</v>
       </c>
-      <c r="G1867" s="2">
+      <c r="G1867">
         <v>0</v>
       </c>
       <c r="H1867" s="1">
@@ -75273,7 +75272,7 @@
       <c r="A1868" t="s">
         <v>3393</v>
       </c>
-      <c r="B1868" s="2" t="s">
+      <c r="B1868" t="s">
         <v>550</v>
       </c>
       <c r="C1868" t="s">
@@ -75288,7 +75287,7 @@
       <c r="F1868">
         <v>0</v>
       </c>
-      <c r="G1868" s="2">
+      <c r="G1868">
         <v>0</v>
       </c>
       <c r="H1868" s="1">
